--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC89F2EB-7882-4C56-B218-050D6B2DC197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22776" windowHeight="14664"/>
   </bookViews>
   <sheets>
     <sheet name="工程表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$FL$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$FJ$110</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -93,13 +92,6 @@
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実績</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -153,70 +145,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>仕様書</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>動作環境</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>開発環境構築</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中間発表資料（パワポ）
-作成</t>
-    <rPh sb="0" eb="2">
-      <t>チュウカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プロダクトバックログ選定</t>
-    <rPh sb="10" eb="12">
-      <t>センテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>計画</t>
     <rPh sb="0" eb="2">
       <t>ケイカク</t>
@@ -238,113 +166,263 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画面作成</t>
+    <t>要求分析書</t>
     <rPh sb="0" eb="2">
-      <t>ガメン</t>
+      <t>ヨウキュウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>サクセイ</t>
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>カード認識機能</t>
-    <rPh sb="3" eb="5">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
+    <t>全体DFD</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ゲームシステム作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
+    <t>サブシステム構造図</t>
+    <rPh sb="6" eb="9">
+      <t>コウゾウズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>動作確認</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
+    <t>各サブシステム関連図</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テスト・修正</t>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
+    <t>各サブシステム構成図</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウセイズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画面設計</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
+    <t>各サブシステムIPO図</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>機能設計</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
+    <t>ER図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>最終発表資料作成</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
+    <t xml:space="preserve">
+データベース仕様書</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>追加詳細機能</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
+    <t>コード設計書</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>機能テスト・修正</t>
+    <t>画面遷移図</t>
     <rPh sb="0" eb="2">
-      <t>キノウ</t>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>帳票設計書</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各プログラム関連図</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
+      <t>カンレン</t>
     </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各プログラム構成図</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各プログラムIPO図</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト実施結果</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ガントチャート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作業日報</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッポウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最終感想文</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンソウブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>計画</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実績</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2019/10/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2019/10/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2019/１０/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2019/1０/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中尾・河田</t>
+    <rPh sb="0" eb="2">
+      <t>ナカオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中山・川戸・奥野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オクノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2019/10/</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -617,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,20 +845,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -792,16 +865,45 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -809,61 +911,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -917,23 +965,51 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -964,44 +1040,34 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightDown">
-          <fgColor theme="0"/>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1014,23 +1080,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1042,23 +1094,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1070,23 +1108,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1098,23 +1122,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1126,23 +1136,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1154,23 +1150,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1182,23 +1164,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1210,23 +1178,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1238,23 +1192,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1266,23 +1206,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1294,23 +1220,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1322,23 +1234,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1350,23 +1248,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1378,443 +1262,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1854,49 +1304,6 @@
         <left/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightDown">
-          <fgColor theme="0"/>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -2186,64 +1593,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:HS110"/>
+  <dimension ref="A1:HQ110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="4" topLeftCell="EB5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I15:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="3.08984375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="38" customWidth="1"/>
-    <col min="7" max="10" width="9.90625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="5.26953125" style="40" customWidth="1"/>
-    <col min="14" max="227" width="2.453125" style="6" customWidth="1"/>
-    <col min="228" max="16384" width="3.7265625" style="6"/>
+    <col min="2" max="4" width="3.109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="38" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" style="40" customWidth="1"/>
+    <col min="12" max="225" width="2.44140625" style="6" customWidth="1"/>
+    <col min="226" max="16384" width="3.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:227" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="17">
-        <f>YEAR(N3)</f>
+      <c r="I1" s="1"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="17">
+        <f>YEAR(L3)</f>
         <v>2019</v>
       </c>
+      <c r="M1" s="17" t="str">
+        <f>IF(YEAR(M3)=YEAR(L3),"",YEAR(M3))</f>
+        <v/>
+      </c>
+      <c r="N1" s="17" t="str">
+        <f t="shared" ref="N1:BY1" si="0">IF(YEAR(N3)=YEAR(M3),"",YEAR(N3))</f>
+        <v/>
+      </c>
       <c r="O1" s="17" t="str">
-        <f>IF(YEAR(O3)=YEAR(N3),"",YEAR(O3))</f>
-        <v/>
-      </c>
-      <c r="P1" s="17" t="str">
-        <f t="shared" ref="P1:CA1" si="0">IF(YEAR(P3)=YEAR(O3),"",YEAR(P3))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P1" s="17">
+        <f t="shared" si="0"/>
+        <v>2016</v>
       </c>
       <c r="Q1" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R1" s="17">
+      <c r="R1" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>2016</v>
+        <v/>
       </c>
       <c r="S1" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2482,15 +1895,15 @@
         <v/>
       </c>
       <c r="BZ1" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BZ1:EC1" si="1">IF(YEAR(BZ3)=YEAR(BY3),"",YEAR(BZ3))</f>
         <v/>
       </c>
       <c r="CA1" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="CB1" s="17" t="str">
-        <f t="shared" ref="CB1:EE1" si="1">IF(YEAR(CB3)=YEAR(CA3),"",YEAR(CB3))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="CC1" s="17" t="str">
@@ -2677,17 +2090,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DW1" s="17" t="str">
+      <c r="DW1" s="17">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="DX1" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DY1" s="17">
+      <c r="DY1" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>2019</v>
+        <v/>
       </c>
       <c r="DZ1" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2706,404 +2119,402 @@
         <v/>
       </c>
       <c r="ED1" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="ED1" si="2">IF(YEAR(ED3)=YEAR(EC3),"",YEAR(ED3))</f>
         <v/>
       </c>
       <c r="EE1" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="EE1" si="3">IF(YEAR(EE3)=YEAR(ED3),"",YEAR(EE3))</f>
         <v/>
       </c>
       <c r="EF1" s="17" t="str">
-        <f t="shared" ref="EF1" si="2">IF(YEAR(EF3)=YEAR(EE3),"",YEAR(EF3))</f>
+        <f t="shared" ref="EF1" si="4">IF(YEAR(EF3)=YEAR(EE3),"",YEAR(EF3))</f>
         <v/>
       </c>
       <c r="EG1" s="17" t="str">
-        <f t="shared" ref="EG1" si="3">IF(YEAR(EG3)=YEAR(EF3),"",YEAR(EG3))</f>
+        <f t="shared" ref="EG1" si="5">IF(YEAR(EG3)=YEAR(EF3),"",YEAR(EG3))</f>
         <v/>
       </c>
       <c r="EH1" s="17" t="str">
-        <f t="shared" ref="EH1" si="4">IF(YEAR(EH3)=YEAR(EG3),"",YEAR(EH3))</f>
+        <f t="shared" ref="EH1" si="6">IF(YEAR(EH3)=YEAR(EG3),"",YEAR(EH3))</f>
         <v/>
       </c>
       <c r="EI1" s="17" t="str">
-        <f t="shared" ref="EI1" si="5">IF(YEAR(EI3)=YEAR(EH3),"",YEAR(EI3))</f>
+        <f t="shared" ref="EI1" si="7">IF(YEAR(EI3)=YEAR(EH3),"",YEAR(EI3))</f>
         <v/>
       </c>
       <c r="EJ1" s="17" t="str">
-        <f t="shared" ref="EJ1" si="6">IF(YEAR(EJ3)=YEAR(EI3),"",YEAR(EJ3))</f>
+        <f t="shared" ref="EJ1" si="8">IF(YEAR(EJ3)=YEAR(EI3),"",YEAR(EJ3))</f>
         <v/>
       </c>
       <c r="EK1" s="17" t="str">
-        <f t="shared" ref="EK1" si="7">IF(YEAR(EK3)=YEAR(EJ3),"",YEAR(EK3))</f>
+        <f t="shared" ref="EK1" si="9">IF(YEAR(EK3)=YEAR(EJ3),"",YEAR(EK3))</f>
         <v/>
       </c>
       <c r="EL1" s="17" t="str">
-        <f t="shared" ref="EL1" si="8">IF(YEAR(EL3)=YEAR(EK3),"",YEAR(EL3))</f>
+        <f t="shared" ref="EL1" si="10">IF(YEAR(EL3)=YEAR(EK3),"",YEAR(EL3))</f>
         <v/>
       </c>
       <c r="EM1" s="17" t="str">
-        <f t="shared" ref="EM1" si="9">IF(YEAR(EM3)=YEAR(EL3),"",YEAR(EM3))</f>
+        <f t="shared" ref="EM1" si="11">IF(YEAR(EM3)=YEAR(EL3),"",YEAR(EM3))</f>
         <v/>
       </c>
       <c r="EN1" s="17" t="str">
-        <f t="shared" ref="EN1" si="10">IF(YEAR(EN3)=YEAR(EM3),"",YEAR(EN3))</f>
+        <f t="shared" ref="EN1" si="12">IF(YEAR(EN3)=YEAR(EM3),"",YEAR(EN3))</f>
         <v/>
       </c>
       <c r="EO1" s="17" t="str">
-        <f t="shared" ref="EO1" si="11">IF(YEAR(EO3)=YEAR(EN3),"",YEAR(EO3))</f>
+        <f t="shared" ref="EO1" si="13">IF(YEAR(EO3)=YEAR(EN3),"",YEAR(EO3))</f>
         <v/>
       </c>
       <c r="EP1" s="17" t="str">
-        <f t="shared" ref="EP1" si="12">IF(YEAR(EP3)=YEAR(EO3),"",YEAR(EP3))</f>
+        <f t="shared" ref="EP1" si="14">IF(YEAR(EP3)=YEAR(EO3),"",YEAR(EP3))</f>
         <v/>
       </c>
       <c r="EQ1" s="17" t="str">
-        <f t="shared" ref="EQ1" si="13">IF(YEAR(EQ3)=YEAR(EP3),"",YEAR(EQ3))</f>
+        <f t="shared" ref="EQ1" si="15">IF(YEAR(EQ3)=YEAR(EP3),"",YEAR(EQ3))</f>
         <v/>
       </c>
       <c r="ER1" s="17" t="str">
-        <f t="shared" ref="ER1" si="14">IF(YEAR(ER3)=YEAR(EQ3),"",YEAR(ER3))</f>
+        <f t="shared" ref="ER1" si="16">IF(YEAR(ER3)=YEAR(EQ3),"",YEAR(ER3))</f>
         <v/>
       </c>
       <c r="ES1" s="17" t="str">
-        <f t="shared" ref="ES1" si="15">IF(YEAR(ES3)=YEAR(ER3),"",YEAR(ES3))</f>
+        <f t="shared" ref="ES1" si="17">IF(YEAR(ES3)=YEAR(ER3),"",YEAR(ES3))</f>
         <v/>
       </c>
       <c r="ET1" s="17" t="str">
-        <f t="shared" ref="ET1" si="16">IF(YEAR(ET3)=YEAR(ES3),"",YEAR(ET3))</f>
+        <f t="shared" ref="ET1" si="18">IF(YEAR(ET3)=YEAR(ES3),"",YEAR(ET3))</f>
         <v/>
       </c>
       <c r="EU1" s="17" t="str">
-        <f t="shared" ref="EU1" si="17">IF(YEAR(EU3)=YEAR(ET3),"",YEAR(EU3))</f>
+        <f t="shared" ref="EU1" si="19">IF(YEAR(EU3)=YEAR(ET3),"",YEAR(EU3))</f>
         <v/>
       </c>
       <c r="EV1" s="17" t="str">
-        <f t="shared" ref="EV1" si="18">IF(YEAR(EV3)=YEAR(EU3),"",YEAR(EV3))</f>
+        <f t="shared" ref="EV1" si="20">IF(YEAR(EV3)=YEAR(EU3),"",YEAR(EV3))</f>
         <v/>
       </c>
       <c r="EW1" s="17" t="str">
-        <f t="shared" ref="EW1" si="19">IF(YEAR(EW3)=YEAR(EV3),"",YEAR(EW3))</f>
+        <f t="shared" ref="EW1" si="21">IF(YEAR(EW3)=YEAR(EV3),"",YEAR(EW3))</f>
         <v/>
       </c>
       <c r="EX1" s="17" t="str">
-        <f t="shared" ref="EX1" si="20">IF(YEAR(EX3)=YEAR(EW3),"",YEAR(EX3))</f>
+        <f t="shared" ref="EX1" si="22">IF(YEAR(EX3)=YEAR(EW3),"",YEAR(EX3))</f>
         <v/>
       </c>
       <c r="EY1" s="17" t="str">
-        <f t="shared" ref="EY1" si="21">IF(YEAR(EY3)=YEAR(EX3),"",YEAR(EY3))</f>
+        <f t="shared" ref="EY1" si="23">IF(YEAR(EY3)=YEAR(EX3),"",YEAR(EY3))</f>
         <v/>
       </c>
       <c r="EZ1" s="17" t="str">
-        <f t="shared" ref="EZ1" si="22">IF(YEAR(EZ3)=YEAR(EY3),"",YEAR(EZ3))</f>
+        <f t="shared" ref="EZ1" si="24">IF(YEAR(EZ3)=YEAR(EY3),"",YEAR(EZ3))</f>
         <v/>
       </c>
       <c r="FA1" s="17" t="str">
-        <f t="shared" ref="FA1" si="23">IF(YEAR(FA3)=YEAR(EZ3),"",YEAR(FA3))</f>
+        <f t="shared" ref="FA1" si="25">IF(YEAR(FA3)=YEAR(EZ3),"",YEAR(FA3))</f>
         <v/>
       </c>
       <c r="FB1" s="17" t="str">
-        <f t="shared" ref="FB1" si="24">IF(YEAR(FB3)=YEAR(FA3),"",YEAR(FB3))</f>
+        <f t="shared" ref="FB1" si="26">IF(YEAR(FB3)=YEAR(FA3),"",YEAR(FB3))</f>
         <v/>
       </c>
       <c r="FC1" s="17" t="str">
-        <f t="shared" ref="FC1" si="25">IF(YEAR(FC3)=YEAR(FB3),"",YEAR(FC3))</f>
+        <f t="shared" ref="FC1" si="27">IF(YEAR(FC3)=YEAR(FB3),"",YEAR(FC3))</f>
         <v/>
       </c>
       <c r="FD1" s="17" t="str">
-        <f t="shared" ref="FD1" si="26">IF(YEAR(FD3)=YEAR(FC3),"",YEAR(FD3))</f>
+        <f t="shared" ref="FD1" si="28">IF(YEAR(FD3)=YEAR(FC3),"",YEAR(FD3))</f>
         <v/>
       </c>
       <c r="FE1" s="17" t="str">
-        <f t="shared" ref="FE1" si="27">IF(YEAR(FE3)=YEAR(FD3),"",YEAR(FE3))</f>
+        <f t="shared" ref="FE1" si="29">IF(YEAR(FE3)=YEAR(FD3),"",YEAR(FE3))</f>
         <v/>
       </c>
       <c r="FF1" s="17" t="str">
-        <f t="shared" ref="FF1" si="28">IF(YEAR(FF3)=YEAR(FE3),"",YEAR(FF3))</f>
+        <f t="shared" ref="FF1" si="30">IF(YEAR(FF3)=YEAR(FE3),"",YEAR(FF3))</f>
         <v/>
       </c>
       <c r="FG1" s="17" t="str">
-        <f t="shared" ref="FG1" si="29">IF(YEAR(FG3)=YEAR(FF3),"",YEAR(FG3))</f>
+        <f t="shared" ref="FG1" si="31">IF(YEAR(FG3)=YEAR(FF3),"",YEAR(FG3))</f>
         <v/>
       </c>
       <c r="FH1" s="17" t="str">
-        <f t="shared" ref="FH1" si="30">IF(YEAR(FH3)=YEAR(FG3),"",YEAR(FH3))</f>
+        <f t="shared" ref="FH1" si="32">IF(YEAR(FH3)=YEAR(FG3),"",YEAR(FH3))</f>
         <v/>
       </c>
       <c r="FI1" s="17" t="str">
-        <f t="shared" ref="FI1" si="31">IF(YEAR(FI3)=YEAR(FH3),"",YEAR(FI3))</f>
+        <f t="shared" ref="FI1" si="33">IF(YEAR(FI3)=YEAR(FH3),"",YEAR(FI3))</f>
         <v/>
       </c>
       <c r="FJ1" s="17" t="str">
-        <f t="shared" ref="FJ1" si="32">IF(YEAR(FJ3)=YEAR(FI3),"",YEAR(FJ3))</f>
+        <f t="shared" ref="FJ1" si="34">IF(YEAR(FJ3)=YEAR(FI3),"",YEAR(FJ3))</f>
         <v/>
       </c>
       <c r="FK1" s="17" t="str">
-        <f t="shared" ref="FK1" si="33">IF(YEAR(FK3)=YEAR(FJ3),"",YEAR(FK3))</f>
+        <f t="shared" ref="FK1" si="35">IF(YEAR(FK3)=YEAR(FJ3),"",YEAR(FK3))</f>
         <v/>
       </c>
       <c r="FL1" s="17" t="str">
-        <f t="shared" ref="FL1" si="34">IF(YEAR(FL3)=YEAR(FK3),"",YEAR(FL3))</f>
+        <f t="shared" ref="FL1" si="36">IF(YEAR(FL3)=YEAR(FK3),"",YEAR(FL3))</f>
         <v/>
       </c>
       <c r="FM1" s="17" t="str">
-        <f t="shared" ref="FM1" si="35">IF(YEAR(FM3)=YEAR(FL3),"",YEAR(FM3))</f>
+        <f t="shared" ref="FM1" si="37">IF(YEAR(FM3)=YEAR(FL3),"",YEAR(FM3))</f>
         <v/>
       </c>
       <c r="FN1" s="17" t="str">
-        <f t="shared" ref="FN1" si="36">IF(YEAR(FN3)=YEAR(FM3),"",YEAR(FN3))</f>
+        <f t="shared" ref="FN1" si="38">IF(YEAR(FN3)=YEAR(FM3),"",YEAR(FN3))</f>
         <v/>
       </c>
       <c r="FO1" s="17" t="str">
-        <f t="shared" ref="FO1" si="37">IF(YEAR(FO3)=YEAR(FN3),"",YEAR(FO3))</f>
+        <f t="shared" ref="FO1" si="39">IF(YEAR(FO3)=YEAR(FN3),"",YEAR(FO3))</f>
         <v/>
       </c>
       <c r="FP1" s="17" t="str">
-        <f t="shared" ref="FP1" si="38">IF(YEAR(FP3)=YEAR(FO3),"",YEAR(FP3))</f>
+        <f t="shared" ref="FP1" si="40">IF(YEAR(FP3)=YEAR(FO3),"",YEAR(FP3))</f>
         <v/>
       </c>
       <c r="FQ1" s="17" t="str">
-        <f t="shared" ref="FQ1" si="39">IF(YEAR(FQ3)=YEAR(FP3),"",YEAR(FQ3))</f>
+        <f t="shared" ref="FQ1" si="41">IF(YEAR(FQ3)=YEAR(FP3),"",YEAR(FQ3))</f>
         <v/>
       </c>
       <c r="FR1" s="17" t="str">
-        <f t="shared" ref="FR1" si="40">IF(YEAR(FR3)=YEAR(FQ3),"",YEAR(FR3))</f>
+        <f t="shared" ref="FR1" si="42">IF(YEAR(FR3)=YEAR(FQ3),"",YEAR(FR3))</f>
         <v/>
       </c>
       <c r="FS1" s="17" t="str">
-        <f t="shared" ref="FS1" si="41">IF(YEAR(FS3)=YEAR(FR3),"",YEAR(FS3))</f>
+        <f t="shared" ref="FS1" si="43">IF(YEAR(FS3)=YEAR(FR3),"",YEAR(FS3))</f>
         <v/>
       </c>
       <c r="FT1" s="17" t="str">
-        <f t="shared" ref="FT1" si="42">IF(YEAR(FT3)=YEAR(FS3),"",YEAR(FT3))</f>
+        <f t="shared" ref="FT1" si="44">IF(YEAR(FT3)=YEAR(FS3),"",YEAR(FT3))</f>
         <v/>
       </c>
       <c r="FU1" s="17" t="str">
-        <f t="shared" ref="FU1" si="43">IF(YEAR(FU3)=YEAR(FT3),"",YEAR(FU3))</f>
+        <f t="shared" ref="FU1" si="45">IF(YEAR(FU3)=YEAR(FT3),"",YEAR(FU3))</f>
         <v/>
       </c>
       <c r="FV1" s="17" t="str">
-        <f t="shared" ref="FV1" si="44">IF(YEAR(FV3)=YEAR(FU3),"",YEAR(FV3))</f>
+        <f t="shared" ref="FV1" si="46">IF(YEAR(FV3)=YEAR(FU3),"",YEAR(FV3))</f>
         <v/>
       </c>
       <c r="FW1" s="17" t="str">
-        <f t="shared" ref="FW1" si="45">IF(YEAR(FW3)=YEAR(FV3),"",YEAR(FW3))</f>
+        <f t="shared" ref="FW1" si="47">IF(YEAR(FW3)=YEAR(FV3),"",YEAR(FW3))</f>
         <v/>
       </c>
       <c r="FX1" s="17" t="str">
-        <f t="shared" ref="FX1" si="46">IF(YEAR(FX3)=YEAR(FW3),"",YEAR(FX3))</f>
+        <f t="shared" ref="FX1" si="48">IF(YEAR(FX3)=YEAR(FW3),"",YEAR(FX3))</f>
         <v/>
       </c>
       <c r="FY1" s="17" t="str">
-        <f t="shared" ref="FY1" si="47">IF(YEAR(FY3)=YEAR(FX3),"",YEAR(FY3))</f>
+        <f t="shared" ref="FY1" si="49">IF(YEAR(FY3)=YEAR(FX3),"",YEAR(FY3))</f>
         <v/>
       </c>
       <c r="FZ1" s="17" t="str">
-        <f t="shared" ref="FZ1" si="48">IF(YEAR(FZ3)=YEAR(FY3),"",YEAR(FZ3))</f>
+        <f t="shared" ref="FZ1" si="50">IF(YEAR(FZ3)=YEAR(FY3),"",YEAR(FZ3))</f>
         <v/>
       </c>
       <c r="GA1" s="17" t="str">
-        <f t="shared" ref="GA1" si="49">IF(YEAR(GA3)=YEAR(FZ3),"",YEAR(GA3))</f>
+        <f t="shared" ref="GA1" si="51">IF(YEAR(GA3)=YEAR(FZ3),"",YEAR(GA3))</f>
         <v/>
       </c>
       <c r="GB1" s="17" t="str">
-        <f t="shared" ref="GB1" si="50">IF(YEAR(GB3)=YEAR(GA3),"",YEAR(GB3))</f>
+        <f t="shared" ref="GB1" si="52">IF(YEAR(GB3)=YEAR(GA3),"",YEAR(GB3))</f>
         <v/>
       </c>
       <c r="GC1" s="17" t="str">
-        <f t="shared" ref="GC1" si="51">IF(YEAR(GC3)=YEAR(GB3),"",YEAR(GC3))</f>
+        <f t="shared" ref="GC1" si="53">IF(YEAR(GC3)=YEAR(GB3),"",YEAR(GC3))</f>
         <v/>
       </c>
       <c r="GD1" s="17" t="str">
-        <f t="shared" ref="GD1" si="52">IF(YEAR(GD3)=YEAR(GC3),"",YEAR(GD3))</f>
+        <f t="shared" ref="GD1" si="54">IF(YEAR(GD3)=YEAR(GC3),"",YEAR(GD3))</f>
         <v/>
       </c>
       <c r="GE1" s="17" t="str">
-        <f t="shared" ref="GE1" si="53">IF(YEAR(GE3)=YEAR(GD3),"",YEAR(GE3))</f>
+        <f t="shared" ref="GE1" si="55">IF(YEAR(GE3)=YEAR(GD3),"",YEAR(GE3))</f>
         <v/>
       </c>
       <c r="GF1" s="17" t="str">
-        <f t="shared" ref="GF1" si="54">IF(YEAR(GF3)=YEAR(GE3),"",YEAR(GF3))</f>
+        <f t="shared" ref="GF1" si="56">IF(YEAR(GF3)=YEAR(GE3),"",YEAR(GF3))</f>
         <v/>
       </c>
       <c r="GG1" s="17" t="str">
-        <f t="shared" ref="GG1" si="55">IF(YEAR(GG3)=YEAR(GF3),"",YEAR(GG3))</f>
+        <f t="shared" ref="GG1" si="57">IF(YEAR(GG3)=YEAR(GF3),"",YEAR(GG3))</f>
         <v/>
       </c>
       <c r="GH1" s="17" t="str">
-        <f t="shared" ref="GH1" si="56">IF(YEAR(GH3)=YEAR(GG3),"",YEAR(GH3))</f>
+        <f t="shared" ref="GH1" si="58">IF(YEAR(GH3)=YEAR(GG3),"",YEAR(GH3))</f>
         <v/>
       </c>
       <c r="GI1" s="17" t="str">
-        <f t="shared" ref="GI1" si="57">IF(YEAR(GI3)=YEAR(GH3),"",YEAR(GI3))</f>
+        <f t="shared" ref="GI1" si="59">IF(YEAR(GI3)=YEAR(GH3),"",YEAR(GI3))</f>
         <v/>
       </c>
       <c r="GJ1" s="17" t="str">
-        <f t="shared" ref="GJ1" si="58">IF(YEAR(GJ3)=YEAR(GI3),"",YEAR(GJ3))</f>
+        <f t="shared" ref="GJ1" si="60">IF(YEAR(GJ3)=YEAR(GI3),"",YEAR(GJ3))</f>
         <v/>
       </c>
       <c r="GK1" s="17" t="str">
-        <f t="shared" ref="GK1" si="59">IF(YEAR(GK3)=YEAR(GJ3),"",YEAR(GK3))</f>
+        <f t="shared" ref="GK1" si="61">IF(YEAR(GK3)=YEAR(GJ3),"",YEAR(GK3))</f>
         <v/>
       </c>
       <c r="GL1" s="17" t="str">
-        <f t="shared" ref="GL1" si="60">IF(YEAR(GL3)=YEAR(GK3),"",YEAR(GL3))</f>
+        <f t="shared" ref="GL1" si="62">IF(YEAR(GL3)=YEAR(GK3),"",YEAR(GL3))</f>
         <v/>
       </c>
       <c r="GM1" s="17" t="str">
-        <f t="shared" ref="GM1" si="61">IF(YEAR(GM3)=YEAR(GL3),"",YEAR(GM3))</f>
+        <f t="shared" ref="GM1" si="63">IF(YEAR(GM3)=YEAR(GL3),"",YEAR(GM3))</f>
         <v/>
       </c>
       <c r="GN1" s="17" t="str">
-        <f t="shared" ref="GN1" si="62">IF(YEAR(GN3)=YEAR(GM3),"",YEAR(GN3))</f>
+        <f t="shared" ref="GN1" si="64">IF(YEAR(GN3)=YEAR(GM3),"",YEAR(GN3))</f>
         <v/>
       </c>
       <c r="GO1" s="17" t="str">
-        <f t="shared" ref="GO1" si="63">IF(YEAR(GO3)=YEAR(GN3),"",YEAR(GO3))</f>
+        <f t="shared" ref="GO1" si="65">IF(YEAR(GO3)=YEAR(GN3),"",YEAR(GO3))</f>
         <v/>
       </c>
       <c r="GP1" s="17" t="str">
-        <f t="shared" ref="GP1" si="64">IF(YEAR(GP3)=YEAR(GO3),"",YEAR(GP3))</f>
+        <f t="shared" ref="GP1" si="66">IF(YEAR(GP3)=YEAR(GO3),"",YEAR(GP3))</f>
         <v/>
       </c>
       <c r="GQ1" s="17" t="str">
-        <f t="shared" ref="GQ1" si="65">IF(YEAR(GQ3)=YEAR(GP3),"",YEAR(GQ3))</f>
+        <f t="shared" ref="GQ1" si="67">IF(YEAR(GQ3)=YEAR(GP3),"",YEAR(GQ3))</f>
         <v/>
       </c>
       <c r="GR1" s="17" t="str">
-        <f t="shared" ref="GR1" si="66">IF(YEAR(GR3)=YEAR(GQ3),"",YEAR(GR3))</f>
+        <f t="shared" ref="GR1" si="68">IF(YEAR(GR3)=YEAR(GQ3),"",YEAR(GR3))</f>
         <v/>
       </c>
       <c r="GS1" s="17" t="str">
-        <f t="shared" ref="GS1" si="67">IF(YEAR(GS3)=YEAR(GR3),"",YEAR(GS3))</f>
+        <f t="shared" ref="GS1" si="69">IF(YEAR(GS3)=YEAR(GR3),"",YEAR(GS3))</f>
         <v/>
       </c>
       <c r="GT1" s="17" t="str">
-        <f t="shared" ref="GT1" si="68">IF(YEAR(GT3)=YEAR(GS3),"",YEAR(GT3))</f>
+        <f t="shared" ref="GT1" si="70">IF(YEAR(GT3)=YEAR(GS3),"",YEAR(GT3))</f>
         <v/>
       </c>
       <c r="GU1" s="17" t="str">
-        <f t="shared" ref="GU1" si="69">IF(YEAR(GU3)=YEAR(GT3),"",YEAR(GU3))</f>
+        <f t="shared" ref="GU1" si="71">IF(YEAR(GU3)=YEAR(GT3),"",YEAR(GU3))</f>
         <v/>
       </c>
       <c r="GV1" s="17" t="str">
-        <f t="shared" ref="GV1" si="70">IF(YEAR(GV3)=YEAR(GU3),"",YEAR(GV3))</f>
+        <f t="shared" ref="GV1" si="72">IF(YEAR(GV3)=YEAR(GU3),"",YEAR(GV3))</f>
         <v/>
       </c>
       <c r="GW1" s="17" t="str">
-        <f t="shared" ref="GW1" si="71">IF(YEAR(GW3)=YEAR(GV3),"",YEAR(GW3))</f>
+        <f t="shared" ref="GW1" si="73">IF(YEAR(GW3)=YEAR(GV3),"",YEAR(GW3))</f>
         <v/>
       </c>
       <c r="GX1" s="17" t="str">
-        <f t="shared" ref="GX1" si="72">IF(YEAR(GX3)=YEAR(GW3),"",YEAR(GX3))</f>
+        <f t="shared" ref="GX1" si="74">IF(YEAR(GX3)=YEAR(GW3),"",YEAR(GX3))</f>
         <v/>
       </c>
       <c r="GY1" s="17" t="str">
-        <f t="shared" ref="GY1" si="73">IF(YEAR(GY3)=YEAR(GX3),"",YEAR(GY3))</f>
+        <f t="shared" ref="GY1" si="75">IF(YEAR(GY3)=YEAR(GX3),"",YEAR(GY3))</f>
         <v/>
       </c>
       <c r="GZ1" s="17" t="str">
-        <f t="shared" ref="GZ1" si="74">IF(YEAR(GZ3)=YEAR(GY3),"",YEAR(GZ3))</f>
+        <f t="shared" ref="GZ1" si="76">IF(YEAR(GZ3)=YEAR(GY3),"",YEAR(GZ3))</f>
         <v/>
       </c>
       <c r="HA1" s="17" t="str">
-        <f t="shared" ref="HA1" si="75">IF(YEAR(HA3)=YEAR(GZ3),"",YEAR(HA3))</f>
+        <f t="shared" ref="HA1" si="77">IF(YEAR(HA3)=YEAR(GZ3),"",YEAR(HA3))</f>
         <v/>
       </c>
       <c r="HB1" s="17" t="str">
-        <f t="shared" ref="HB1" si="76">IF(YEAR(HB3)=YEAR(HA3),"",YEAR(HB3))</f>
+        <f t="shared" ref="HB1" si="78">IF(YEAR(HB3)=YEAR(HA3),"",YEAR(HB3))</f>
         <v/>
       </c>
       <c r="HC1" s="17" t="str">
-        <f t="shared" ref="HC1" si="77">IF(YEAR(HC3)=YEAR(HB3),"",YEAR(HC3))</f>
+        <f t="shared" ref="HC1" si="79">IF(YEAR(HC3)=YEAR(HB3),"",YEAR(HC3))</f>
         <v/>
       </c>
       <c r="HD1" s="17" t="str">
-        <f t="shared" ref="HD1" si="78">IF(YEAR(HD3)=YEAR(HC3),"",YEAR(HD3))</f>
+        <f t="shared" ref="HD1" si="80">IF(YEAR(HD3)=YEAR(HC3),"",YEAR(HD3))</f>
         <v/>
       </c>
       <c r="HE1" s="17" t="str">
-        <f t="shared" ref="HE1" si="79">IF(YEAR(HE3)=YEAR(HD3),"",YEAR(HE3))</f>
+        <f t="shared" ref="HE1" si="81">IF(YEAR(HE3)=YEAR(HD3),"",YEAR(HE3))</f>
         <v/>
       </c>
       <c r="HF1" s="17" t="str">
-        <f t="shared" ref="HF1" si="80">IF(YEAR(HF3)=YEAR(HE3),"",YEAR(HF3))</f>
+        <f t="shared" ref="HF1" si="82">IF(YEAR(HF3)=YEAR(HE3),"",YEAR(HF3))</f>
         <v/>
       </c>
       <c r="HG1" s="17" t="str">
-        <f t="shared" ref="HG1" si="81">IF(YEAR(HG3)=YEAR(HF3),"",YEAR(HG3))</f>
+        <f t="shared" ref="HG1" si="83">IF(YEAR(HG3)=YEAR(HF3),"",YEAR(HG3))</f>
         <v/>
       </c>
       <c r="HH1" s="17" t="str">
-        <f t="shared" ref="HH1" si="82">IF(YEAR(HH3)=YEAR(HG3),"",YEAR(HH3))</f>
+        <f t="shared" ref="HH1" si="84">IF(YEAR(HH3)=YEAR(HG3),"",YEAR(HH3))</f>
         <v/>
       </c>
       <c r="HI1" s="17" t="str">
-        <f t="shared" ref="HI1" si="83">IF(YEAR(HI3)=YEAR(HH3),"",YEAR(HI3))</f>
+        <f t="shared" ref="HI1" si="85">IF(YEAR(HI3)=YEAR(HH3),"",YEAR(HI3))</f>
         <v/>
       </c>
       <c r="HJ1" s="17" t="str">
-        <f t="shared" ref="HJ1" si="84">IF(YEAR(HJ3)=YEAR(HI3),"",YEAR(HJ3))</f>
+        <f t="shared" ref="HJ1" si="86">IF(YEAR(HJ3)=YEAR(HI3),"",YEAR(HJ3))</f>
         <v/>
       </c>
       <c r="HK1" s="17" t="str">
-        <f t="shared" ref="HK1" si="85">IF(YEAR(HK3)=YEAR(HJ3),"",YEAR(HK3))</f>
+        <f t="shared" ref="HK1" si="87">IF(YEAR(HK3)=YEAR(HJ3),"",YEAR(HK3))</f>
         <v/>
       </c>
       <c r="HL1" s="17" t="str">
-        <f t="shared" ref="HL1" si="86">IF(YEAR(HL3)=YEAR(HK3),"",YEAR(HL3))</f>
+        <f t="shared" ref="HL1" si="88">IF(YEAR(HL3)=YEAR(HK3),"",YEAR(HL3))</f>
         <v/>
       </c>
       <c r="HM1" s="17" t="str">
-        <f t="shared" ref="HM1" si="87">IF(YEAR(HM3)=YEAR(HL3),"",YEAR(HM3))</f>
+        <f t="shared" ref="HM1" si="89">IF(YEAR(HM3)=YEAR(HL3),"",YEAR(HM3))</f>
         <v/>
       </c>
       <c r="HN1" s="17" t="str">
-        <f t="shared" ref="HN1" si="88">IF(YEAR(HN3)=YEAR(HM3),"",YEAR(HN3))</f>
+        <f t="shared" ref="HN1" si="90">IF(YEAR(HN3)=YEAR(HM3),"",YEAR(HN3))</f>
         <v/>
       </c>
       <c r="HO1" s="17" t="str">
-        <f t="shared" ref="HO1" si="89">IF(YEAR(HO3)=YEAR(HN3),"",YEAR(HO3))</f>
+        <f t="shared" ref="HO1" si="91">IF(YEAR(HO3)=YEAR(HN3),"",YEAR(HO3))</f>
         <v/>
       </c>
       <c r="HP1" s="17" t="str">
-        <f t="shared" ref="HP1" si="90">IF(YEAR(HP3)=YEAR(HO3),"",YEAR(HP3))</f>
+        <f t="shared" ref="HP1" si="92">IF(YEAR(HP3)=YEAR(HO3),"",YEAR(HP3))</f>
         <v/>
       </c>
       <c r="HQ1" s="17" t="str">
-        <f t="shared" ref="HQ1" si="91">IF(YEAR(HQ3)=YEAR(HP3),"",YEAR(HQ3))</f>
-        <v/>
-      </c>
-      <c r="HR1" s="17" t="str">
-        <f t="shared" ref="HR1" si="92">IF(YEAR(HR3)=YEAR(HQ3),"",YEAR(HR3))</f>
-        <v/>
-      </c>
-      <c r="HS1" s="17" t="str">
-        <f t="shared" ref="HS1" si="93">IF(YEAR(HS3)=YEAR(HR3),"",YEAR(HS3))</f>
+        <f t="shared" ref="HQ1" si="93">IF(YEAR(HQ3)=YEAR(HP3),"",YEAR(HQ3))</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:227" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="18">
-        <f>MONTH(N3)</f>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="L2" s="18">
+        <f>MONTH(L3)</f>
+        <v>6</v>
+      </c>
+      <c r="M2" s="18" t="str">
+        <f>IF(MONTH(M3)=MONTH(L3),"",MONTH(M3))</f>
+        <v/>
+      </c>
+      <c r="N2" s="18" t="str">
+        <f t="shared" ref="N2:BY2" si="94">IF(MONTH(N3)=MONTH(M3),"",MONTH(N3))</f>
+        <v/>
+      </c>
       <c r="O2" s="18" t="str">
-        <f>IF(MONTH(O3)=MONTH(N3),"",MONTH(O3))</f>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="P2" s="18" t="str">
-        <f t="shared" ref="P2:CA2" si="94">IF(MONTH(P3)=MONTH(O3),"",MONTH(P3))</f>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="Q2" s="18" t="str">
@@ -3206,17 +2617,17 @@
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AP2" s="18" t="str">
+      <c r="AP2" s="18">
         <f t="shared" si="94"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AQ2" s="18" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AR2" s="18">
+      <c r="AR2" s="18" t="str">
         <f t="shared" si="94"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="AS2" s="18" t="str">
         <f t="shared" si="94"/>
@@ -3330,17 +2741,17 @@
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="BU2" s="18" t="str">
+      <c r="BU2" s="18">
         <f t="shared" si="94"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="BV2" s="18" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="BW2" s="18">
+      <c r="BW2" s="18" t="str">
         <f t="shared" si="94"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="BX2" s="18" t="str">
         <f t="shared" si="94"/>
@@ -3351,15 +2762,15 @@
         <v/>
       </c>
       <c r="BZ2" s="18" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="BZ2:EC2" si="95">IF(MONTH(BZ3)=MONTH(BY3),"",MONTH(BZ3))</f>
         <v/>
       </c>
       <c r="CA2" s="18" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="CB2" s="18" t="str">
-        <f t="shared" ref="CB2:EE2" si="95">IF(MONTH(CB3)=MONTH(CA3),"",MONTH(CB3))</f>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="CC2" s="18" t="str">
@@ -3454,17 +2865,17 @@
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="CZ2" s="18" t="str">
+      <c r="CZ2" s="18">
         <f t="shared" si="95"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="DA2" s="18" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="DB2" s="18">
+      <c r="DB2" s="18" t="str">
         <f t="shared" si="95"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="DC2" s="18" t="str">
         <f t="shared" si="95"/>
@@ -3574,1938 +2985,1920 @@
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="ED2" s="18" t="str">
-        <f t="shared" si="95"/>
-        <v/>
+      <c r="ED2" s="18">
+        <f t="shared" ref="ED2" si="96">IF(MONTH(ED3)=MONTH(EC3),"",MONTH(ED3))</f>
+        <v>10</v>
       </c>
       <c r="EE2" s="18" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="EF2" s="18">
-        <f t="shared" ref="EF2" si="96">IF(MONTH(EF3)=MONTH(EE3),"",MONTH(EF3))</f>
+        <f t="shared" ref="EE2" si="97">IF(MONTH(EE3)=MONTH(ED3),"",MONTH(EE3))</f>
+        <v/>
+      </c>
+      <c r="EF2" s="18" t="str">
+        <f t="shared" ref="EF2" si="98">IF(MONTH(EF3)=MONTH(EE3),"",MONTH(EF3))</f>
+        <v/>
+      </c>
+      <c r="EG2" s="18" t="str">
+        <f t="shared" ref="EG2" si="99">IF(MONTH(EG3)=MONTH(EF3),"",MONTH(EG3))</f>
+        <v/>
+      </c>
+      <c r="EH2" s="18" t="str">
+        <f t="shared" ref="EH2" si="100">IF(MONTH(EH3)=MONTH(EG3),"",MONTH(EH3))</f>
+        <v/>
+      </c>
+      <c r="EI2" s="18" t="str">
+        <f t="shared" ref="EI2" si="101">IF(MONTH(EI3)=MONTH(EH3),"",MONTH(EI3))</f>
+        <v/>
+      </c>
+      <c r="EJ2" s="18" t="str">
+        <f t="shared" ref="EJ2" si="102">IF(MONTH(EJ3)=MONTH(EI3),"",MONTH(EJ3))</f>
+        <v/>
+      </c>
+      <c r="EK2" s="18" t="str">
+        <f t="shared" ref="EK2" si="103">IF(MONTH(EK3)=MONTH(EJ3),"",MONTH(EK3))</f>
+        <v/>
+      </c>
+      <c r="EL2" s="18" t="str">
+        <f t="shared" ref="EL2" si="104">IF(MONTH(EL3)=MONTH(EK3),"",MONTH(EL3))</f>
+        <v/>
+      </c>
+      <c r="EM2" s="18" t="str">
+        <f t="shared" ref="EM2" si="105">IF(MONTH(EM3)=MONTH(EL3),"",MONTH(EM3))</f>
+        <v/>
+      </c>
+      <c r="EN2" s="18" t="str">
+        <f t="shared" ref="EN2" si="106">IF(MONTH(EN3)=MONTH(EM3),"",MONTH(EN3))</f>
+        <v/>
+      </c>
+      <c r="EO2" s="18" t="str">
+        <f t="shared" ref="EO2" si="107">IF(MONTH(EO3)=MONTH(EN3),"",MONTH(EO3))</f>
+        <v/>
+      </c>
+      <c r="EP2" s="18" t="str">
+        <f t="shared" ref="EP2" si="108">IF(MONTH(EP3)=MONTH(EO3),"",MONTH(EP3))</f>
+        <v/>
+      </c>
+      <c r="EQ2" s="18" t="str">
+        <f t="shared" ref="EQ2" si="109">IF(MONTH(EQ3)=MONTH(EP3),"",MONTH(EQ3))</f>
+        <v/>
+      </c>
+      <c r="ER2" s="18" t="str">
+        <f t="shared" ref="ER2" si="110">IF(MONTH(ER3)=MONTH(EQ3),"",MONTH(ER3))</f>
+        <v/>
+      </c>
+      <c r="ES2" s="18" t="str">
+        <f t="shared" ref="ES2" si="111">IF(MONTH(ES3)=MONTH(ER3),"",MONTH(ES3))</f>
+        <v/>
+      </c>
+      <c r="ET2" s="18" t="str">
+        <f t="shared" ref="ET2" si="112">IF(MONTH(ET3)=MONTH(ES3),"",MONTH(ET3))</f>
+        <v/>
+      </c>
+      <c r="EU2" s="18" t="str">
+        <f t="shared" ref="EU2" si="113">IF(MONTH(EU3)=MONTH(ET3),"",MONTH(EU3))</f>
+        <v/>
+      </c>
+      <c r="EV2" s="18" t="str">
+        <f t="shared" ref="EV2" si="114">IF(MONTH(EV3)=MONTH(EU3),"",MONTH(EV3))</f>
+        <v/>
+      </c>
+      <c r="EW2" s="18" t="str">
+        <f t="shared" ref="EW2" si="115">IF(MONTH(EW3)=MONTH(EV3),"",MONTH(EW3))</f>
+        <v/>
+      </c>
+      <c r="EX2" s="18" t="str">
+        <f t="shared" ref="EX2" si="116">IF(MONTH(EX3)=MONTH(EW3),"",MONTH(EX3))</f>
+        <v/>
+      </c>
+      <c r="EY2" s="18" t="str">
+        <f t="shared" ref="EY2" si="117">IF(MONTH(EY3)=MONTH(EX3),"",MONTH(EY3))</f>
+        <v/>
+      </c>
+      <c r="EZ2" s="18" t="str">
+        <f t="shared" ref="EZ2" si="118">IF(MONTH(EZ3)=MONTH(EY3),"",MONTH(EZ3))</f>
+        <v/>
+      </c>
+      <c r="FA2" s="18" t="str">
+        <f t="shared" ref="FA2" si="119">IF(MONTH(FA3)=MONTH(EZ3),"",MONTH(FA3))</f>
+        <v/>
+      </c>
+      <c r="FB2" s="18" t="str">
+        <f t="shared" ref="FB2" si="120">IF(MONTH(FB3)=MONTH(FA3),"",MONTH(FB3))</f>
+        <v/>
+      </c>
+      <c r="FC2" s="18" t="str">
+        <f t="shared" ref="FC2" si="121">IF(MONTH(FC3)=MONTH(FB3),"",MONTH(FC3))</f>
+        <v/>
+      </c>
+      <c r="FD2" s="18" t="str">
+        <f t="shared" ref="FD2" si="122">IF(MONTH(FD3)=MONTH(FC3),"",MONTH(FD3))</f>
+        <v/>
+      </c>
+      <c r="FE2" s="18" t="str">
+        <f t="shared" ref="FE2" si="123">IF(MONTH(FE3)=MONTH(FD3),"",MONTH(FE3))</f>
+        <v/>
+      </c>
+      <c r="FF2" s="18" t="str">
+        <f t="shared" ref="FF2" si="124">IF(MONTH(FF3)=MONTH(FE3),"",MONTH(FF3))</f>
+        <v/>
+      </c>
+      <c r="FG2" s="18" t="str">
+        <f t="shared" ref="FG2" si="125">IF(MONTH(FG3)=MONTH(FF3),"",MONTH(FG3))</f>
+        <v/>
+      </c>
+      <c r="FH2" s="18" t="str">
+        <f t="shared" ref="FH2" si="126">IF(MONTH(FH3)=MONTH(FG3),"",MONTH(FH3))</f>
+        <v/>
+      </c>
+      <c r="FI2" s="18">
+        <f t="shared" ref="FI2" si="127">IF(MONTH(FI3)=MONTH(FH3),"",MONTH(FI3))</f>
+        <v>11</v>
+      </c>
+      <c r="FJ2" s="18" t="str">
+        <f t="shared" ref="FJ2" si="128">IF(MONTH(FJ3)=MONTH(FI3),"",MONTH(FJ3))</f>
+        <v/>
+      </c>
+      <c r="FK2" s="18" t="str">
+        <f t="shared" ref="FK2" si="129">IF(MONTH(FK3)=MONTH(FJ3),"",MONTH(FK3))</f>
+        <v/>
+      </c>
+      <c r="FL2" s="18" t="str">
+        <f t="shared" ref="FL2" si="130">IF(MONTH(FL3)=MONTH(FK3),"",MONTH(FL3))</f>
+        <v/>
+      </c>
+      <c r="FM2" s="18" t="str">
+        <f t="shared" ref="FM2" si="131">IF(MONTH(FM3)=MONTH(FL3),"",MONTH(FM3))</f>
+        <v/>
+      </c>
+      <c r="FN2" s="18" t="str">
+        <f t="shared" ref="FN2" si="132">IF(MONTH(FN3)=MONTH(FM3),"",MONTH(FN3))</f>
+        <v/>
+      </c>
+      <c r="FO2" s="18" t="str">
+        <f t="shared" ref="FO2" si="133">IF(MONTH(FO3)=MONTH(FN3),"",MONTH(FO3))</f>
+        <v/>
+      </c>
+      <c r="FP2" s="18" t="str">
+        <f t="shared" ref="FP2" si="134">IF(MONTH(FP3)=MONTH(FO3),"",MONTH(FP3))</f>
+        <v/>
+      </c>
+      <c r="FQ2" s="18" t="str">
+        <f t="shared" ref="FQ2" si="135">IF(MONTH(FQ3)=MONTH(FP3),"",MONTH(FQ3))</f>
+        <v/>
+      </c>
+      <c r="FR2" s="18" t="str">
+        <f t="shared" ref="FR2" si="136">IF(MONTH(FR3)=MONTH(FQ3),"",MONTH(FR3))</f>
+        <v/>
+      </c>
+      <c r="FS2" s="18" t="str">
+        <f t="shared" ref="FS2" si="137">IF(MONTH(FS3)=MONTH(FR3),"",MONTH(FS3))</f>
+        <v/>
+      </c>
+      <c r="FT2" s="18" t="str">
+        <f t="shared" ref="FT2" si="138">IF(MONTH(FT3)=MONTH(FS3),"",MONTH(FT3))</f>
+        <v/>
+      </c>
+      <c r="FU2" s="18" t="str">
+        <f t="shared" ref="FU2" si="139">IF(MONTH(FU3)=MONTH(FT3),"",MONTH(FU3))</f>
+        <v/>
+      </c>
+      <c r="FV2" s="18" t="str">
+        <f t="shared" ref="FV2" si="140">IF(MONTH(FV3)=MONTH(FU3),"",MONTH(FV3))</f>
+        <v/>
+      </c>
+      <c r="FW2" s="18" t="str">
+        <f t="shared" ref="FW2" si="141">IF(MONTH(FW3)=MONTH(FV3),"",MONTH(FW3))</f>
+        <v/>
+      </c>
+      <c r="FX2" s="18" t="str">
+        <f t="shared" ref="FX2" si="142">IF(MONTH(FX3)=MONTH(FW3),"",MONTH(FX3))</f>
+        <v/>
+      </c>
+      <c r="FY2" s="18" t="str">
+        <f t="shared" ref="FY2" si="143">IF(MONTH(FY3)=MONTH(FX3),"",MONTH(FY3))</f>
+        <v/>
+      </c>
+      <c r="FZ2" s="18" t="str">
+        <f t="shared" ref="FZ2" si="144">IF(MONTH(FZ3)=MONTH(FY3),"",MONTH(FZ3))</f>
+        <v/>
+      </c>
+      <c r="GA2" s="18" t="str">
+        <f t="shared" ref="GA2" si="145">IF(MONTH(GA3)=MONTH(FZ3),"",MONTH(GA3))</f>
+        <v/>
+      </c>
+      <c r="GB2" s="18" t="str">
+        <f t="shared" ref="GB2" si="146">IF(MONTH(GB3)=MONTH(GA3),"",MONTH(GB3))</f>
+        <v/>
+      </c>
+      <c r="GC2" s="18" t="str">
+        <f t="shared" ref="GC2" si="147">IF(MONTH(GC3)=MONTH(GB3),"",MONTH(GC3))</f>
+        <v/>
+      </c>
+      <c r="GD2" s="18" t="str">
+        <f t="shared" ref="GD2" si="148">IF(MONTH(GD3)=MONTH(GC3),"",MONTH(GD3))</f>
+        <v/>
+      </c>
+      <c r="GE2" s="18" t="str">
+        <f t="shared" ref="GE2" si="149">IF(MONTH(GE3)=MONTH(GD3),"",MONTH(GE3))</f>
+        <v/>
+      </c>
+      <c r="GF2" s="18" t="str">
+        <f t="shared" ref="GF2" si="150">IF(MONTH(GF3)=MONTH(GE3),"",MONTH(GF3))</f>
+        <v/>
+      </c>
+      <c r="GG2" s="18" t="str">
+        <f t="shared" ref="GG2" si="151">IF(MONTH(GG3)=MONTH(GF3),"",MONTH(GG3))</f>
+        <v/>
+      </c>
+      <c r="GH2" s="18" t="str">
+        <f t="shared" ref="GH2" si="152">IF(MONTH(GH3)=MONTH(GG3),"",MONTH(GH3))</f>
+        <v/>
+      </c>
+      <c r="GI2" s="18" t="str">
+        <f t="shared" ref="GI2" si="153">IF(MONTH(GI3)=MONTH(GH3),"",MONTH(GI3))</f>
+        <v/>
+      </c>
+      <c r="GJ2" s="18" t="str">
+        <f t="shared" ref="GJ2" si="154">IF(MONTH(GJ3)=MONTH(GI3),"",MONTH(GJ3))</f>
+        <v/>
+      </c>
+      <c r="GK2" s="18" t="str">
+        <f t="shared" ref="GK2" si="155">IF(MONTH(GK3)=MONTH(GJ3),"",MONTH(GK3))</f>
+        <v/>
+      </c>
+      <c r="GL2" s="18" t="str">
+        <f t="shared" ref="GL2" si="156">IF(MONTH(GL3)=MONTH(GK3),"",MONTH(GL3))</f>
+        <v/>
+      </c>
+      <c r="GM2" s="18">
+        <f t="shared" ref="GM2" si="157">IF(MONTH(GM3)=MONTH(GL3),"",MONTH(GM3))</f>
+        <v>12</v>
+      </c>
+      <c r="GN2" s="18" t="str">
+        <f t="shared" ref="GN2" si="158">IF(MONTH(GN3)=MONTH(GM3),"",MONTH(GN3))</f>
+        <v/>
+      </c>
+      <c r="GO2" s="18" t="str">
+        <f t="shared" ref="GO2" si="159">IF(MONTH(GO3)=MONTH(GN3),"",MONTH(GO3))</f>
+        <v/>
+      </c>
+      <c r="GP2" s="18" t="str">
+        <f t="shared" ref="GP2" si="160">IF(MONTH(GP3)=MONTH(GO3),"",MONTH(GP3))</f>
+        <v/>
+      </c>
+      <c r="GQ2" s="18" t="str">
+        <f t="shared" ref="GQ2" si="161">IF(MONTH(GQ3)=MONTH(GP3),"",MONTH(GQ3))</f>
+        <v/>
+      </c>
+      <c r="GR2" s="18" t="str">
+        <f t="shared" ref="GR2" si="162">IF(MONTH(GR3)=MONTH(GQ3),"",MONTH(GR3))</f>
+        <v/>
+      </c>
+      <c r="GS2" s="18" t="str">
+        <f t="shared" ref="GS2" si="163">IF(MONTH(GS3)=MONTH(GR3),"",MONTH(GS3))</f>
+        <v/>
+      </c>
+      <c r="GT2" s="18" t="str">
+        <f t="shared" ref="GT2" si="164">IF(MONTH(GT3)=MONTH(GS3),"",MONTH(GT3))</f>
+        <v/>
+      </c>
+      <c r="GU2" s="18" t="str">
+        <f t="shared" ref="GU2" si="165">IF(MONTH(GU3)=MONTH(GT3),"",MONTH(GU3))</f>
+        <v/>
+      </c>
+      <c r="GV2" s="18" t="str">
+        <f t="shared" ref="GV2" si="166">IF(MONTH(GV3)=MONTH(GU3),"",MONTH(GV3))</f>
+        <v/>
+      </c>
+      <c r="GW2" s="18" t="str">
+        <f t="shared" ref="GW2" si="167">IF(MONTH(GW3)=MONTH(GV3),"",MONTH(GW3))</f>
+        <v/>
+      </c>
+      <c r="GX2" s="18" t="str">
+        <f t="shared" ref="GX2" si="168">IF(MONTH(GX3)=MONTH(GW3),"",MONTH(GX3))</f>
+        <v/>
+      </c>
+      <c r="GY2" s="18" t="str">
+        <f t="shared" ref="GY2" si="169">IF(MONTH(GY3)=MONTH(GX3),"",MONTH(GY3))</f>
+        <v/>
+      </c>
+      <c r="GZ2" s="18" t="str">
+        <f t="shared" ref="GZ2" si="170">IF(MONTH(GZ3)=MONTH(GY3),"",MONTH(GZ3))</f>
+        <v/>
+      </c>
+      <c r="HA2" s="18" t="str">
+        <f t="shared" ref="HA2" si="171">IF(MONTH(HA3)=MONTH(GZ3),"",MONTH(HA3))</f>
+        <v/>
+      </c>
+      <c r="HB2" s="18" t="str">
+        <f t="shared" ref="HB2" si="172">IF(MONTH(HB3)=MONTH(HA3),"",MONTH(HB3))</f>
+        <v/>
+      </c>
+      <c r="HC2" s="18" t="str">
+        <f t="shared" ref="HC2" si="173">IF(MONTH(HC3)=MONTH(HB3),"",MONTH(HC3))</f>
+        <v/>
+      </c>
+      <c r="HD2" s="18" t="str">
+        <f t="shared" ref="HD2" si="174">IF(MONTH(HD3)=MONTH(HC3),"",MONTH(HD3))</f>
+        <v/>
+      </c>
+      <c r="HE2" s="18" t="str">
+        <f t="shared" ref="HE2" si="175">IF(MONTH(HE3)=MONTH(HD3),"",MONTH(HE3))</f>
+        <v/>
+      </c>
+      <c r="HF2" s="18" t="str">
+        <f t="shared" ref="HF2" si="176">IF(MONTH(HF3)=MONTH(HE3),"",MONTH(HF3))</f>
+        <v/>
+      </c>
+      <c r="HG2" s="18" t="str">
+        <f t="shared" ref="HG2" si="177">IF(MONTH(HG3)=MONTH(HF3),"",MONTH(HG3))</f>
+        <v/>
+      </c>
+      <c r="HH2" s="18" t="str">
+        <f t="shared" ref="HH2" si="178">IF(MONTH(HH3)=MONTH(HG3),"",MONTH(HH3))</f>
+        <v/>
+      </c>
+      <c r="HI2" s="18" t="str">
+        <f t="shared" ref="HI2" si="179">IF(MONTH(HI3)=MONTH(HH3),"",MONTH(HI3))</f>
+        <v/>
+      </c>
+      <c r="HJ2" s="18" t="str">
+        <f t="shared" ref="HJ2" si="180">IF(MONTH(HJ3)=MONTH(HI3),"",MONTH(HJ3))</f>
+        <v/>
+      </c>
+      <c r="HK2" s="18" t="str">
+        <f t="shared" ref="HK2" si="181">IF(MONTH(HK3)=MONTH(HJ3),"",MONTH(HK3))</f>
+        <v/>
+      </c>
+      <c r="HL2" s="18" t="str">
+        <f t="shared" ref="HL2" si="182">IF(MONTH(HL3)=MONTH(HK3),"",MONTH(HL3))</f>
+        <v/>
+      </c>
+      <c r="HM2" s="18" t="str">
+        <f t="shared" ref="HM2" si="183">IF(MONTH(HM3)=MONTH(HL3),"",MONTH(HM3))</f>
+        <v/>
+      </c>
+      <c r="HN2" s="18" t="str">
+        <f t="shared" ref="HN2" si="184">IF(MONTH(HN3)=MONTH(HM3),"",MONTH(HN3))</f>
+        <v/>
+      </c>
+      <c r="HO2" s="18" t="str">
+        <f t="shared" ref="HO2" si="185">IF(MONTH(HO3)=MONTH(HN3),"",MONTH(HO3))</f>
+        <v/>
+      </c>
+      <c r="HP2" s="18" t="str">
+        <f t="shared" ref="HP2" si="186">IF(MONTH(HP3)=MONTH(HO3),"",MONTH(HP3))</f>
+        <v/>
+      </c>
+      <c r="HQ2" s="18" t="str">
+        <f t="shared" ref="HQ2" si="187">IF(MONTH(HQ3)=MONTH(HP3),"",MONTH(HQ3))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:225" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="13">
+        <v>43617</v>
+      </c>
+      <c r="M3" s="13">
+        <v>43618</v>
+      </c>
+      <c r="N3" s="13">
+        <v>43619</v>
+      </c>
+      <c r="O3" s="13">
+        <v>43620</v>
+      </c>
+      <c r="P3" s="13">
+        <v>42526</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>42527</v>
+      </c>
+      <c r="R3" s="13">
+        <v>42528</v>
+      </c>
+      <c r="S3" s="13">
+        <v>42529</v>
+      </c>
+      <c r="T3" s="13">
+        <v>42530</v>
+      </c>
+      <c r="U3" s="13">
+        <v>42531</v>
+      </c>
+      <c r="V3" s="13">
+        <v>42532</v>
+      </c>
+      <c r="W3" s="13">
+        <v>42533</v>
+      </c>
+      <c r="X3" s="13">
+        <v>42534</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>42535</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>42536</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>42537</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>42538</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>42539</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>42540</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>42541</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>42542</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>42543</v>
+      </c>
+      <c r="AH3" s="13">
+        <v>42544</v>
+      </c>
+      <c r="AI3" s="13">
+        <v>42545</v>
+      </c>
+      <c r="AJ3" s="13">
+        <v>42546</v>
+      </c>
+      <c r="AK3" s="13">
+        <v>42547</v>
+      </c>
+      <c r="AL3" s="13">
+        <v>42548</v>
+      </c>
+      <c r="AM3" s="13">
+        <v>42549</v>
+      </c>
+      <c r="AN3" s="13">
+        <v>42550</v>
+      </c>
+      <c r="AO3" s="13">
+        <v>42551</v>
+      </c>
+      <c r="AP3" s="13">
+        <v>42552</v>
+      </c>
+      <c r="AQ3" s="13">
+        <v>42553</v>
+      </c>
+      <c r="AR3" s="13">
+        <v>42554</v>
+      </c>
+      <c r="AS3" s="13">
+        <v>42555</v>
+      </c>
+      <c r="AT3" s="13">
+        <v>42556</v>
+      </c>
+      <c r="AU3" s="13">
+        <v>42557</v>
+      </c>
+      <c r="AV3" s="13">
+        <v>42558</v>
+      </c>
+      <c r="AW3" s="13">
+        <v>42559</v>
+      </c>
+      <c r="AX3" s="13">
+        <v>42560</v>
+      </c>
+      <c r="AY3" s="13">
+        <v>42561</v>
+      </c>
+      <c r="AZ3" s="13">
+        <v>42562</v>
+      </c>
+      <c r="BA3" s="13">
+        <v>42563</v>
+      </c>
+      <c r="BB3" s="13">
+        <v>42564</v>
+      </c>
+      <c r="BC3" s="13">
+        <v>42565</v>
+      </c>
+      <c r="BD3" s="13">
+        <v>42566</v>
+      </c>
+      <c r="BE3" s="13">
+        <v>42567</v>
+      </c>
+      <c r="BF3" s="13">
+        <v>42568</v>
+      </c>
+      <c r="BG3" s="13">
+        <v>42569</v>
+      </c>
+      <c r="BH3" s="13">
+        <v>42570</v>
+      </c>
+      <c r="BI3" s="13">
+        <v>42571</v>
+      </c>
+      <c r="BJ3" s="13">
+        <v>42572</v>
+      </c>
+      <c r="BK3" s="13">
+        <v>42573</v>
+      </c>
+      <c r="BL3" s="13">
+        <v>42574</v>
+      </c>
+      <c r="BM3" s="13">
+        <v>42575</v>
+      </c>
+      <c r="BN3" s="13">
+        <v>42576</v>
+      </c>
+      <c r="BO3" s="13">
+        <v>42577</v>
+      </c>
+      <c r="BP3" s="13">
+        <v>42578</v>
+      </c>
+      <c r="BQ3" s="13">
+        <v>42579</v>
+      </c>
+      <c r="BR3" s="13">
+        <v>42580</v>
+      </c>
+      <c r="BS3" s="13">
+        <v>42581</v>
+      </c>
+      <c r="BT3" s="13">
+        <v>42582</v>
+      </c>
+      <c r="BU3" s="13">
+        <v>42583</v>
+      </c>
+      <c r="BV3" s="13">
+        <v>42584</v>
+      </c>
+      <c r="BW3" s="13">
+        <v>42585</v>
+      </c>
+      <c r="BX3" s="13">
+        <v>42586</v>
+      </c>
+      <c r="BY3" s="13">
+        <v>42587</v>
+      </c>
+      <c r="BZ3" s="13">
+        <v>42588</v>
+      </c>
+      <c r="CA3" s="13">
+        <v>42589</v>
+      </c>
+      <c r="CB3" s="13">
+        <v>42590</v>
+      </c>
+      <c r="CC3" s="13">
+        <v>42591</v>
+      </c>
+      <c r="CD3" s="13">
+        <v>42592</v>
+      </c>
+      <c r="CE3" s="13">
+        <v>42593</v>
+      </c>
+      <c r="CF3" s="13">
+        <v>42594</v>
+      </c>
+      <c r="CG3" s="13">
+        <v>42595</v>
+      </c>
+      <c r="CH3" s="13">
+        <v>42596</v>
+      </c>
+      <c r="CI3" s="13">
+        <v>42597</v>
+      </c>
+      <c r="CJ3" s="13">
+        <v>42598</v>
+      </c>
+      <c r="CK3" s="13">
+        <v>42599</v>
+      </c>
+      <c r="CL3" s="13">
+        <v>42600</v>
+      </c>
+      <c r="CM3" s="13">
+        <v>42601</v>
+      </c>
+      <c r="CN3" s="13">
+        <v>42602</v>
+      </c>
+      <c r="CO3" s="13">
+        <v>42603</v>
+      </c>
+      <c r="CP3" s="13">
+        <v>42604</v>
+      </c>
+      <c r="CQ3" s="13">
+        <v>42605</v>
+      </c>
+      <c r="CR3" s="13">
+        <v>42606</v>
+      </c>
+      <c r="CS3" s="13">
+        <v>42607</v>
+      </c>
+      <c r="CT3" s="13">
+        <v>42608</v>
+      </c>
+      <c r="CU3" s="13">
+        <v>42609</v>
+      </c>
+      <c r="CV3" s="13">
+        <v>42610</v>
+      </c>
+      <c r="CW3" s="13">
+        <v>42611</v>
+      </c>
+      <c r="CX3" s="13">
+        <v>42612</v>
+      </c>
+      <c r="CY3" s="13">
+        <v>42613</v>
+      </c>
+      <c r="CZ3" s="13">
+        <v>42614</v>
+      </c>
+      <c r="DA3" s="13">
+        <v>42615</v>
+      </c>
+      <c r="DB3" s="13">
+        <v>42616</v>
+      </c>
+      <c r="DC3" s="13">
+        <v>42617</v>
+      </c>
+      <c r="DD3" s="13">
+        <v>42618</v>
+      </c>
+      <c r="DE3" s="13">
+        <v>42619</v>
+      </c>
+      <c r="DF3" s="13">
+        <v>42620</v>
+      </c>
+      <c r="DG3" s="13">
+        <v>42621</v>
+      </c>
+      <c r="DH3" s="13">
+        <v>42622</v>
+      </c>
+      <c r="DI3" s="13">
+        <v>42623</v>
+      </c>
+      <c r="DJ3" s="13">
+        <v>42624</v>
+      </c>
+      <c r="DK3" s="13">
+        <v>42625</v>
+      </c>
+      <c r="DL3" s="13">
+        <v>42626</v>
+      </c>
+      <c r="DM3" s="13">
+        <v>42627</v>
+      </c>
+      <c r="DN3" s="13">
+        <v>42628</v>
+      </c>
+      <c r="DO3" s="13">
+        <v>42629</v>
+      </c>
+      <c r="DP3" s="13">
+        <v>42630</v>
+      </c>
+      <c r="DQ3" s="13">
+        <v>42631</v>
+      </c>
+      <c r="DR3" s="13">
+        <v>42632</v>
+      </c>
+      <c r="DS3" s="13">
+        <v>42633</v>
+      </c>
+      <c r="DT3" s="13">
+        <v>42634</v>
+      </c>
+      <c r="DU3" s="13">
+        <v>42635</v>
+      </c>
+      <c r="DV3" s="13">
+        <v>42636</v>
+      </c>
+      <c r="DW3" s="13">
+        <v>43732</v>
+      </c>
+      <c r="DX3" s="13">
+        <v>43733</v>
+      </c>
+      <c r="DY3" s="13">
+        <v>43734</v>
+      </c>
+      <c r="DZ3" s="13">
+        <v>43735</v>
+      </c>
+      <c r="EA3" s="13">
+        <v>43736</v>
+      </c>
+      <c r="EB3" s="13">
+        <v>43737</v>
+      </c>
+      <c r="EC3" s="13">
+        <v>43738</v>
+      </c>
+      <c r="ED3" s="13">
+        <v>43739</v>
+      </c>
+      <c r="EE3" s="13">
+        <v>43740</v>
+      </c>
+      <c r="EF3" s="13">
+        <v>43741</v>
+      </c>
+      <c r="EG3" s="13">
+        <v>43742</v>
+      </c>
+      <c r="EH3" s="13">
+        <v>43743</v>
+      </c>
+      <c r="EI3" s="13">
+        <v>43744</v>
+      </c>
+      <c r="EJ3" s="13">
+        <v>43745</v>
+      </c>
+      <c r="EK3" s="13">
+        <v>43746</v>
+      </c>
+      <c r="EL3" s="13">
+        <v>43747</v>
+      </c>
+      <c r="EM3" s="13">
+        <v>43748</v>
+      </c>
+      <c r="EN3" s="13">
+        <v>43749</v>
+      </c>
+      <c r="EO3" s="13">
+        <v>43750</v>
+      </c>
+      <c r="EP3" s="13">
+        <v>43751</v>
+      </c>
+      <c r="EQ3" s="13">
+        <v>43752</v>
+      </c>
+      <c r="ER3" s="13">
+        <v>43753</v>
+      </c>
+      <c r="ES3" s="13">
+        <v>43754</v>
+      </c>
+      <c r="ET3" s="13">
+        <v>43755</v>
+      </c>
+      <c r="EU3" s="13">
+        <v>43756</v>
+      </c>
+      <c r="EV3" s="13">
+        <v>43757</v>
+      </c>
+      <c r="EW3" s="13">
+        <v>43758</v>
+      </c>
+      <c r="EX3" s="13">
+        <v>43759</v>
+      </c>
+      <c r="EY3" s="13">
+        <v>43760</v>
+      </c>
+      <c r="EZ3" s="13">
+        <v>43761</v>
+      </c>
+      <c r="FA3" s="13">
+        <v>43762</v>
+      </c>
+      <c r="FB3" s="13">
+        <v>43763</v>
+      </c>
+      <c r="FC3" s="13">
+        <v>43764</v>
+      </c>
+      <c r="FD3" s="13">
+        <v>43765</v>
+      </c>
+      <c r="FE3" s="13">
+        <v>43766</v>
+      </c>
+      <c r="FF3" s="13">
+        <v>43767</v>
+      </c>
+      <c r="FG3" s="13">
+        <v>43768</v>
+      </c>
+      <c r="FH3" s="13">
+        <v>43769</v>
+      </c>
+      <c r="FI3" s="13">
+        <v>43770</v>
+      </c>
+      <c r="FJ3" s="13">
+        <v>43771</v>
+      </c>
+      <c r="FK3" s="13">
+        <v>43772</v>
+      </c>
+      <c r="FL3" s="13">
+        <v>43773</v>
+      </c>
+      <c r="FM3" s="13">
+        <v>43774</v>
+      </c>
+      <c r="FN3" s="13">
+        <v>43775</v>
+      </c>
+      <c r="FO3" s="13">
+        <v>43776</v>
+      </c>
+      <c r="FP3" s="13">
+        <v>43777</v>
+      </c>
+      <c r="FQ3" s="13">
+        <v>43778</v>
+      </c>
+      <c r="FR3" s="13">
+        <v>43779</v>
+      </c>
+      <c r="FS3" s="13">
+        <v>43780</v>
+      </c>
+      <c r="FT3" s="13">
+        <v>43781</v>
+      </c>
+      <c r="FU3" s="13">
+        <v>43782</v>
+      </c>
+      <c r="FV3" s="13">
+        <v>43783</v>
+      </c>
+      <c r="FW3" s="13">
+        <v>43784</v>
+      </c>
+      <c r="FX3" s="13">
+        <v>43785</v>
+      </c>
+      <c r="FY3" s="13">
+        <v>43786</v>
+      </c>
+      <c r="FZ3" s="13">
+        <v>43787</v>
+      </c>
+      <c r="GA3" s="13">
+        <v>43788</v>
+      </c>
+      <c r="GB3" s="13">
+        <v>43789</v>
+      </c>
+      <c r="GC3" s="13">
+        <v>43790</v>
+      </c>
+      <c r="GD3" s="13">
+        <v>43791</v>
+      </c>
+      <c r="GE3" s="13">
+        <v>43792</v>
+      </c>
+      <c r="GF3" s="13">
+        <v>43793</v>
+      </c>
+      <c r="GG3" s="13">
+        <v>43794</v>
+      </c>
+      <c r="GH3" s="13">
+        <v>43795</v>
+      </c>
+      <c r="GI3" s="13">
+        <v>43796</v>
+      </c>
+      <c r="GJ3" s="13">
+        <v>43797</v>
+      </c>
+      <c r="GK3" s="13">
+        <v>43798</v>
+      </c>
+      <c r="GL3" s="13">
+        <v>43799</v>
+      </c>
+      <c r="GM3" s="13">
+        <v>43800</v>
+      </c>
+      <c r="GN3" s="13">
+        <v>43801</v>
+      </c>
+      <c r="GO3" s="13">
+        <v>43802</v>
+      </c>
+      <c r="GP3" s="13">
+        <v>43803</v>
+      </c>
+      <c r="GQ3" s="13">
+        <v>43804</v>
+      </c>
+      <c r="GR3" s="13">
+        <v>43805</v>
+      </c>
+      <c r="GS3" s="13">
+        <v>43806</v>
+      </c>
+      <c r="GT3" s="13">
+        <v>43807</v>
+      </c>
+      <c r="GU3" s="13">
+        <v>43808</v>
+      </c>
+      <c r="GV3" s="13">
+        <v>43809</v>
+      </c>
+      <c r="GW3" s="13">
+        <v>43810</v>
+      </c>
+      <c r="GX3" s="13">
+        <v>43811</v>
+      </c>
+      <c r="GY3" s="13">
+        <v>43812</v>
+      </c>
+      <c r="GZ3" s="13">
+        <v>43813</v>
+      </c>
+      <c r="HA3" s="13">
+        <v>43814</v>
+      </c>
+      <c r="HB3" s="13">
+        <v>43815</v>
+      </c>
+      <c r="HC3" s="13">
+        <v>43816</v>
+      </c>
+      <c r="HD3" s="13">
+        <v>43817</v>
+      </c>
+      <c r="HE3" s="13">
+        <v>43818</v>
+      </c>
+      <c r="HF3" s="13">
+        <v>43819</v>
+      </c>
+      <c r="HG3" s="13">
+        <v>43820</v>
+      </c>
+      <c r="HH3" s="13">
+        <v>43821</v>
+      </c>
+      <c r="HI3" s="13">
+        <v>43822</v>
+      </c>
+      <c r="HJ3" s="13">
+        <v>43823</v>
+      </c>
+      <c r="HK3" s="13">
+        <v>43824</v>
+      </c>
+      <c r="HL3" s="13">
+        <v>43825</v>
+      </c>
+      <c r="HM3" s="13">
+        <v>43826</v>
+      </c>
+      <c r="HN3" s="13">
+        <v>43827</v>
+      </c>
+      <c r="HO3" s="13">
+        <v>43828</v>
+      </c>
+      <c r="HP3" s="13">
+        <v>43829</v>
+      </c>
+      <c r="HQ3" s="13">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:225" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="EG2" s="18" t="str">
-        <f t="shared" ref="EG2" si="97">IF(MONTH(EG3)=MONTH(EF3),"",MONTH(EG3))</f>
-        <v/>
-      </c>
-      <c r="EH2" s="18" t="str">
-        <f t="shared" ref="EH2" si="98">IF(MONTH(EH3)=MONTH(EG3),"",MONTH(EH3))</f>
-        <v/>
-      </c>
-      <c r="EI2" s="18" t="str">
-        <f t="shared" ref="EI2" si="99">IF(MONTH(EI3)=MONTH(EH3),"",MONTH(EI3))</f>
-        <v/>
-      </c>
-      <c r="EJ2" s="18" t="str">
-        <f t="shared" ref="EJ2" si="100">IF(MONTH(EJ3)=MONTH(EI3),"",MONTH(EJ3))</f>
-        <v/>
-      </c>
-      <c r="EK2" s="18" t="str">
-        <f t="shared" ref="EK2" si="101">IF(MONTH(EK3)=MONTH(EJ3),"",MONTH(EK3))</f>
-        <v/>
-      </c>
-      <c r="EL2" s="18" t="str">
-        <f t="shared" ref="EL2" si="102">IF(MONTH(EL3)=MONTH(EK3),"",MONTH(EL3))</f>
-        <v/>
-      </c>
-      <c r="EM2" s="18" t="str">
-        <f t="shared" ref="EM2" si="103">IF(MONTH(EM3)=MONTH(EL3),"",MONTH(EM3))</f>
-        <v/>
-      </c>
-      <c r="EN2" s="18" t="str">
-        <f t="shared" ref="EN2" si="104">IF(MONTH(EN3)=MONTH(EM3),"",MONTH(EN3))</f>
-        <v/>
-      </c>
-      <c r="EO2" s="18" t="str">
-        <f t="shared" ref="EO2" si="105">IF(MONTH(EO3)=MONTH(EN3),"",MONTH(EO3))</f>
-        <v/>
-      </c>
-      <c r="EP2" s="18" t="str">
-        <f t="shared" ref="EP2" si="106">IF(MONTH(EP3)=MONTH(EO3),"",MONTH(EP3))</f>
-        <v/>
-      </c>
-      <c r="EQ2" s="18" t="str">
-        <f t="shared" ref="EQ2" si="107">IF(MONTH(EQ3)=MONTH(EP3),"",MONTH(EQ3))</f>
-        <v/>
-      </c>
-      <c r="ER2" s="18" t="str">
-        <f t="shared" ref="ER2" si="108">IF(MONTH(ER3)=MONTH(EQ3),"",MONTH(ER3))</f>
-        <v/>
-      </c>
-      <c r="ES2" s="18" t="str">
-        <f t="shared" ref="ES2" si="109">IF(MONTH(ES3)=MONTH(ER3),"",MONTH(ES3))</f>
-        <v/>
-      </c>
-      <c r="ET2" s="18" t="str">
-        <f t="shared" ref="ET2" si="110">IF(MONTH(ET3)=MONTH(ES3),"",MONTH(ET3))</f>
-        <v/>
-      </c>
-      <c r="EU2" s="18" t="str">
-        <f t="shared" ref="EU2" si="111">IF(MONTH(EU3)=MONTH(ET3),"",MONTH(EU3))</f>
-        <v/>
-      </c>
-      <c r="EV2" s="18" t="str">
-        <f t="shared" ref="EV2" si="112">IF(MONTH(EV3)=MONTH(EU3),"",MONTH(EV3))</f>
-        <v/>
-      </c>
-      <c r="EW2" s="18" t="str">
-        <f t="shared" ref="EW2" si="113">IF(MONTH(EW3)=MONTH(EV3),"",MONTH(EW3))</f>
-        <v/>
-      </c>
-      <c r="EX2" s="18" t="str">
-        <f t="shared" ref="EX2" si="114">IF(MONTH(EX3)=MONTH(EW3),"",MONTH(EX3))</f>
-        <v/>
-      </c>
-      <c r="EY2" s="18" t="str">
-        <f t="shared" ref="EY2" si="115">IF(MONTH(EY3)=MONTH(EX3),"",MONTH(EY3))</f>
-        <v/>
-      </c>
-      <c r="EZ2" s="18" t="str">
-        <f t="shared" ref="EZ2" si="116">IF(MONTH(EZ3)=MONTH(EY3),"",MONTH(EZ3))</f>
-        <v/>
-      </c>
-      <c r="FA2" s="18" t="str">
-        <f t="shared" ref="FA2" si="117">IF(MONTH(FA3)=MONTH(EZ3),"",MONTH(FA3))</f>
-        <v/>
-      </c>
-      <c r="FB2" s="18" t="str">
-        <f t="shared" ref="FB2" si="118">IF(MONTH(FB3)=MONTH(FA3),"",MONTH(FB3))</f>
-        <v/>
-      </c>
-      <c r="FC2" s="18" t="str">
-        <f t="shared" ref="FC2" si="119">IF(MONTH(FC3)=MONTH(FB3),"",MONTH(FC3))</f>
-        <v/>
-      </c>
-      <c r="FD2" s="18" t="str">
-        <f t="shared" ref="FD2" si="120">IF(MONTH(FD3)=MONTH(FC3),"",MONTH(FD3))</f>
-        <v/>
-      </c>
-      <c r="FE2" s="18" t="str">
-        <f t="shared" ref="FE2" si="121">IF(MONTH(FE3)=MONTH(FD3),"",MONTH(FE3))</f>
-        <v/>
-      </c>
-      <c r="FF2" s="18" t="str">
-        <f t="shared" ref="FF2" si="122">IF(MONTH(FF3)=MONTH(FE3),"",MONTH(FF3))</f>
-        <v/>
-      </c>
-      <c r="FG2" s="18" t="str">
-        <f t="shared" ref="FG2" si="123">IF(MONTH(FG3)=MONTH(FF3),"",MONTH(FG3))</f>
-        <v/>
-      </c>
-      <c r="FH2" s="18" t="str">
-        <f t="shared" ref="FH2" si="124">IF(MONTH(FH3)=MONTH(FG3),"",MONTH(FH3))</f>
-        <v/>
-      </c>
-      <c r="FI2" s="18" t="str">
-        <f t="shared" ref="FI2" si="125">IF(MONTH(FI3)=MONTH(FH3),"",MONTH(FI3))</f>
-        <v/>
-      </c>
-      <c r="FJ2" s="18" t="str">
-        <f t="shared" ref="FJ2" si="126">IF(MONTH(FJ3)=MONTH(FI3),"",MONTH(FJ3))</f>
-        <v/>
-      </c>
-      <c r="FK2" s="18">
-        <f t="shared" ref="FK2" si="127">IF(MONTH(FK3)=MONTH(FJ3),"",MONTH(FK3))</f>
-        <v>11</v>
-      </c>
-      <c r="FL2" s="18" t="str">
-        <f t="shared" ref="FL2" si="128">IF(MONTH(FL3)=MONTH(FK3),"",MONTH(FL3))</f>
-        <v/>
-      </c>
-      <c r="FM2" s="18" t="str">
-        <f t="shared" ref="FM2" si="129">IF(MONTH(FM3)=MONTH(FL3),"",MONTH(FM3))</f>
-        <v/>
-      </c>
-      <c r="FN2" s="18" t="str">
-        <f t="shared" ref="FN2" si="130">IF(MONTH(FN3)=MONTH(FM3),"",MONTH(FN3))</f>
-        <v/>
-      </c>
-      <c r="FO2" s="18" t="str">
-        <f t="shared" ref="FO2" si="131">IF(MONTH(FO3)=MONTH(FN3),"",MONTH(FO3))</f>
-        <v/>
-      </c>
-      <c r="FP2" s="18" t="str">
-        <f t="shared" ref="FP2" si="132">IF(MONTH(FP3)=MONTH(FO3),"",MONTH(FP3))</f>
-        <v/>
-      </c>
-      <c r="FQ2" s="18" t="str">
-        <f t="shared" ref="FQ2" si="133">IF(MONTH(FQ3)=MONTH(FP3),"",MONTH(FQ3))</f>
-        <v/>
-      </c>
-      <c r="FR2" s="18" t="str">
-        <f t="shared" ref="FR2" si="134">IF(MONTH(FR3)=MONTH(FQ3),"",MONTH(FR3))</f>
-        <v/>
-      </c>
-      <c r="FS2" s="18" t="str">
-        <f t="shared" ref="FS2" si="135">IF(MONTH(FS3)=MONTH(FR3),"",MONTH(FS3))</f>
-        <v/>
-      </c>
-      <c r="FT2" s="18" t="str">
-        <f t="shared" ref="FT2" si="136">IF(MONTH(FT3)=MONTH(FS3),"",MONTH(FT3))</f>
-        <v/>
-      </c>
-      <c r="FU2" s="18" t="str">
-        <f t="shared" ref="FU2" si="137">IF(MONTH(FU3)=MONTH(FT3),"",MONTH(FU3))</f>
-        <v/>
-      </c>
-      <c r="FV2" s="18" t="str">
-        <f t="shared" ref="FV2" si="138">IF(MONTH(FV3)=MONTH(FU3),"",MONTH(FV3))</f>
-        <v/>
-      </c>
-      <c r="FW2" s="18" t="str">
-        <f t="shared" ref="FW2" si="139">IF(MONTH(FW3)=MONTH(FV3),"",MONTH(FW3))</f>
-        <v/>
-      </c>
-      <c r="FX2" s="18" t="str">
-        <f t="shared" ref="FX2" si="140">IF(MONTH(FX3)=MONTH(FW3),"",MONTH(FX3))</f>
-        <v/>
-      </c>
-      <c r="FY2" s="18" t="str">
-        <f t="shared" ref="FY2" si="141">IF(MONTH(FY3)=MONTH(FX3),"",MONTH(FY3))</f>
-        <v/>
-      </c>
-      <c r="FZ2" s="18" t="str">
-        <f t="shared" ref="FZ2" si="142">IF(MONTH(FZ3)=MONTH(FY3),"",MONTH(FZ3))</f>
-        <v/>
-      </c>
-      <c r="GA2" s="18" t="str">
-        <f t="shared" ref="GA2" si="143">IF(MONTH(GA3)=MONTH(FZ3),"",MONTH(GA3))</f>
-        <v/>
-      </c>
-      <c r="GB2" s="18" t="str">
-        <f t="shared" ref="GB2" si="144">IF(MONTH(GB3)=MONTH(GA3),"",MONTH(GB3))</f>
-        <v/>
-      </c>
-      <c r="GC2" s="18" t="str">
-        <f t="shared" ref="GC2" si="145">IF(MONTH(GC3)=MONTH(GB3),"",MONTH(GC3))</f>
-        <v/>
-      </c>
-      <c r="GD2" s="18" t="str">
-        <f t="shared" ref="GD2" si="146">IF(MONTH(GD3)=MONTH(GC3),"",MONTH(GD3))</f>
-        <v/>
-      </c>
-      <c r="GE2" s="18" t="str">
-        <f t="shared" ref="GE2" si="147">IF(MONTH(GE3)=MONTH(GD3),"",MONTH(GE3))</f>
-        <v/>
-      </c>
-      <c r="GF2" s="18" t="str">
-        <f t="shared" ref="GF2" si="148">IF(MONTH(GF3)=MONTH(GE3),"",MONTH(GF3))</f>
-        <v/>
-      </c>
-      <c r="GG2" s="18" t="str">
-        <f t="shared" ref="GG2" si="149">IF(MONTH(GG3)=MONTH(GF3),"",MONTH(GG3))</f>
-        <v/>
-      </c>
-      <c r="GH2" s="18" t="str">
-        <f t="shared" ref="GH2" si="150">IF(MONTH(GH3)=MONTH(GG3),"",MONTH(GH3))</f>
-        <v/>
-      </c>
-      <c r="GI2" s="18" t="str">
-        <f t="shared" ref="GI2" si="151">IF(MONTH(GI3)=MONTH(GH3),"",MONTH(GI3))</f>
-        <v/>
-      </c>
-      <c r="GJ2" s="18" t="str">
-        <f t="shared" ref="GJ2" si="152">IF(MONTH(GJ3)=MONTH(GI3),"",MONTH(GJ3))</f>
-        <v/>
-      </c>
-      <c r="GK2" s="18" t="str">
-        <f t="shared" ref="GK2" si="153">IF(MONTH(GK3)=MONTH(GJ3),"",MONTH(GK3))</f>
-        <v/>
-      </c>
-      <c r="GL2" s="18" t="str">
-        <f t="shared" ref="GL2" si="154">IF(MONTH(GL3)=MONTH(GK3),"",MONTH(GL3))</f>
-        <v/>
-      </c>
-      <c r="GM2" s="18" t="str">
-        <f t="shared" ref="GM2" si="155">IF(MONTH(GM3)=MONTH(GL3),"",MONTH(GM3))</f>
-        <v/>
-      </c>
-      <c r="GN2" s="18" t="str">
-        <f t="shared" ref="GN2" si="156">IF(MONTH(GN3)=MONTH(GM3),"",MONTH(GN3))</f>
-        <v/>
-      </c>
-      <c r="GO2" s="18">
-        <f t="shared" ref="GO2" si="157">IF(MONTH(GO3)=MONTH(GN3),"",MONTH(GO3))</f>
-        <v>12</v>
-      </c>
-      <c r="GP2" s="18" t="str">
-        <f t="shared" ref="GP2" si="158">IF(MONTH(GP3)=MONTH(GO3),"",MONTH(GP3))</f>
-        <v/>
-      </c>
-      <c r="GQ2" s="18" t="str">
-        <f t="shared" ref="GQ2" si="159">IF(MONTH(GQ3)=MONTH(GP3),"",MONTH(GQ3))</f>
-        <v/>
-      </c>
-      <c r="GR2" s="18" t="str">
-        <f t="shared" ref="GR2" si="160">IF(MONTH(GR3)=MONTH(GQ3),"",MONTH(GR3))</f>
-        <v/>
-      </c>
-      <c r="GS2" s="18" t="str">
-        <f t="shared" ref="GS2" si="161">IF(MONTH(GS3)=MONTH(GR3),"",MONTH(GS3))</f>
-        <v/>
-      </c>
-      <c r="GT2" s="18" t="str">
-        <f t="shared" ref="GT2" si="162">IF(MONTH(GT3)=MONTH(GS3),"",MONTH(GT3))</f>
-        <v/>
-      </c>
-      <c r="GU2" s="18" t="str">
-        <f t="shared" ref="GU2" si="163">IF(MONTH(GU3)=MONTH(GT3),"",MONTH(GU3))</f>
-        <v/>
-      </c>
-      <c r="GV2" s="18" t="str">
-        <f t="shared" ref="GV2" si="164">IF(MONTH(GV3)=MONTH(GU3),"",MONTH(GV3))</f>
-        <v/>
-      </c>
-      <c r="GW2" s="18" t="str">
-        <f t="shared" ref="GW2" si="165">IF(MONTH(GW3)=MONTH(GV3),"",MONTH(GW3))</f>
-        <v/>
-      </c>
-      <c r="GX2" s="18" t="str">
-        <f t="shared" ref="GX2" si="166">IF(MONTH(GX3)=MONTH(GW3),"",MONTH(GX3))</f>
-        <v/>
-      </c>
-      <c r="GY2" s="18" t="str">
-        <f t="shared" ref="GY2" si="167">IF(MONTH(GY3)=MONTH(GX3),"",MONTH(GY3))</f>
-        <v/>
-      </c>
-      <c r="GZ2" s="18" t="str">
-        <f t="shared" ref="GZ2" si="168">IF(MONTH(GZ3)=MONTH(GY3),"",MONTH(GZ3))</f>
-        <v/>
-      </c>
-      <c r="HA2" s="18" t="str">
-        <f t="shared" ref="HA2" si="169">IF(MONTH(HA3)=MONTH(GZ3),"",MONTH(HA3))</f>
-        <v/>
-      </c>
-      <c r="HB2" s="18" t="str">
-        <f t="shared" ref="HB2" si="170">IF(MONTH(HB3)=MONTH(HA3),"",MONTH(HB3))</f>
-        <v/>
-      </c>
-      <c r="HC2" s="18" t="str">
-        <f t="shared" ref="HC2" si="171">IF(MONTH(HC3)=MONTH(HB3),"",MONTH(HC3))</f>
-        <v/>
-      </c>
-      <c r="HD2" s="18" t="str">
-        <f t="shared" ref="HD2" si="172">IF(MONTH(HD3)=MONTH(HC3),"",MONTH(HD3))</f>
-        <v/>
-      </c>
-      <c r="HE2" s="18" t="str">
-        <f t="shared" ref="HE2" si="173">IF(MONTH(HE3)=MONTH(HD3),"",MONTH(HE3))</f>
-        <v/>
-      </c>
-      <c r="HF2" s="18" t="str">
-        <f t="shared" ref="HF2" si="174">IF(MONTH(HF3)=MONTH(HE3),"",MONTH(HF3))</f>
-        <v/>
-      </c>
-      <c r="HG2" s="18" t="str">
-        <f t="shared" ref="HG2" si="175">IF(MONTH(HG3)=MONTH(HF3),"",MONTH(HG3))</f>
-        <v/>
-      </c>
-      <c r="HH2" s="18" t="str">
-        <f t="shared" ref="HH2" si="176">IF(MONTH(HH3)=MONTH(HG3),"",MONTH(HH3))</f>
-        <v/>
-      </c>
-      <c r="HI2" s="18" t="str">
-        <f t="shared" ref="HI2" si="177">IF(MONTH(HI3)=MONTH(HH3),"",MONTH(HI3))</f>
-        <v/>
-      </c>
-      <c r="HJ2" s="18" t="str">
-        <f t="shared" ref="HJ2" si="178">IF(MONTH(HJ3)=MONTH(HI3),"",MONTH(HJ3))</f>
-        <v/>
-      </c>
-      <c r="HK2" s="18" t="str">
-        <f t="shared" ref="HK2" si="179">IF(MONTH(HK3)=MONTH(HJ3),"",MONTH(HK3))</f>
-        <v/>
-      </c>
-      <c r="HL2" s="18" t="str">
-        <f t="shared" ref="HL2" si="180">IF(MONTH(HL3)=MONTH(HK3),"",MONTH(HL3))</f>
-        <v/>
-      </c>
-      <c r="HM2" s="18" t="str">
-        <f t="shared" ref="HM2" si="181">IF(MONTH(HM3)=MONTH(HL3),"",MONTH(HM3))</f>
-        <v/>
-      </c>
-      <c r="HN2" s="18" t="str">
-        <f t="shared" ref="HN2" si="182">IF(MONTH(HN3)=MONTH(HM3),"",MONTH(HN3))</f>
-        <v/>
-      </c>
-      <c r="HO2" s="18" t="str">
-        <f t="shared" ref="HO2" si="183">IF(MONTH(HO3)=MONTH(HN3),"",MONTH(HO3))</f>
-        <v/>
-      </c>
-      <c r="HP2" s="18" t="str">
-        <f t="shared" ref="HP2" si="184">IF(MONTH(HP3)=MONTH(HO3),"",MONTH(HP3))</f>
-        <v/>
-      </c>
-      <c r="HQ2" s="18" t="str">
-        <f t="shared" ref="HQ2" si="185">IF(MONTH(HQ3)=MONTH(HP3),"",MONTH(HQ3))</f>
-        <v/>
-      </c>
-      <c r="HR2" s="18" t="str">
-        <f t="shared" ref="HR2" si="186">IF(MONTH(HR3)=MONTH(HQ3),"",MONTH(HR3))</f>
-        <v/>
-      </c>
-      <c r="HS2" s="18" t="str">
-        <f t="shared" ref="HS2" si="187">IF(MONTH(HS3)=MONTH(HR3),"",MONTH(HS3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:227" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="13">
-        <v>43617</v>
-      </c>
-      <c r="O3" s="13">
-        <v>43618</v>
-      </c>
-      <c r="P3" s="13">
-        <v>43619</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>43620</v>
-      </c>
-      <c r="R3" s="13">
-        <v>42526</v>
-      </c>
-      <c r="S3" s="13">
-        <v>42527</v>
-      </c>
-      <c r="T3" s="13">
-        <v>42528</v>
-      </c>
-      <c r="U3" s="13">
-        <v>42529</v>
-      </c>
-      <c r="V3" s="13">
-        <v>42530</v>
-      </c>
-      <c r="W3" s="13">
-        <v>42531</v>
-      </c>
-      <c r="X3" s="13">
-        <v>42532</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>42533</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>42534</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>42535</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>42536</v>
-      </c>
-      <c r="AC3" s="13">
-        <v>42537</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>42538</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>42539</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>42540</v>
-      </c>
-      <c r="AG3" s="13">
-        <v>42541</v>
-      </c>
-      <c r="AH3" s="13">
-        <v>42542</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>42543</v>
-      </c>
-      <c r="AJ3" s="13">
-        <v>42544</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>42545</v>
-      </c>
-      <c r="AL3" s="13">
-        <v>42546</v>
-      </c>
-      <c r="AM3" s="13">
-        <v>42547</v>
-      </c>
-      <c r="AN3" s="13">
-        <v>42548</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>42549</v>
-      </c>
-      <c r="AP3" s="13">
-        <v>42550</v>
-      </c>
-      <c r="AQ3" s="13">
-        <v>42551</v>
-      </c>
-      <c r="AR3" s="13">
-        <v>42552</v>
-      </c>
-      <c r="AS3" s="13">
-        <v>42553</v>
-      </c>
-      <c r="AT3" s="13">
-        <v>42554</v>
-      </c>
-      <c r="AU3" s="13">
-        <v>42555</v>
-      </c>
-      <c r="AV3" s="13">
-        <v>42556</v>
-      </c>
-      <c r="AW3" s="13">
-        <v>42557</v>
-      </c>
-      <c r="AX3" s="13">
-        <v>42558</v>
-      </c>
-      <c r="AY3" s="13">
-        <v>42559</v>
-      </c>
-      <c r="AZ3" s="13">
-        <v>42560</v>
-      </c>
-      <c r="BA3" s="13">
-        <v>42561</v>
-      </c>
-      <c r="BB3" s="13">
-        <v>42562</v>
-      </c>
-      <c r="BC3" s="13">
-        <v>42563</v>
-      </c>
-      <c r="BD3" s="13">
-        <v>42564</v>
-      </c>
-      <c r="BE3" s="13">
-        <v>42565</v>
-      </c>
-      <c r="BF3" s="13">
-        <v>42566</v>
-      </c>
-      <c r="BG3" s="13">
-        <v>42567</v>
-      </c>
-      <c r="BH3" s="13">
-        <v>42568</v>
-      </c>
-      <c r="BI3" s="13">
-        <v>42569</v>
-      </c>
-      <c r="BJ3" s="13">
-        <v>42570</v>
-      </c>
-      <c r="BK3" s="13">
-        <v>42571</v>
-      </c>
-      <c r="BL3" s="13">
-        <v>42572</v>
-      </c>
-      <c r="BM3" s="13">
-        <v>42573</v>
-      </c>
-      <c r="BN3" s="13">
-        <v>42574</v>
-      </c>
-      <c r="BO3" s="13">
-        <v>42575</v>
-      </c>
-      <c r="BP3" s="13">
-        <v>42576</v>
-      </c>
-      <c r="BQ3" s="13">
-        <v>42577</v>
-      </c>
-      <c r="BR3" s="13">
-        <v>42578</v>
-      </c>
-      <c r="BS3" s="13">
-        <v>42579</v>
-      </c>
-      <c r="BT3" s="13">
-        <v>42580</v>
-      </c>
-      <c r="BU3" s="13">
-        <v>42581</v>
-      </c>
-      <c r="BV3" s="13">
-        <v>42582</v>
-      </c>
-      <c r="BW3" s="13">
-        <v>42583</v>
-      </c>
-      <c r="BX3" s="13">
-        <v>42584</v>
-      </c>
-      <c r="BY3" s="13">
-        <v>42585</v>
-      </c>
-      <c r="BZ3" s="13">
-        <v>42586</v>
-      </c>
-      <c r="CA3" s="13">
-        <v>42587</v>
-      </c>
-      <c r="CB3" s="13">
-        <v>42588</v>
-      </c>
-      <c r="CC3" s="13">
-        <v>42589</v>
-      </c>
-      <c r="CD3" s="13">
-        <v>42590</v>
-      </c>
-      <c r="CE3" s="13">
-        <v>42591</v>
-      </c>
-      <c r="CF3" s="13">
-        <v>42592</v>
-      </c>
-      <c r="CG3" s="13">
-        <v>42593</v>
-      </c>
-      <c r="CH3" s="13">
-        <v>42594</v>
-      </c>
-      <c r="CI3" s="13">
-        <v>42595</v>
-      </c>
-      <c r="CJ3" s="13">
-        <v>42596</v>
-      </c>
-      <c r="CK3" s="13">
-        <v>42597</v>
-      </c>
-      <c r="CL3" s="13">
-        <v>42598</v>
-      </c>
-      <c r="CM3" s="13">
-        <v>42599</v>
-      </c>
-      <c r="CN3" s="13">
-        <v>42600</v>
-      </c>
-      <c r="CO3" s="13">
-        <v>42601</v>
-      </c>
-      <c r="CP3" s="13">
-        <v>42602</v>
-      </c>
-      <c r="CQ3" s="13">
-        <v>42603</v>
-      </c>
-      <c r="CR3" s="13">
-        <v>42604</v>
-      </c>
-      <c r="CS3" s="13">
-        <v>42605</v>
-      </c>
-      <c r="CT3" s="13">
-        <v>42606</v>
-      </c>
-      <c r="CU3" s="13">
-        <v>42607</v>
-      </c>
-      <c r="CV3" s="13">
-        <v>42608</v>
-      </c>
-      <c r="CW3" s="13">
-        <v>42609</v>
-      </c>
-      <c r="CX3" s="13">
-        <v>42610</v>
-      </c>
-      <c r="CY3" s="13">
-        <v>42611</v>
-      </c>
-      <c r="CZ3" s="13">
-        <v>42612</v>
-      </c>
-      <c r="DA3" s="13">
-        <v>42613</v>
-      </c>
-      <c r="DB3" s="13">
-        <v>42614</v>
-      </c>
-      <c r="DC3" s="13">
-        <v>42615</v>
-      </c>
-      <c r="DD3" s="13">
-        <v>42616</v>
-      </c>
-      <c r="DE3" s="13">
-        <v>42617</v>
-      </c>
-      <c r="DF3" s="13">
-        <v>42618</v>
-      </c>
-      <c r="DG3" s="13">
-        <v>42619</v>
-      </c>
-      <c r="DH3" s="13">
-        <v>42620</v>
-      </c>
-      <c r="DI3" s="13">
-        <v>42621</v>
-      </c>
-      <c r="DJ3" s="13">
-        <v>42622</v>
-      </c>
-      <c r="DK3" s="13">
-        <v>42623</v>
-      </c>
-      <c r="DL3" s="13">
-        <v>42624</v>
-      </c>
-      <c r="DM3" s="13">
-        <v>42625</v>
-      </c>
-      <c r="DN3" s="13">
-        <v>42626</v>
-      </c>
-      <c r="DO3" s="13">
-        <v>42627</v>
-      </c>
-      <c r="DP3" s="13">
-        <v>42628</v>
-      </c>
-      <c r="DQ3" s="13">
-        <v>42629</v>
-      </c>
-      <c r="DR3" s="13">
-        <v>42630</v>
-      </c>
-      <c r="DS3" s="13">
-        <v>42631</v>
-      </c>
-      <c r="DT3" s="13">
-        <v>42632</v>
-      </c>
-      <c r="DU3" s="13">
-        <v>42633</v>
-      </c>
-      <c r="DV3" s="13">
-        <v>42634</v>
-      </c>
-      <c r="DW3" s="13">
-        <v>42635</v>
-      </c>
-      <c r="DX3" s="13">
-        <v>42636</v>
-      </c>
-      <c r="DY3" s="13">
-        <v>43732</v>
-      </c>
-      <c r="DZ3" s="13">
-        <v>43733</v>
-      </c>
-      <c r="EA3" s="13">
-        <v>43734</v>
-      </c>
-      <c r="EB3" s="13">
-        <v>43735</v>
-      </c>
-      <c r="EC3" s="13">
-        <v>43736</v>
-      </c>
-      <c r="ED3" s="13">
-        <v>43737</v>
-      </c>
-      <c r="EE3" s="13">
-        <v>43738</v>
-      </c>
-      <c r="EF3" s="13">
-        <v>43739</v>
-      </c>
-      <c r="EG3" s="13">
-        <v>43740</v>
-      </c>
-      <c r="EH3" s="13">
-        <v>43741</v>
-      </c>
-      <c r="EI3" s="13">
-        <v>43742</v>
-      </c>
-      <c r="EJ3" s="13">
-        <v>43743</v>
-      </c>
-      <c r="EK3" s="13">
-        <v>43744</v>
-      </c>
-      <c r="EL3" s="13">
-        <v>43745</v>
-      </c>
-      <c r="EM3" s="13">
-        <v>43746</v>
-      </c>
-      <c r="EN3" s="13">
-        <v>43747</v>
-      </c>
-      <c r="EO3" s="13">
-        <v>43748</v>
-      </c>
-      <c r="EP3" s="13">
-        <v>43749</v>
-      </c>
-      <c r="EQ3" s="13">
-        <v>43750</v>
-      </c>
-      <c r="ER3" s="13">
-        <v>43751</v>
-      </c>
-      <c r="ES3" s="13">
-        <v>43752</v>
-      </c>
-      <c r="ET3" s="13">
-        <v>43753</v>
-      </c>
-      <c r="EU3" s="13">
-        <v>43754</v>
-      </c>
-      <c r="EV3" s="13">
-        <v>43755</v>
-      </c>
-      <c r="EW3" s="13">
-        <v>43756</v>
-      </c>
-      <c r="EX3" s="13">
-        <v>43757</v>
-      </c>
-      <c r="EY3" s="13">
-        <v>43758</v>
-      </c>
-      <c r="EZ3" s="13">
-        <v>43759</v>
-      </c>
-      <c r="FA3" s="13">
-        <v>43760</v>
-      </c>
-      <c r="FB3" s="13">
-        <v>43761</v>
-      </c>
-      <c r="FC3" s="13">
-        <v>43762</v>
-      </c>
-      <c r="FD3" s="13">
-        <v>43763</v>
-      </c>
-      <c r="FE3" s="13">
-        <v>43764</v>
-      </c>
-      <c r="FF3" s="13">
-        <v>43765</v>
-      </c>
-      <c r="FG3" s="13">
-        <v>43766</v>
-      </c>
-      <c r="FH3" s="13">
-        <v>43767</v>
-      </c>
-      <c r="FI3" s="13">
-        <v>43768</v>
-      </c>
-      <c r="FJ3" s="13">
-        <v>43769</v>
-      </c>
-      <c r="FK3" s="13">
-        <v>43770</v>
-      </c>
-      <c r="FL3" s="13">
-        <v>43771</v>
-      </c>
-      <c r="FM3" s="13">
-        <v>43772</v>
-      </c>
-      <c r="FN3" s="13">
-        <v>43773</v>
-      </c>
-      <c r="FO3" s="13">
-        <v>43774</v>
-      </c>
-      <c r="FP3" s="13">
-        <v>43775</v>
-      </c>
-      <c r="FQ3" s="13">
-        <v>43776</v>
-      </c>
-      <c r="FR3" s="13">
-        <v>43777</v>
-      </c>
-      <c r="FS3" s="13">
-        <v>43778</v>
-      </c>
-      <c r="FT3" s="13">
-        <v>43779</v>
-      </c>
-      <c r="FU3" s="13">
-        <v>43780</v>
-      </c>
-      <c r="FV3" s="13">
-        <v>43781</v>
-      </c>
-      <c r="FW3" s="13">
-        <v>43782</v>
-      </c>
-      <c r="FX3" s="13">
-        <v>43783</v>
-      </c>
-      <c r="FY3" s="13">
-        <v>43784</v>
-      </c>
-      <c r="FZ3" s="13">
-        <v>43785</v>
-      </c>
-      <c r="GA3" s="13">
-        <v>43786</v>
-      </c>
-      <c r="GB3" s="13">
-        <v>43787</v>
-      </c>
-      <c r="GC3" s="13">
-        <v>43788</v>
-      </c>
-      <c r="GD3" s="13">
-        <v>43789</v>
-      </c>
-      <c r="GE3" s="13">
-        <v>43790</v>
-      </c>
-      <c r="GF3" s="13">
-        <v>43791</v>
-      </c>
-      <c r="GG3" s="13">
-        <v>43792</v>
-      </c>
-      <c r="GH3" s="13">
-        <v>43793</v>
-      </c>
-      <c r="GI3" s="13">
-        <v>43794</v>
-      </c>
-      <c r="GJ3" s="13">
-        <v>43795</v>
-      </c>
-      <c r="GK3" s="13">
-        <v>43796</v>
-      </c>
-      <c r="GL3" s="13">
-        <v>43797</v>
-      </c>
-      <c r="GM3" s="13">
-        <v>43798</v>
-      </c>
-      <c r="GN3" s="13">
-        <v>43799</v>
-      </c>
-      <c r="GO3" s="13">
-        <v>43800</v>
-      </c>
-      <c r="GP3" s="13">
-        <v>43801</v>
-      </c>
-      <c r="GQ3" s="13">
-        <v>43802</v>
-      </c>
-      <c r="GR3" s="13">
-        <v>43803</v>
-      </c>
-      <c r="GS3" s="13">
-        <v>43804</v>
-      </c>
-      <c r="GT3" s="13">
-        <v>43805</v>
-      </c>
-      <c r="GU3" s="13">
-        <v>43806</v>
-      </c>
-      <c r="GV3" s="13">
-        <v>43807</v>
-      </c>
-      <c r="GW3" s="13">
-        <v>43808</v>
-      </c>
-      <c r="GX3" s="13">
-        <v>43809</v>
-      </c>
-      <c r="GY3" s="13">
-        <v>43810</v>
-      </c>
-      <c r="GZ3" s="13">
-        <v>43811</v>
-      </c>
-      <c r="HA3" s="13">
-        <v>43812</v>
-      </c>
-      <c r="HB3" s="13">
-        <v>43813</v>
-      </c>
-      <c r="HC3" s="13">
-        <v>43814</v>
-      </c>
-      <c r="HD3" s="13">
-        <v>43815</v>
-      </c>
-      <c r="HE3" s="13">
-        <v>43816</v>
-      </c>
-      <c r="HF3" s="13">
-        <v>43817</v>
-      </c>
-      <c r="HG3" s="13">
-        <v>43818</v>
-      </c>
-      <c r="HH3" s="13">
-        <v>43819</v>
-      </c>
-      <c r="HI3" s="13">
-        <v>43820</v>
-      </c>
-      <c r="HJ3" s="13">
-        <v>43821</v>
-      </c>
-      <c r="HK3" s="13">
-        <v>43822</v>
-      </c>
-      <c r="HL3" s="13">
-        <v>43823</v>
-      </c>
-      <c r="HM3" s="13">
-        <v>43824</v>
-      </c>
-      <c r="HN3" s="13">
-        <v>43825</v>
-      </c>
-      <c r="HO3" s="13">
-        <v>43826</v>
-      </c>
-      <c r="HP3" s="13">
-        <v>43827</v>
-      </c>
-      <c r="HQ3" s="13">
-        <v>43828</v>
-      </c>
-      <c r="HR3" s="13">
-        <v>43829</v>
-      </c>
-      <c r="HS3" s="13">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:227" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="15" t="s">
-        <v>9</v>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="16">
+        <f>L3</f>
+        <v>43617</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:O4" si="188">M3</f>
+        <v>43618</v>
       </c>
       <c r="N4" s="16">
-        <f>N3</f>
-        <v>43617</v>
-      </c>
-      <c r="O4" s="16">
-        <f t="shared" ref="O4:Q4" si="188">O3</f>
-        <v>43618</v>
-      </c>
-      <c r="P4" s="16">
         <f t="shared" si="188"/>
         <v>43619</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="O4" s="16">
         <f t="shared" si="188"/>
         <v>43620</v>
       </c>
+      <c r="P4" s="16">
+        <f t="shared" ref="P4" si="189">P3</f>
+        <v>42526</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" ref="Q4:CB4" si="190">Q3</f>
+        <v>42527</v>
+      </c>
       <c r="R4" s="16">
-        <f t="shared" ref="R4" si="189">R3</f>
-        <v>42526</v>
+        <f t="shared" si="190"/>
+        <v>42528</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" ref="S4:CD4" si="190">S3</f>
-        <v>42527</v>
+        <f t="shared" si="190"/>
+        <v>42529</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="190"/>
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="190"/>
-        <v>42529</v>
+        <v>42531</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="190"/>
-        <v>42530</v>
+        <v>42532</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="190"/>
-        <v>42531</v>
+        <v>42533</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="190"/>
-        <v>42532</v>
+        <v>42534</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="190"/>
-        <v>42533</v>
+        <v>42535</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="190"/>
-        <v>42534</v>
+        <v>42536</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="190"/>
-        <v>42535</v>
+        <v>42537</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="190"/>
-        <v>42536</v>
+        <v>42538</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="190"/>
-        <v>42537</v>
+        <v>42539</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="190"/>
-        <v>42538</v>
+        <v>42540</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="190"/>
-        <v>42539</v>
+        <v>42541</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="190"/>
-        <v>42540</v>
+        <v>42542</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="190"/>
-        <v>42541</v>
+        <v>42543</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="190"/>
-        <v>42542</v>
+        <v>42544</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="190"/>
-        <v>42543</v>
+        <v>42545</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="190"/>
-        <v>42544</v>
+        <v>42546</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="190"/>
-        <v>42545</v>
+        <v>42547</v>
       </c>
       <c r="AL4" s="16">
         <f t="shared" si="190"/>
-        <v>42546</v>
+        <v>42548</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="190"/>
-        <v>42547</v>
+        <v>42549</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="190"/>
-        <v>42548</v>
+        <v>42550</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="190"/>
-        <v>42549</v>
+        <v>42551</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="190"/>
-        <v>42550</v>
+        <v>42552</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="190"/>
-        <v>42551</v>
+        <v>42553</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="190"/>
-        <v>42552</v>
+        <v>42554</v>
       </c>
       <c r="AS4" s="16">
         <f t="shared" si="190"/>
-        <v>42553</v>
+        <v>42555</v>
       </c>
       <c r="AT4" s="16">
         <f t="shared" si="190"/>
-        <v>42554</v>
+        <v>42556</v>
       </c>
       <c r="AU4" s="16">
         <f t="shared" si="190"/>
-        <v>42555</v>
+        <v>42557</v>
       </c>
       <c r="AV4" s="16">
         <f t="shared" si="190"/>
-        <v>42556</v>
+        <v>42558</v>
       </c>
       <c r="AW4" s="16">
         <f t="shared" si="190"/>
-        <v>42557</v>
+        <v>42559</v>
       </c>
       <c r="AX4" s="16">
         <f t="shared" si="190"/>
-        <v>42558</v>
+        <v>42560</v>
       </c>
       <c r="AY4" s="16">
         <f t="shared" si="190"/>
-        <v>42559</v>
+        <v>42561</v>
       </c>
       <c r="AZ4" s="16">
         <f t="shared" si="190"/>
-        <v>42560</v>
+        <v>42562</v>
       </c>
       <c r="BA4" s="16">
         <f t="shared" si="190"/>
-        <v>42561</v>
+        <v>42563</v>
       </c>
       <c r="BB4" s="16">
         <f t="shared" si="190"/>
-        <v>42562</v>
+        <v>42564</v>
       </c>
       <c r="BC4" s="16">
         <f t="shared" si="190"/>
-        <v>42563</v>
+        <v>42565</v>
       </c>
       <c r="BD4" s="16">
         <f t="shared" si="190"/>
-        <v>42564</v>
+        <v>42566</v>
       </c>
       <c r="BE4" s="16">
         <f t="shared" si="190"/>
-        <v>42565</v>
+        <v>42567</v>
       </c>
       <c r="BF4" s="16">
         <f t="shared" si="190"/>
-        <v>42566</v>
+        <v>42568</v>
       </c>
       <c r="BG4" s="16">
         <f t="shared" si="190"/>
-        <v>42567</v>
+        <v>42569</v>
       </c>
       <c r="BH4" s="16">
         <f t="shared" si="190"/>
-        <v>42568</v>
+        <v>42570</v>
       </c>
       <c r="BI4" s="16">
         <f t="shared" si="190"/>
-        <v>42569</v>
+        <v>42571</v>
       </c>
       <c r="BJ4" s="16">
         <f t="shared" si="190"/>
-        <v>42570</v>
+        <v>42572</v>
       </c>
       <c r="BK4" s="16">
         <f t="shared" si="190"/>
-        <v>42571</v>
+        <v>42573</v>
       </c>
       <c r="BL4" s="16">
         <f t="shared" si="190"/>
-        <v>42572</v>
+        <v>42574</v>
       </c>
       <c r="BM4" s="16">
         <f t="shared" si="190"/>
-        <v>42573</v>
+        <v>42575</v>
       </c>
       <c r="BN4" s="16">
         <f t="shared" si="190"/>
-        <v>42574</v>
+        <v>42576</v>
       </c>
       <c r="BO4" s="16">
         <f t="shared" si="190"/>
-        <v>42575</v>
+        <v>42577</v>
       </c>
       <c r="BP4" s="16">
         <f t="shared" si="190"/>
-        <v>42576</v>
+        <v>42578</v>
       </c>
       <c r="BQ4" s="16">
         <f t="shared" si="190"/>
-        <v>42577</v>
+        <v>42579</v>
       </c>
       <c r="BR4" s="16">
         <f t="shared" si="190"/>
-        <v>42578</v>
+        <v>42580</v>
       </c>
       <c r="BS4" s="16">
         <f t="shared" si="190"/>
-        <v>42579</v>
+        <v>42581</v>
       </c>
       <c r="BT4" s="16">
         <f t="shared" si="190"/>
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="BU4" s="16">
         <f t="shared" si="190"/>
-        <v>42581</v>
+        <v>42583</v>
       </c>
       <c r="BV4" s="16">
         <f t="shared" si="190"/>
-        <v>42582</v>
+        <v>42584</v>
       </c>
       <c r="BW4" s="16">
         <f t="shared" si="190"/>
-        <v>42583</v>
+        <v>42585</v>
       </c>
       <c r="BX4" s="16">
         <f t="shared" si="190"/>
-        <v>42584</v>
+        <v>42586</v>
       </c>
       <c r="BY4" s="16">
         <f t="shared" si="190"/>
-        <v>42585</v>
+        <v>42587</v>
       </c>
       <c r="BZ4" s="16">
         <f t="shared" si="190"/>
-        <v>42586</v>
+        <v>42588</v>
       </c>
       <c r="CA4" s="16">
         <f t="shared" si="190"/>
-        <v>42587</v>
+        <v>42589</v>
       </c>
       <c r="CB4" s="16">
         <f t="shared" si="190"/>
-        <v>42588</v>
+        <v>42590</v>
       </c>
       <c r="CC4" s="16">
-        <f t="shared" si="190"/>
-        <v>42589</v>
+        <f t="shared" ref="CC4:EN4" si="191">CC3</f>
+        <v>42591</v>
       </c>
       <c r="CD4" s="16">
-        <f t="shared" si="190"/>
-        <v>42590</v>
+        <f t="shared" si="191"/>
+        <v>42592</v>
       </c>
       <c r="CE4" s="16">
-        <f t="shared" ref="CE4:EP4" si="191">CE3</f>
-        <v>42591</v>
+        <f t="shared" si="191"/>
+        <v>42593</v>
       </c>
       <c r="CF4" s="16">
         <f t="shared" si="191"/>
-        <v>42592</v>
+        <v>42594</v>
       </c>
       <c r="CG4" s="16">
         <f t="shared" si="191"/>
-        <v>42593</v>
+        <v>42595</v>
       </c>
       <c r="CH4" s="16">
         <f t="shared" si="191"/>
-        <v>42594</v>
+        <v>42596</v>
       </c>
       <c r="CI4" s="16">
         <f t="shared" si="191"/>
-        <v>42595</v>
+        <v>42597</v>
       </c>
       <c r="CJ4" s="16">
         <f t="shared" si="191"/>
-        <v>42596</v>
+        <v>42598</v>
       </c>
       <c r="CK4" s="16">
         <f t="shared" si="191"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="CL4" s="16">
         <f t="shared" si="191"/>
-        <v>42598</v>
+        <v>42600</v>
       </c>
       <c r="CM4" s="16">
         <f t="shared" si="191"/>
-        <v>42599</v>
+        <v>42601</v>
       </c>
       <c r="CN4" s="16">
         <f t="shared" si="191"/>
-        <v>42600</v>
+        <v>42602</v>
       </c>
       <c r="CO4" s="16">
         <f t="shared" si="191"/>
-        <v>42601</v>
+        <v>42603</v>
       </c>
       <c r="CP4" s="16">
         <f t="shared" si="191"/>
-        <v>42602</v>
+        <v>42604</v>
       </c>
       <c r="CQ4" s="16">
         <f t="shared" si="191"/>
-        <v>42603</v>
+        <v>42605</v>
       </c>
       <c r="CR4" s="16">
         <f t="shared" si="191"/>
-        <v>42604</v>
+        <v>42606</v>
       </c>
       <c r="CS4" s="16">
         <f t="shared" si="191"/>
-        <v>42605</v>
+        <v>42607</v>
       </c>
       <c r="CT4" s="16">
         <f t="shared" si="191"/>
-        <v>42606</v>
+        <v>42608</v>
       </c>
       <c r="CU4" s="16">
         <f t="shared" si="191"/>
-        <v>42607</v>
+        <v>42609</v>
       </c>
       <c r="CV4" s="16">
         <f t="shared" si="191"/>
-        <v>42608</v>
+        <v>42610</v>
       </c>
       <c r="CW4" s="16">
         <f t="shared" si="191"/>
-        <v>42609</v>
+        <v>42611</v>
       </c>
       <c r="CX4" s="16">
         <f t="shared" si="191"/>
-        <v>42610</v>
+        <v>42612</v>
       </c>
       <c r="CY4" s="16">
         <f t="shared" si="191"/>
-        <v>42611</v>
+        <v>42613</v>
       </c>
       <c r="CZ4" s="16">
         <f t="shared" si="191"/>
-        <v>42612</v>
+        <v>42614</v>
       </c>
       <c r="DA4" s="16">
         <f t="shared" si="191"/>
-        <v>42613</v>
+        <v>42615</v>
       </c>
       <c r="DB4" s="16">
         <f t="shared" si="191"/>
-        <v>42614</v>
+        <v>42616</v>
       </c>
       <c r="DC4" s="16">
         <f t="shared" si="191"/>
-        <v>42615</v>
+        <v>42617</v>
       </c>
       <c r="DD4" s="16">
         <f t="shared" si="191"/>
-        <v>42616</v>
+        <v>42618</v>
       </c>
       <c r="DE4" s="16">
         <f t="shared" si="191"/>
-        <v>42617</v>
+        <v>42619</v>
       </c>
       <c r="DF4" s="16">
         <f t="shared" si="191"/>
-        <v>42618</v>
+        <v>42620</v>
       </c>
       <c r="DG4" s="16">
         <f t="shared" si="191"/>
-        <v>42619</v>
+        <v>42621</v>
       </c>
       <c r="DH4" s="16">
         <f t="shared" si="191"/>
-        <v>42620</v>
+        <v>42622</v>
       </c>
       <c r="DI4" s="16">
         <f t="shared" si="191"/>
-        <v>42621</v>
+        <v>42623</v>
       </c>
       <c r="DJ4" s="16">
         <f t="shared" si="191"/>
-        <v>42622</v>
+        <v>42624</v>
       </c>
       <c r="DK4" s="16">
         <f t="shared" si="191"/>
-        <v>42623</v>
+        <v>42625</v>
       </c>
       <c r="DL4" s="16">
         <f t="shared" si="191"/>
-        <v>42624</v>
+        <v>42626</v>
       </c>
       <c r="DM4" s="16">
         <f t="shared" si="191"/>
-        <v>42625</v>
+        <v>42627</v>
       </c>
       <c r="DN4" s="16">
         <f t="shared" si="191"/>
-        <v>42626</v>
+        <v>42628</v>
       </c>
       <c r="DO4" s="16">
         <f t="shared" si="191"/>
-        <v>42627</v>
+        <v>42629</v>
       </c>
       <c r="DP4" s="16">
         <f t="shared" si="191"/>
-        <v>42628</v>
+        <v>42630</v>
       </c>
       <c r="DQ4" s="16">
         <f t="shared" si="191"/>
-        <v>42629</v>
+        <v>42631</v>
       </c>
       <c r="DR4" s="16">
         <f t="shared" si="191"/>
-        <v>42630</v>
+        <v>42632</v>
       </c>
       <c r="DS4" s="16">
         <f t="shared" si="191"/>
-        <v>42631</v>
+        <v>42633</v>
       </c>
       <c r="DT4" s="16">
         <f t="shared" si="191"/>
-        <v>42632</v>
+        <v>42634</v>
       </c>
       <c r="DU4" s="16">
         <f t="shared" si="191"/>
-        <v>42633</v>
+        <v>42635</v>
       </c>
       <c r="DV4" s="16">
         <f t="shared" si="191"/>
-        <v>42634</v>
+        <v>42636</v>
       </c>
       <c r="DW4" s="16">
         <f t="shared" si="191"/>
-        <v>42635</v>
+        <v>43732</v>
       </c>
       <c r="DX4" s="16">
         <f t="shared" si="191"/>
-        <v>42636</v>
+        <v>43733</v>
       </c>
       <c r="DY4" s="16">
         <f t="shared" si="191"/>
-        <v>43732</v>
+        <v>43734</v>
       </c>
       <c r="DZ4" s="16">
         <f t="shared" si="191"/>
-        <v>43733</v>
+        <v>43735</v>
       </c>
       <c r="EA4" s="16">
         <f t="shared" si="191"/>
-        <v>43734</v>
+        <v>43736</v>
       </c>
       <c r="EB4" s="16">
         <f t="shared" si="191"/>
-        <v>43735</v>
+        <v>43737</v>
       </c>
       <c r="EC4" s="16">
         <f t="shared" si="191"/>
-        <v>43736</v>
+        <v>43738</v>
       </c>
       <c r="ED4" s="16">
         <f t="shared" si="191"/>
-        <v>43737</v>
+        <v>43739</v>
       </c>
       <c r="EE4" s="16">
         <f t="shared" si="191"/>
-        <v>43738</v>
+        <v>43740</v>
       </c>
       <c r="EF4" s="16">
         <f t="shared" si="191"/>
-        <v>43739</v>
+        <v>43741</v>
       </c>
       <c r="EG4" s="16">
         <f t="shared" si="191"/>
-        <v>43740</v>
+        <v>43742</v>
       </c>
       <c r="EH4" s="16">
         <f t="shared" si="191"/>
-        <v>43741</v>
+        <v>43743</v>
       </c>
       <c r="EI4" s="16">
         <f t="shared" si="191"/>
-        <v>43742</v>
+        <v>43744</v>
       </c>
       <c r="EJ4" s="16">
         <f t="shared" si="191"/>
-        <v>43743</v>
+        <v>43745</v>
       </c>
       <c r="EK4" s="16">
         <f t="shared" si="191"/>
-        <v>43744</v>
+        <v>43746</v>
       </c>
       <c r="EL4" s="16">
         <f t="shared" si="191"/>
-        <v>43745</v>
+        <v>43747</v>
       </c>
       <c r="EM4" s="16">
         <f t="shared" si="191"/>
-        <v>43746</v>
+        <v>43748</v>
       </c>
       <c r="EN4" s="16">
         <f t="shared" si="191"/>
-        <v>43747</v>
+        <v>43749</v>
       </c>
       <c r="EO4" s="16">
-        <f t="shared" si="191"/>
-        <v>43748</v>
+        <f t="shared" ref="EO4:GZ4" si="192">EO3</f>
+        <v>43750</v>
       </c>
       <c r="EP4" s="16">
-        <f t="shared" si="191"/>
-        <v>43749</v>
+        <f t="shared" si="192"/>
+        <v>43751</v>
       </c>
       <c r="EQ4" s="16">
-        <f t="shared" ref="EQ4:HB4" si="192">EQ3</f>
-        <v>43750</v>
+        <f t="shared" si="192"/>
+        <v>43752</v>
       </c>
       <c r="ER4" s="16">
         <f t="shared" si="192"/>
-        <v>43751</v>
+        <v>43753</v>
       </c>
       <c r="ES4" s="16">
         <f t="shared" si="192"/>
-        <v>43752</v>
+        <v>43754</v>
       </c>
       <c r="ET4" s="16">
         <f t="shared" si="192"/>
-        <v>43753</v>
+        <v>43755</v>
       </c>
       <c r="EU4" s="16">
         <f t="shared" si="192"/>
-        <v>43754</v>
+        <v>43756</v>
       </c>
       <c r="EV4" s="16">
         <f t="shared" si="192"/>
-        <v>43755</v>
+        <v>43757</v>
       </c>
       <c r="EW4" s="16">
         <f t="shared" si="192"/>
-        <v>43756</v>
+        <v>43758</v>
       </c>
       <c r="EX4" s="16">
         <f t="shared" si="192"/>
-        <v>43757</v>
+        <v>43759</v>
       </c>
       <c r="EY4" s="16">
         <f t="shared" si="192"/>
-        <v>43758</v>
+        <v>43760</v>
       </c>
       <c r="EZ4" s="16">
         <f t="shared" si="192"/>
-        <v>43759</v>
+        <v>43761</v>
       </c>
       <c r="FA4" s="16">
         <f t="shared" si="192"/>
-        <v>43760</v>
+        <v>43762</v>
       </c>
       <c r="FB4" s="16">
         <f t="shared" si="192"/>
-        <v>43761</v>
+        <v>43763</v>
       </c>
       <c r="FC4" s="16">
         <f t="shared" si="192"/>
-        <v>43762</v>
+        <v>43764</v>
       </c>
       <c r="FD4" s="16">
         <f t="shared" si="192"/>
-        <v>43763</v>
+        <v>43765</v>
       </c>
       <c r="FE4" s="16">
         <f t="shared" si="192"/>
-        <v>43764</v>
+        <v>43766</v>
       </c>
       <c r="FF4" s="16">
         <f t="shared" si="192"/>
-        <v>43765</v>
+        <v>43767</v>
       </c>
       <c r="FG4" s="16">
         <f t="shared" si="192"/>
-        <v>43766</v>
+        <v>43768</v>
       </c>
       <c r="FH4" s="16">
         <f t="shared" si="192"/>
-        <v>43767</v>
+        <v>43769</v>
       </c>
       <c r="FI4" s="16">
         <f t="shared" si="192"/>
-        <v>43768</v>
+        <v>43770</v>
       </c>
       <c r="FJ4" s="16">
         <f t="shared" si="192"/>
-        <v>43769</v>
+        <v>43771</v>
       </c>
       <c r="FK4" s="16">
         <f t="shared" si="192"/>
-        <v>43770</v>
+        <v>43772</v>
       </c>
       <c r="FL4" s="16">
         <f t="shared" si="192"/>
-        <v>43771</v>
+        <v>43773</v>
       </c>
       <c r="FM4" s="16">
         <f t="shared" si="192"/>
-        <v>43772</v>
+        <v>43774</v>
       </c>
       <c r="FN4" s="16">
         <f t="shared" si="192"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="FO4" s="16">
         <f t="shared" si="192"/>
-        <v>43774</v>
+        <v>43776</v>
       </c>
       <c r="FP4" s="16">
         <f t="shared" si="192"/>
-        <v>43775</v>
+        <v>43777</v>
       </c>
       <c r="FQ4" s="16">
         <f t="shared" si="192"/>
-        <v>43776</v>
+        <v>43778</v>
       </c>
       <c r="FR4" s="16">
         <f t="shared" si="192"/>
-        <v>43777</v>
+        <v>43779</v>
       </c>
       <c r="FS4" s="16">
         <f t="shared" si="192"/>
-        <v>43778</v>
+        <v>43780</v>
       </c>
       <c r="FT4" s="16">
         <f t="shared" si="192"/>
-        <v>43779</v>
+        <v>43781</v>
       </c>
       <c r="FU4" s="16">
         <f t="shared" si="192"/>
-        <v>43780</v>
+        <v>43782</v>
       </c>
       <c r="FV4" s="16">
         <f t="shared" si="192"/>
-        <v>43781</v>
+        <v>43783</v>
       </c>
       <c r="FW4" s="16">
         <f t="shared" si="192"/>
-        <v>43782</v>
+        <v>43784</v>
       </c>
       <c r="FX4" s="16">
         <f t="shared" si="192"/>
-        <v>43783</v>
+        <v>43785</v>
       </c>
       <c r="FY4" s="16">
         <f t="shared" si="192"/>
-        <v>43784</v>
+        <v>43786</v>
       </c>
       <c r="FZ4" s="16">
         <f t="shared" si="192"/>
-        <v>43785</v>
+        <v>43787</v>
       </c>
       <c r="GA4" s="16">
         <f t="shared" si="192"/>
-        <v>43786</v>
+        <v>43788</v>
       </c>
       <c r="GB4" s="16">
         <f t="shared" si="192"/>
-        <v>43787</v>
+        <v>43789</v>
       </c>
       <c r="GC4" s="16">
         <f t="shared" si="192"/>
-        <v>43788</v>
+        <v>43790</v>
       </c>
       <c r="GD4" s="16">
         <f t="shared" si="192"/>
-        <v>43789</v>
+        <v>43791</v>
       </c>
       <c r="GE4" s="16">
         <f t="shared" si="192"/>
-        <v>43790</v>
+        <v>43792</v>
       </c>
       <c r="GF4" s="16">
         <f t="shared" si="192"/>
-        <v>43791</v>
+        <v>43793</v>
       </c>
       <c r="GG4" s="16">
         <f t="shared" si="192"/>
-        <v>43792</v>
+        <v>43794</v>
       </c>
       <c r="GH4" s="16">
         <f t="shared" si="192"/>
-        <v>43793</v>
+        <v>43795</v>
       </c>
       <c r="GI4" s="16">
         <f t="shared" si="192"/>
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="GJ4" s="16">
         <f t="shared" si="192"/>
-        <v>43795</v>
+        <v>43797</v>
       </c>
       <c r="GK4" s="16">
         <f t="shared" si="192"/>
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="GL4" s="16">
         <f t="shared" si="192"/>
-        <v>43797</v>
+        <v>43799</v>
       </c>
       <c r="GM4" s="16">
         <f t="shared" si="192"/>
-        <v>43798</v>
+        <v>43800</v>
       </c>
       <c r="GN4" s="16">
         <f t="shared" si="192"/>
-        <v>43799</v>
+        <v>43801</v>
       </c>
       <c r="GO4" s="16">
         <f t="shared" si="192"/>
-        <v>43800</v>
+        <v>43802</v>
       </c>
       <c r="GP4" s="16">
         <f t="shared" si="192"/>
-        <v>43801</v>
+        <v>43803</v>
       </c>
       <c r="GQ4" s="16">
         <f t="shared" si="192"/>
-        <v>43802</v>
+        <v>43804</v>
       </c>
       <c r="GR4" s="16">
         <f t="shared" si="192"/>
-        <v>43803</v>
+        <v>43805</v>
       </c>
       <c r="GS4" s="16">
         <f t="shared" si="192"/>
-        <v>43804</v>
+        <v>43806</v>
       </c>
       <c r="GT4" s="16">
         <f t="shared" si="192"/>
-        <v>43805</v>
+        <v>43807</v>
       </c>
       <c r="GU4" s="16">
         <f t="shared" si="192"/>
-        <v>43806</v>
+        <v>43808</v>
       </c>
       <c r="GV4" s="16">
         <f t="shared" si="192"/>
-        <v>43807</v>
+        <v>43809</v>
       </c>
       <c r="GW4" s="16">
         <f t="shared" si="192"/>
-        <v>43808</v>
+        <v>43810</v>
       </c>
       <c r="GX4" s="16">
         <f t="shared" si="192"/>
-        <v>43809</v>
+        <v>43811</v>
       </c>
       <c r="GY4" s="16">
         <f t="shared" si="192"/>
-        <v>43810</v>
+        <v>43812</v>
       </c>
       <c r="GZ4" s="16">
         <f t="shared" si="192"/>
-        <v>43811</v>
+        <v>43813</v>
       </c>
       <c r="HA4" s="16">
-        <f t="shared" si="192"/>
-        <v>43812</v>
+        <f t="shared" ref="HA4:HQ4" si="193">HA3</f>
+        <v>43814</v>
       </c>
       <c r="HB4" s="16">
-        <f t="shared" si="192"/>
-        <v>43813</v>
+        <f t="shared" si="193"/>
+        <v>43815</v>
       </c>
       <c r="HC4" s="16">
-        <f t="shared" ref="HC4:HS4" si="193">HC3</f>
-        <v>43814</v>
+        <f t="shared" si="193"/>
+        <v>43816</v>
       </c>
       <c r="HD4" s="16">
         <f t="shared" si="193"/>
-        <v>43815</v>
+        <v>43817</v>
       </c>
       <c r="HE4" s="16">
         <f t="shared" si="193"/>
-        <v>43816</v>
+        <v>43818</v>
       </c>
       <c r="HF4" s="16">
         <f t="shared" si="193"/>
-        <v>43817</v>
+        <v>43819</v>
       </c>
       <c r="HG4" s="16">
         <f t="shared" si="193"/>
-        <v>43818</v>
+        <v>43820</v>
       </c>
       <c r="HH4" s="16">
         <f t="shared" si="193"/>
-        <v>43819</v>
+        <v>43821</v>
       </c>
       <c r="HI4" s="16">
         <f t="shared" si="193"/>
-        <v>43820</v>
+        <v>43822</v>
       </c>
       <c r="HJ4" s="16">
         <f t="shared" si="193"/>
-        <v>43821</v>
+        <v>43823</v>
       </c>
       <c r="HK4" s="16">
         <f t="shared" si="193"/>
-        <v>43822</v>
+        <v>43824</v>
       </c>
       <c r="HL4" s="16">
         <f t="shared" si="193"/>
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="HM4" s="16">
         <f t="shared" si="193"/>
-        <v>43824</v>
+        <v>43826</v>
       </c>
       <c r="HN4" s="16">
         <f t="shared" si="193"/>
-        <v>43825</v>
+        <v>43827</v>
       </c>
       <c r="HO4" s="16">
         <f t="shared" si="193"/>
-        <v>43826</v>
+        <v>43828</v>
       </c>
       <c r="HP4" s="16">
         <f t="shared" si="193"/>
-        <v>43827</v>
+        <v>43829</v>
       </c>
       <c r="HQ4" s="16">
         <f t="shared" si="193"/>
-        <v>43828</v>
-      </c>
-      <c r="HR4" s="16">
-        <f t="shared" si="193"/>
-        <v>43829</v>
-      </c>
-      <c r="HS4" s="16">
-        <f t="shared" si="193"/>
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -5513,11 +4906,11 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -5730,10 +5123,8 @@
       <c r="HO5" s="11"/>
       <c r="HP5" s="11"/>
       <c r="HQ5" s="11"/>
-      <c r="HR5" s="11"/>
-      <c r="HS5" s="11"/>
     </row>
-    <row r="6" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
@@ -5742,11 +5133,11 @@
       <c r="F6" s="28"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5959,10 +5350,8 @@
       <c r="HO6" s="11"/>
       <c r="HP6" s="11"/>
       <c r="HQ6" s="11"/>
-      <c r="HR6" s="11"/>
-      <c r="HS6" s="11"/>
     </row>
-    <row r="7" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -5971,11 +5360,11 @@
       <c r="F7" s="28"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6188,31 +5577,33 @@
       <c r="HO7" s="11"/>
       <c r="HP7" s="11"/>
       <c r="HQ7" s="11"/>
-      <c r="HR7" s="11"/>
-      <c r="HS7" s="11"/>
     </row>
-    <row r="8" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G8" s="22">
         <v>43736</v>
       </c>
       <c r="H8" s="22">
-        <v>43739</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+        <v>43746</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -6425,29 +5816,31 @@
       <c r="HO8" s="11"/>
       <c r="HP8" s="11"/>
       <c r="HQ8" s="11"/>
-      <c r="HR8" s="11"/>
-      <c r="HS8" s="11"/>
     </row>
-    <row r="9" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G9" s="22">
-        <v>43737</v>
+        <v>43735</v>
       </c>
       <c r="H9" s="22">
-        <v>43742</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+        <v>43749</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -6660,31 +6053,33 @@
       <c r="HO9" s="11"/>
       <c r="HP9" s="11"/>
       <c r="HQ9" s="11"/>
-      <c r="HR9" s="11"/>
-      <c r="HS9" s="11"/>
     </row>
-    <row r="10" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G10" s="22">
         <v>43736</v>
       </c>
       <c r="H10" s="22">
-        <v>43739</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
+        <v>43746</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -6897,29 +6292,31 @@
       <c r="HO10" s="11"/>
       <c r="HP10" s="11"/>
       <c r="HQ10" s="11"/>
-      <c r="HR10" s="11"/>
-      <c r="HS10" s="11"/>
     </row>
-    <row r="11" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="50"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G11" s="22">
-        <v>43737</v>
+        <v>43739</v>
       </c>
       <c r="H11" s="22">
-        <v>43742</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+        <v>43749</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -7132,31 +6529,33 @@
       <c r="HO11" s="11"/>
       <c r="HP11" s="11"/>
       <c r="HQ11" s="11"/>
-      <c r="HR11" s="11"/>
-      <c r="HS11" s="11"/>
     </row>
-    <row r="12" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G12" s="22">
         <v>43742</v>
       </c>
       <c r="H12" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+        <v>43749</v>
+      </c>
+      <c r="I12" s="30">
+        <v>1</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -7369,29 +6768,31 @@
       <c r="HO12" s="11"/>
       <c r="HP12" s="11"/>
       <c r="HQ12" s="11"/>
-      <c r="HR12" s="11"/>
-      <c r="HS12" s="11"/>
     </row>
-    <row r="13" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G13" s="22">
         <v>43742</v>
       </c>
       <c r="H13" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
+        <v>43749</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -7604,31 +7005,29 @@
       <c r="HO13" s="11"/>
       <c r="HP13" s="11"/>
       <c r="HQ13" s="11"/>
-      <c r="HR13" s="11"/>
-      <c r="HS13" s="11"/>
     </row>
-    <row r="14" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="22">
-        <v>43742</v>
-      </c>
-      <c r="H14" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -7841,29 +7240,27 @@
       <c r="HO14" s="11"/>
       <c r="HP14" s="11"/>
       <c r="HQ14" s="11"/>
-      <c r="HR14" s="11"/>
-      <c r="HS14" s="11"/>
     </row>
-    <row r="15" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="50"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="22">
-        <v>43742</v>
-      </c>
-      <c r="H15" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -8076,31 +7473,29 @@
       <c r="HO15" s="11"/>
       <c r="HP15" s="11"/>
       <c r="HQ15" s="11"/>
-      <c r="HR15" s="11"/>
-      <c r="HS15" s="11"/>
     </row>
-    <row r="16" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="22">
-        <v>43742</v>
-      </c>
-      <c r="H16" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -8313,29 +7708,27 @@
       <c r="HO16" s="11"/>
       <c r="HP16" s="11"/>
       <c r="HQ16" s="11"/>
-      <c r="HR16" s="11"/>
-      <c r="HS16" s="11"/>
     </row>
-    <row r="17" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="22">
-        <v>43742</v>
-      </c>
-      <c r="H17" s="22">
-        <v>43753</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -8548,31 +7941,29 @@
       <c r="HO17" s="11"/>
       <c r="HP17" s="11"/>
       <c r="HQ17" s="11"/>
-      <c r="HR17" s="11"/>
-      <c r="HS17" s="11"/>
     </row>
-    <row r="18" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="49"/>
+      <c r="C18" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="22">
-        <v>43746</v>
-      </c>
-      <c r="H18" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -8785,29 +8176,27 @@
       <c r="HO18" s="11"/>
       <c r="HP18" s="11"/>
       <c r="HQ18" s="11"/>
-      <c r="HR18" s="11"/>
-      <c r="HS18" s="11"/>
     </row>
-    <row r="19" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="50"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="22">
-        <v>43746</v>
-      </c>
-      <c r="H19" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -9020,31 +8409,29 @@
       <c r="HO19" s="11"/>
       <c r="HP19" s="11"/>
       <c r="HQ19" s="11"/>
-      <c r="HR19" s="11"/>
-      <c r="HS19" s="11"/>
     </row>
-    <row r="20" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="49"/>
+      <c r="C20" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="22">
-        <v>43739</v>
-      </c>
-      <c r="H20" s="22">
-        <v>43739</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -9257,29 +8644,27 @@
       <c r="HO20" s="11"/>
       <c r="HP20" s="11"/>
       <c r="HQ20" s="11"/>
-      <c r="HR20" s="11"/>
-      <c r="HS20" s="11"/>
     </row>
-    <row r="21" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="50"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="22">
-        <v>43739</v>
-      </c>
-      <c r="H21" s="22">
-        <v>43739</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -9492,31 +8877,29 @@
       <c r="HO21" s="11"/>
       <c r="HP21" s="11"/>
       <c r="HQ21" s="11"/>
-      <c r="HR21" s="11"/>
-      <c r="HS21" s="11"/>
     </row>
-    <row r="22" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:225" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="22">
-        <v>43746</v>
-      </c>
-      <c r="H22" s="22">
-        <v>43753</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -9729,29 +9112,27 @@
       <c r="HO22" s="11"/>
       <c r="HP22" s="11"/>
       <c r="HQ22" s="11"/>
-      <c r="HR22" s="11"/>
-      <c r="HS22" s="11"/>
     </row>
-    <row r="23" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="50"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="22">
-        <v>43746</v>
-      </c>
-      <c r="H23" s="22">
-        <v>43749</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -9964,10 +9345,8 @@
       <c r="HO23" s="11"/>
       <c r="HP23" s="11"/>
       <c r="HQ23" s="11"/>
-      <c r="HR23" s="11"/>
-      <c r="HS23" s="11"/>
     </row>
-    <row r="24" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
@@ -9976,11 +9355,11 @@
       <c r="F24" s="28"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
@@ -10193,31 +9572,29 @@
       <c r="HO24" s="11"/>
       <c r="HP24" s="11"/>
       <c r="HQ24" s="11"/>
-      <c r="HR24" s="11"/>
-      <c r="HS24" s="11"/>
     </row>
-    <row r="25" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="49"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="22">
-        <v>43736</v>
-      </c>
-      <c r="H25" s="22">
-        <v>43774</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -10430,27 +9807,27 @@
       <c r="HO25" s="11"/>
       <c r="HP25" s="11"/>
       <c r="HQ25" s="11"/>
-      <c r="HR25" s="11"/>
-      <c r="HS25" s="11"/>
     </row>
-    <row r="26" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="50"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="22">
-        <v>43736</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -10663,31 +10040,29 @@
       <c r="HO26" s="11"/>
       <c r="HP26" s="11"/>
       <c r="HQ26" s="11"/>
-      <c r="HR26" s="11"/>
-      <c r="HS26" s="11"/>
     </row>
-    <row r="27" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="22">
-        <v>43753</v>
-      </c>
-      <c r="H27" s="22">
-        <v>43777</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -10900,25 +10275,27 @@
       <c r="HO27" s="11"/>
       <c r="HP27" s="11"/>
       <c r="HQ27" s="11"/>
-      <c r="HR27" s="11"/>
-      <c r="HS27" s="11"/>
     </row>
-    <row r="28" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -11131,31 +10508,29 @@
       <c r="HO28" s="11"/>
       <c r="HP28" s="11"/>
       <c r="HQ28" s="11"/>
-      <c r="HR28" s="11"/>
-      <c r="HS28" s="11"/>
     </row>
-    <row r="29" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="49"/>
+      <c r="C29" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="22">
-        <v>43753</v>
-      </c>
-      <c r="H29" s="22">
-        <v>43777</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -11368,25 +10743,27 @@
       <c r="HO29" s="11"/>
       <c r="HP29" s="11"/>
       <c r="HQ29" s="11"/>
-      <c r="HR29" s="11"/>
-      <c r="HS29" s="11"/>
     </row>
-    <row r="30" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="50"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -11599,31 +10976,29 @@
       <c r="HO30" s="11"/>
       <c r="HP30" s="11"/>
       <c r="HQ30" s="11"/>
-      <c r="HR30" s="11"/>
-      <c r="HS30" s="11"/>
     </row>
-    <row r="31" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="49"/>
+      <c r="C31" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="22">
-        <v>43777</v>
-      </c>
-      <c r="H31" s="22">
-        <v>43791</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -11836,25 +11211,27 @@
       <c r="HO31" s="11"/>
       <c r="HP31" s="11"/>
       <c r="HQ31" s="11"/>
-      <c r="HR31" s="11"/>
-      <c r="HS31" s="11"/>
     </row>
-    <row r="32" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="50"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
@@ -12067,31 +11444,29 @@
       <c r="HO32" s="11"/>
       <c r="HP32" s="11"/>
       <c r="HQ32" s="11"/>
-      <c r="HR32" s="11"/>
-      <c r="HS32" s="11"/>
     </row>
-    <row r="33" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="49"/>
+      <c r="C33" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="22">
-        <v>43791</v>
-      </c>
-      <c r="H33" s="22">
-        <v>43805</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
@@ -12304,25 +11679,27 @@
       <c r="HO33" s="11"/>
       <c r="HP33" s="11"/>
       <c r="HQ33" s="11"/>
-      <c r="HR33" s="11"/>
-      <c r="HS33" s="11"/>
     </row>
-    <row r="34" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="50"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
@@ -12535,31 +11912,29 @@
       <c r="HO34" s="11"/>
       <c r="HP34" s="11"/>
       <c r="HQ34" s="11"/>
-      <c r="HR34" s="11"/>
-      <c r="HS34" s="11"/>
     </row>
-    <row r="35" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="49"/>
+      <c r="C35" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="22">
-        <v>43805</v>
-      </c>
-      <c r="H35" s="22">
-        <v>43805</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
@@ -12772,25 +12147,27 @@
       <c r="HO35" s="11"/>
       <c r="HP35" s="11"/>
       <c r="HQ35" s="11"/>
-      <c r="HR35" s="11"/>
-      <c r="HS35" s="11"/>
     </row>
-    <row r="36" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="50"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
@@ -13003,31 +12380,29 @@
       <c r="HO36" s="11"/>
       <c r="HP36" s="11"/>
       <c r="HQ36" s="11"/>
-      <c r="HR36" s="11"/>
-      <c r="HS36" s="11"/>
     </row>
-    <row r="37" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="49"/>
+      <c r="C37" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="22">
-        <v>43805</v>
-      </c>
-      <c r="H37" s="22">
-        <v>43812</v>
-      </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
@@ -13240,25 +12615,27 @@
       <c r="HO37" s="11"/>
       <c r="HP37" s="11"/>
       <c r="HQ37" s="11"/>
-      <c r="HR37" s="11"/>
-      <c r="HS37" s="11"/>
     </row>
-    <row r="38" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="50"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
@@ -13471,31 +12848,29 @@
       <c r="HO38" s="11"/>
       <c r="HP38" s="11"/>
       <c r="HQ38" s="11"/>
-      <c r="HR38" s="11"/>
-      <c r="HS38" s="11"/>
     </row>
-    <row r="39" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="49"/>
+      <c r="C39" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="22">
-        <v>43812</v>
-      </c>
-      <c r="H39" s="22">
-        <v>43819</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
@@ -13708,25 +13083,27 @@
       <c r="HO39" s="11"/>
       <c r="HP39" s="11"/>
       <c r="HQ39" s="11"/>
-      <c r="HR39" s="11"/>
-      <c r="HS39" s="11"/>
     </row>
-    <row r="40" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="50"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -13939,23 +13316,29 @@
       <c r="HO40" s="11"/>
       <c r="HP40" s="11"/>
       <c r="HQ40" s="11"/>
-      <c r="HR40" s="11"/>
-      <c r="HS40" s="11"/>
     </row>
-    <row r="41" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
+      <c r="C41" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
@@ -14168,23 +13551,27 @@
       <c r="HO41" s="11"/>
       <c r="HP41" s="11"/>
       <c r="HQ41" s="11"/>
-      <c r="HR41" s="11"/>
-      <c r="HS41" s="11"/>
     </row>
-    <row r="42" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -14397,23 +13784,29 @@
       <c r="HO42" s="11"/>
       <c r="HP42" s="11"/>
       <c r="HQ42" s="11"/>
-      <c r="HR42" s="11"/>
-      <c r="HS42" s="11"/>
     </row>
-    <row r="43" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
+      <c r="C43" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -14626,23 +14019,27 @@
       <c r="HO43" s="11"/>
       <c r="HP43" s="11"/>
       <c r="HQ43" s="11"/>
-      <c r="HR43" s="11"/>
-      <c r="HS43" s="11"/>
     </row>
-    <row r="44" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -14855,23 +14252,29 @@
       <c r="HO44" s="11"/>
       <c r="HP44" s="11"/>
       <c r="HQ44" s="11"/>
-      <c r="HR44" s="11"/>
-      <c r="HS44" s="11"/>
     </row>
-    <row r="45" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
+      <c r="C45" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -15084,23 +14487,27 @@
       <c r="HO45" s="11"/>
       <c r="HP45" s="11"/>
       <c r="HQ45" s="11"/>
-      <c r="HR45" s="11"/>
-      <c r="HS45" s="11"/>
     </row>
-    <row r="46" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="25"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="30"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -15313,23 +14720,29 @@
       <c r="HO46" s="11"/>
       <c r="HP46" s="11"/>
       <c r="HQ46" s="11"/>
-      <c r="HR46" s="11"/>
-      <c r="HS46" s="11"/>
     </row>
-    <row r="47" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="25"/>
+      <c r="C47" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -15542,23 +14955,27 @@
       <c r="HO47" s="11"/>
       <c r="HP47" s="11"/>
       <c r="HQ47" s="11"/>
-      <c r="HR47" s="11"/>
-      <c r="HS47" s="11"/>
     </row>
-    <row r="48" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="25"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -15771,10 +15188,8 @@
       <c r="HO48" s="11"/>
       <c r="HP48" s="11"/>
       <c r="HQ48" s="11"/>
-      <c r="HR48" s="11"/>
-      <c r="HS48" s="11"/>
     </row>
-    <row r="49" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" s="26"/>
       <c r="C49" s="20"/>
@@ -15783,11 +15198,11 @@
       <c r="F49" s="28"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="25"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -16000,10 +15415,8 @@
       <c r="HO49" s="11"/>
       <c r="HP49" s="11"/>
       <c r="HQ49" s="11"/>
-      <c r="HR49" s="11"/>
-      <c r="HS49" s="11"/>
     </row>
-    <row r="50" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="26"/>
       <c r="C50" s="20"/>
@@ -16012,11 +15425,11 @@
       <c r="F50" s="28"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="25"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -16229,10 +15642,8 @@
       <c r="HO50" s="11"/>
       <c r="HP50" s="11"/>
       <c r="HQ50" s="11"/>
-      <c r="HR50" s="11"/>
-      <c r="HS50" s="11"/>
     </row>
-    <row r="51" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
@@ -16241,11 +15652,11 @@
       <c r="F51" s="28"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="25"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -16458,10 +15869,8 @@
       <c r="HO51" s="11"/>
       <c r="HP51" s="11"/>
       <c r="HQ51" s="11"/>
-      <c r="HR51" s="11"/>
-      <c r="HS51" s="11"/>
     </row>
-    <row r="52" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
@@ -16470,11 +15879,11 @@
       <c r="F52" s="28"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="25"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -16687,10 +16096,8 @@
       <c r="HO52" s="11"/>
       <c r="HP52" s="11"/>
       <c r="HQ52" s="11"/>
-      <c r="HR52" s="11"/>
-      <c r="HS52" s="11"/>
     </row>
-    <row r="53" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
@@ -16699,11 +16106,11 @@
       <c r="F53" s="28"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="25"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -16916,10 +16323,8 @@
       <c r="HO53" s="11"/>
       <c r="HP53" s="11"/>
       <c r="HQ53" s="11"/>
-      <c r="HR53" s="11"/>
-      <c r="HS53" s="11"/>
     </row>
-    <row r="54" spans="1:227" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
@@ -16928,11 +16333,11 @@
       <c r="F54" s="28"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="25"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -17145,10 +16550,8 @@
       <c r="HO54" s="11"/>
       <c r="HP54" s="11"/>
       <c r="HQ54" s="11"/>
-      <c r="HR54" s="11"/>
-      <c r="HS54" s="11"/>
     </row>
-    <row r="55" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" s="31"/>
       <c r="C55" s="32"/>
@@ -17157,11 +16560,11 @@
       <c r="F55" s="33"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="37"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -17374,10 +16777,8 @@
       <c r="HO55" s="5"/>
       <c r="HP55" s="5"/>
       <c r="HQ55" s="5"/>
-      <c r="HR55" s="5"/>
-      <c r="HS55" s="5"/>
     </row>
-    <row r="56" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="31"/>
       <c r="C56" s="32"/>
@@ -17386,11 +16787,11 @@
       <c r="F56" s="33"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="37"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -17603,10 +17004,8 @@
       <c r="HO56" s="5"/>
       <c r="HP56" s="5"/>
       <c r="HQ56" s="5"/>
-      <c r="HR56" s="5"/>
-      <c r="HS56" s="5"/>
     </row>
-    <row r="57" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
@@ -17615,11 +17014,11 @@
       <c r="F57" s="33"/>
       <c r="G57" s="34"/>
       <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="37"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -17832,10 +17231,8 @@
       <c r="HO57" s="5"/>
       <c r="HP57" s="5"/>
       <c r="HQ57" s="5"/>
-      <c r="HR57" s="5"/>
-      <c r="HS57" s="5"/>
     </row>
-    <row r="58" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" s="31"/>
       <c r="C58" s="32"/>
@@ -17844,11 +17241,11 @@
       <c r="F58" s="33"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="37"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -18061,10 +17458,8 @@
       <c r="HO58" s="5"/>
       <c r="HP58" s="5"/>
       <c r="HQ58" s="5"/>
-      <c r="HR58" s="5"/>
-      <c r="HS58" s="5"/>
     </row>
-    <row r="59" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59" s="31"/>
       <c r="C59" s="32"/>
@@ -18073,11 +17468,11 @@
       <c r="F59" s="33"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="37"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
@@ -18290,10 +17685,8 @@
       <c r="HO59" s="5"/>
       <c r="HP59" s="5"/>
       <c r="HQ59" s="5"/>
-      <c r="HR59" s="5"/>
-      <c r="HS59" s="5"/>
     </row>
-    <row r="60" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" s="31"/>
       <c r="C60" s="32"/>
@@ -18302,11 +17695,11 @@
       <c r="F60" s="33"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="37"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
@@ -18519,10 +17912,8 @@
       <c r="HO60" s="5"/>
       <c r="HP60" s="5"/>
       <c r="HQ60" s="5"/>
-      <c r="HR60" s="5"/>
-      <c r="HS60" s="5"/>
     </row>
-    <row r="61" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" s="31"/>
       <c r="C61" s="32"/>
@@ -18531,11 +17922,11 @@
       <c r="F61" s="33"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="37"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
@@ -18748,10 +18139,8 @@
       <c r="HO61" s="5"/>
       <c r="HP61" s="5"/>
       <c r="HQ61" s="5"/>
-      <c r="HR61" s="5"/>
-      <c r="HS61" s="5"/>
     </row>
-    <row r="62" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="31"/>
       <c r="C62" s="32"/>
@@ -18760,11 +18149,11 @@
       <c r="F62" s="33"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="37"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -18977,10 +18366,8 @@
       <c r="HO62" s="5"/>
       <c r="HP62" s="5"/>
       <c r="HQ62" s="5"/>
-      <c r="HR62" s="5"/>
-      <c r="HS62" s="5"/>
     </row>
-    <row r="63" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
@@ -18989,11 +18376,11 @@
       <c r="F63" s="33"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="37"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -19206,10 +18593,8 @@
       <c r="HO63" s="5"/>
       <c r="HP63" s="5"/>
       <c r="HQ63" s="5"/>
-      <c r="HR63" s="5"/>
-      <c r="HS63" s="5"/>
     </row>
-    <row r="64" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64" s="31"/>
       <c r="C64" s="32"/>
@@ -19218,11 +18603,11 @@
       <c r="F64" s="33"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="37"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
@@ -19435,10 +18820,8 @@
       <c r="HO64" s="5"/>
       <c r="HP64" s="5"/>
       <c r="HQ64" s="5"/>
-      <c r="HR64" s="5"/>
-      <c r="HS64" s="5"/>
     </row>
-    <row r="65" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="31"/>
       <c r="C65" s="32"/>
@@ -19447,11 +18830,11 @@
       <c r="F65" s="33"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="37"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
@@ -19664,10 +19047,8 @@
       <c r="HO65" s="5"/>
       <c r="HP65" s="5"/>
       <c r="HQ65" s="5"/>
-      <c r="HR65" s="5"/>
-      <c r="HS65" s="5"/>
     </row>
-    <row r="66" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="31"/>
       <c r="C66" s="32"/>
@@ -19676,11 +19057,11 @@
       <c r="F66" s="33"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="37"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
@@ -19893,10 +19274,8 @@
       <c r="HO66" s="5"/>
       <c r="HP66" s="5"/>
       <c r="HQ66" s="5"/>
-      <c r="HR66" s="5"/>
-      <c r="HS66" s="5"/>
     </row>
-    <row r="67" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
@@ -19905,11 +19284,11 @@
       <c r="F67" s="33"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="37"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
@@ -20122,10 +19501,8 @@
       <c r="HO67" s="5"/>
       <c r="HP67" s="5"/>
       <c r="HQ67" s="5"/>
-      <c r="HR67" s="5"/>
-      <c r="HS67" s="5"/>
     </row>
-    <row r="68" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" s="31"/>
       <c r="C68" s="32"/>
@@ -20134,11 +19511,11 @@
       <c r="F68" s="33"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="37"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
@@ -20351,10 +19728,8 @@
       <c r="HO68" s="5"/>
       <c r="HP68" s="5"/>
       <c r="HQ68" s="5"/>
-      <c r="HR68" s="5"/>
-      <c r="HS68" s="5"/>
     </row>
-    <row r="69" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" s="31"/>
       <c r="C69" s="32"/>
@@ -20363,11 +19738,11 @@
       <c r="F69" s="33"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="37"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
@@ -20580,10 +19955,8 @@
       <c r="HO69" s="5"/>
       <c r="HP69" s="5"/>
       <c r="HQ69" s="5"/>
-      <c r="HR69" s="5"/>
-      <c r="HS69" s="5"/>
     </row>
-    <row r="70" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="31"/>
       <c r="C70" s="32"/>
@@ -20592,11 +19965,11 @@
       <c r="F70" s="33"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="37"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
@@ -20809,10 +20182,8 @@
       <c r="HO70" s="5"/>
       <c r="HP70" s="5"/>
       <c r="HQ70" s="5"/>
-      <c r="HR70" s="5"/>
-      <c r="HS70" s="5"/>
     </row>
-    <row r="71" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="31"/>
       <c r="C71" s="32"/>
@@ -20821,11 +20192,11 @@
       <c r="F71" s="33"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="37"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
@@ -21038,10 +20409,8 @@
       <c r="HO71" s="5"/>
       <c r="HP71" s="5"/>
       <c r="HQ71" s="5"/>
-      <c r="HR71" s="5"/>
-      <c r="HS71" s="5"/>
     </row>
-    <row r="72" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" s="31"/>
       <c r="C72" s="32"/>
@@ -21050,11 +20419,11 @@
       <c r="F72" s="33"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="37"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -21267,10 +20636,8 @@
       <c r="HO72" s="5"/>
       <c r="HP72" s="5"/>
       <c r="HQ72" s="5"/>
-      <c r="HR72" s="5"/>
-      <c r="HS72" s="5"/>
     </row>
-    <row r="73" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" s="31"/>
       <c r="C73" s="32"/>
@@ -21279,11 +20646,11 @@
       <c r="F73" s="33"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="37"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
@@ -21496,10 +20863,8 @@
       <c r="HO73" s="5"/>
       <c r="HP73" s="5"/>
       <c r="HQ73" s="5"/>
-      <c r="HR73" s="5"/>
-      <c r="HS73" s="5"/>
     </row>
-    <row r="74" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" s="31"/>
       <c r="C74" s="32"/>
@@ -21508,11 +20873,11 @@
       <c r="F74" s="33"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="37"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -21725,10 +21090,8 @@
       <c r="HO74" s="5"/>
       <c r="HP74" s="5"/>
       <c r="HQ74" s="5"/>
-      <c r="HR74" s="5"/>
-      <c r="HS74" s="5"/>
     </row>
-    <row r="75" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="31"/>
       <c r="C75" s="32"/>
@@ -21737,11 +21100,11 @@
       <c r="F75" s="33"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="37"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -21954,10 +21317,8 @@
       <c r="HO75" s="5"/>
       <c r="HP75" s="5"/>
       <c r="HQ75" s="5"/>
-      <c r="HR75" s="5"/>
-      <c r="HS75" s="5"/>
     </row>
-    <row r="76" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="31"/>
       <c r="C76" s="32"/>
@@ -21966,11 +21327,11 @@
       <c r="F76" s="33"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="37"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
@@ -22183,10 +21544,8 @@
       <c r="HO76" s="5"/>
       <c r="HP76" s="5"/>
       <c r="HQ76" s="5"/>
-      <c r="HR76" s="5"/>
-      <c r="HS76" s="5"/>
     </row>
-    <row r="77" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" s="31"/>
       <c r="C77" s="32"/>
@@ -22195,11 +21554,11 @@
       <c r="F77" s="33"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="37"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
@@ -22412,10 +21771,8 @@
       <c r="HO77" s="5"/>
       <c r="HP77" s="5"/>
       <c r="HQ77" s="5"/>
-      <c r="HR77" s="5"/>
-      <c r="HS77" s="5"/>
     </row>
-    <row r="78" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" s="31"/>
       <c r="C78" s="32"/>
@@ -22424,11 +21781,11 @@
       <c r="F78" s="33"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="37"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
@@ -22641,10 +21998,8 @@
       <c r="HO78" s="5"/>
       <c r="HP78" s="5"/>
       <c r="HQ78" s="5"/>
-      <c r="HR78" s="5"/>
-      <c r="HS78" s="5"/>
     </row>
-    <row r="79" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="31"/>
       <c r="C79" s="32"/>
@@ -22653,11 +22008,11 @@
       <c r="F79" s="33"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="37"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -22870,10 +22225,8 @@
       <c r="HO79" s="5"/>
       <c r="HP79" s="5"/>
       <c r="HQ79" s="5"/>
-      <c r="HR79" s="5"/>
-      <c r="HS79" s="5"/>
     </row>
-    <row r="80" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" s="31"/>
       <c r="C80" s="32"/>
@@ -22882,11 +22235,11 @@
       <c r="F80" s="33"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="37"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
@@ -23099,10 +22452,8 @@
       <c r="HO80" s="5"/>
       <c r="HP80" s="5"/>
       <c r="HQ80" s="5"/>
-      <c r="HR80" s="5"/>
-      <c r="HS80" s="5"/>
     </row>
-    <row r="81" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81" s="31"/>
       <c r="C81" s="32"/>
@@ -23111,11 +22462,11 @@
       <c r="F81" s="33"/>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="37"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
@@ -23328,10 +22679,8 @@
       <c r="HO81" s="5"/>
       <c r="HP81" s="5"/>
       <c r="HQ81" s="5"/>
-      <c r="HR81" s="5"/>
-      <c r="HS81" s="5"/>
     </row>
-    <row r="82" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
@@ -23340,11 +22689,11 @@
       <c r="F82" s="33"/>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="37"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -23557,10 +22906,8 @@
       <c r="HO82" s="5"/>
       <c r="HP82" s="5"/>
       <c r="HQ82" s="5"/>
-      <c r="HR82" s="5"/>
-      <c r="HS82" s="5"/>
     </row>
-    <row r="83" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
@@ -23569,11 +22916,11 @@
       <c r="F83" s="33"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="37"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -23786,10 +23133,8 @@
       <c r="HO83" s="5"/>
       <c r="HP83" s="5"/>
       <c r="HQ83" s="5"/>
-      <c r="HR83" s="5"/>
-      <c r="HS83" s="5"/>
     </row>
-    <row r="84" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
@@ -23798,11 +23143,11 @@
       <c r="F84" s="33"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="37"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
@@ -24015,10 +23360,8 @@
       <c r="HO84" s="5"/>
       <c r="HP84" s="5"/>
       <c r="HQ84" s="5"/>
-      <c r="HR84" s="5"/>
-      <c r="HS84" s="5"/>
     </row>
-    <row r="85" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
@@ -24027,11 +23370,11 @@
       <c r="F85" s="33"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="37"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
@@ -24244,10 +23587,8 @@
       <c r="HO85" s="5"/>
       <c r="HP85" s="5"/>
       <c r="HQ85" s="5"/>
-      <c r="HR85" s="5"/>
-      <c r="HS85" s="5"/>
     </row>
-    <row r="86" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
@@ -24256,11 +23597,11 @@
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="37"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
@@ -24473,10 +23814,8 @@
       <c r="HO86" s="5"/>
       <c r="HP86" s="5"/>
       <c r="HQ86" s="5"/>
-      <c r="HR86" s="5"/>
-      <c r="HS86" s="5"/>
     </row>
-    <row r="87" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="31"/>
       <c r="C87" s="32"/>
@@ -24485,11 +23824,11 @@
       <c r="F87" s="33"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="37"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
@@ -24702,10 +24041,8 @@
       <c r="HO87" s="5"/>
       <c r="HP87" s="5"/>
       <c r="HQ87" s="5"/>
-      <c r="HR87" s="5"/>
-      <c r="HS87" s="5"/>
     </row>
-    <row r="88" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" s="31"/>
       <c r="C88" s="32"/>
@@ -24714,11 +24051,11 @@
       <c r="F88" s="33"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="37"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
@@ -24931,10 +24268,8 @@
       <c r="HO88" s="5"/>
       <c r="HP88" s="5"/>
       <c r="HQ88" s="5"/>
-      <c r="HR88" s="5"/>
-      <c r="HS88" s="5"/>
     </row>
-    <row r="89" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="31"/>
       <c r="C89" s="32"/>
@@ -24943,11 +24278,11 @@
       <c r="F89" s="33"/>
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="37"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
@@ -25160,10 +24495,8 @@
       <c r="HO89" s="5"/>
       <c r="HP89" s="5"/>
       <c r="HQ89" s="5"/>
-      <c r="HR89" s="5"/>
-      <c r="HS89" s="5"/>
     </row>
-    <row r="90" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90" s="31"/>
       <c r="C90" s="32"/>
@@ -25172,11 +24505,11 @@
       <c r="F90" s="33"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="37"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
@@ -25389,10 +24722,8 @@
       <c r="HO90" s="5"/>
       <c r="HP90" s="5"/>
       <c r="HQ90" s="5"/>
-      <c r="HR90" s="5"/>
-      <c r="HS90" s="5"/>
     </row>
-    <row r="91" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91" s="31"/>
       <c r="C91" s="32"/>
@@ -25401,11 +24732,11 @@
       <c r="F91" s="33"/>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="37"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
@@ -25618,10 +24949,8 @@
       <c r="HO91" s="5"/>
       <c r="HP91" s="5"/>
       <c r="HQ91" s="5"/>
-      <c r="HR91" s="5"/>
-      <c r="HS91" s="5"/>
     </row>
-    <row r="92" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" s="31"/>
       <c r="C92" s="32"/>
@@ -25630,11 +24959,11 @@
       <c r="F92" s="33"/>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="37"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
@@ -25847,10 +25176,8 @@
       <c r="HO92" s="5"/>
       <c r="HP92" s="5"/>
       <c r="HQ92" s="5"/>
-      <c r="HR92" s="5"/>
-      <c r="HS92" s="5"/>
     </row>
-    <row r="93" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" s="31"/>
       <c r="C93" s="32"/>
@@ -25859,11 +25186,11 @@
       <c r="F93" s="33"/>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="37"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
@@ -26076,10 +25403,8 @@
       <c r="HO93" s="5"/>
       <c r="HP93" s="5"/>
       <c r="HQ93" s="5"/>
-      <c r="HR93" s="5"/>
-      <c r="HS93" s="5"/>
     </row>
-    <row r="94" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="31"/>
       <c r="C94" s="32"/>
@@ -26088,11 +25413,11 @@
       <c r="F94" s="33"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="37"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
@@ -26305,10 +25630,8 @@
       <c r="HO94" s="5"/>
       <c r="HP94" s="5"/>
       <c r="HQ94" s="5"/>
-      <c r="HR94" s="5"/>
-      <c r="HS94" s="5"/>
     </row>
-    <row r="95" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="31"/>
       <c r="C95" s="32"/>
@@ -26317,11 +25640,11 @@
       <c r="F95" s="33"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="37"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
@@ -26534,10 +25857,8 @@
       <c r="HO95" s="5"/>
       <c r="HP95" s="5"/>
       <c r="HQ95" s="5"/>
-      <c r="HR95" s="5"/>
-      <c r="HS95" s="5"/>
     </row>
-    <row r="96" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" s="31"/>
       <c r="C96" s="32"/>
@@ -26546,11 +25867,11 @@
       <c r="F96" s="33"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="37"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
@@ -26763,10 +26084,8 @@
       <c r="HO96" s="5"/>
       <c r="HP96" s="5"/>
       <c r="HQ96" s="5"/>
-      <c r="HR96" s="5"/>
-      <c r="HS96" s="5"/>
     </row>
-    <row r="97" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97" s="31"/>
       <c r="C97" s="32"/>
@@ -26775,11 +26094,11 @@
       <c r="F97" s="33"/>
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="37"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
@@ -26992,10 +26311,8 @@
       <c r="HO97" s="5"/>
       <c r="HP97" s="5"/>
       <c r="HQ97" s="5"/>
-      <c r="HR97" s="5"/>
-      <c r="HS97" s="5"/>
     </row>
-    <row r="98" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98" s="31"/>
       <c r="C98" s="32"/>
@@ -27004,11 +26321,11 @@
       <c r="F98" s="33"/>
       <c r="G98" s="34"/>
       <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="37"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
@@ -27221,10 +26538,8 @@
       <c r="HO98" s="5"/>
       <c r="HP98" s="5"/>
       <c r="HQ98" s="5"/>
-      <c r="HR98" s="5"/>
-      <c r="HS98" s="5"/>
     </row>
-    <row r="99" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="31"/>
       <c r="C99" s="32"/>
@@ -27233,11 +26548,11 @@
       <c r="F99" s="33"/>
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="37"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
@@ -27450,10 +26765,8 @@
       <c r="HO99" s="5"/>
       <c r="HP99" s="5"/>
       <c r="HQ99" s="5"/>
-      <c r="HR99" s="5"/>
-      <c r="HS99" s="5"/>
     </row>
-    <row r="100" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" s="31"/>
       <c r="C100" s="32"/>
@@ -27462,11 +26775,11 @@
       <c r="F100" s="33"/>
       <c r="G100" s="34"/>
       <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="37"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
@@ -27679,10 +26992,8 @@
       <c r="HO100" s="5"/>
       <c r="HP100" s="5"/>
       <c r="HQ100" s="5"/>
-      <c r="HR100" s="5"/>
-      <c r="HS100" s="5"/>
     </row>
-    <row r="101" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" s="31"/>
       <c r="C101" s="32"/>
@@ -27691,11 +27002,11 @@
       <c r="F101" s="33"/>
       <c r="G101" s="34"/>
       <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="37"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
@@ -27908,10 +27219,8 @@
       <c r="HO101" s="5"/>
       <c r="HP101" s="5"/>
       <c r="HQ101" s="5"/>
-      <c r="HR101" s="5"/>
-      <c r="HS101" s="5"/>
     </row>
-    <row r="102" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" s="31"/>
       <c r="C102" s="32"/>
@@ -27920,11 +27229,11 @@
       <c r="F102" s="33"/>
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="37"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
@@ -28137,10 +27446,8 @@
       <c r="HO102" s="5"/>
       <c r="HP102" s="5"/>
       <c r="HQ102" s="5"/>
-      <c r="HR102" s="5"/>
-      <c r="HS102" s="5"/>
     </row>
-    <row r="103" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" s="31"/>
       <c r="C103" s="32"/>
@@ -28149,11 +27456,11 @@
       <c r="F103" s="33"/>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="37"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
@@ -28366,10 +27673,8 @@
       <c r="HO103" s="5"/>
       <c r="HP103" s="5"/>
       <c r="HQ103" s="5"/>
-      <c r="HR103" s="5"/>
-      <c r="HS103" s="5"/>
     </row>
-    <row r="104" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" s="31"/>
       <c r="C104" s="32"/>
@@ -28378,11 +27683,11 @@
       <c r="F104" s="33"/>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="37"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
@@ -28595,10 +27900,8 @@
       <c r="HO104" s="5"/>
       <c r="HP104" s="5"/>
       <c r="HQ104" s="5"/>
-      <c r="HR104" s="5"/>
-      <c r="HS104" s="5"/>
     </row>
-    <row r="105" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" s="31"/>
       <c r="C105" s="32"/>
@@ -28607,11 +27910,11 @@
       <c r="F105" s="33"/>
       <c r="G105" s="34"/>
       <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="37"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
@@ -28824,10 +28127,8 @@
       <c r="HO105" s="5"/>
       <c r="HP105" s="5"/>
       <c r="HQ105" s="5"/>
-      <c r="HR105" s="5"/>
-      <c r="HS105" s="5"/>
     </row>
-    <row r="106" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106" s="31"/>
       <c r="C106" s="32"/>
@@ -28836,11 +28137,11 @@
       <c r="F106" s="33"/>
       <c r="G106" s="34"/>
       <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="37"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
@@ -29053,10 +28354,8 @@
       <c r="HO106" s="5"/>
       <c r="HP106" s="5"/>
       <c r="HQ106" s="5"/>
-      <c r="HR106" s="5"/>
-      <c r="HS106" s="5"/>
     </row>
-    <row r="107" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107" s="31"/>
       <c r="C107" s="32"/>
@@ -29065,11 +28364,11 @@
       <c r="F107" s="33"/>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="37"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
@@ -29282,10 +28581,8 @@
       <c r="HO107" s="5"/>
       <c r="HP107" s="5"/>
       <c r="HQ107" s="5"/>
-      <c r="HR107" s="5"/>
-      <c r="HS107" s="5"/>
     </row>
-    <row r="108" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" s="31"/>
       <c r="C108" s="32"/>
@@ -29294,11 +28591,11 @@
       <c r="F108" s="33"/>
       <c r="G108" s="34"/>
       <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="37"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
@@ -29511,10 +28808,8 @@
       <c r="HO108" s="5"/>
       <c r="HP108" s="5"/>
       <c r="HQ108" s="5"/>
-      <c r="HR108" s="5"/>
-      <c r="HS108" s="5"/>
     </row>
-    <row r="109" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109" s="31"/>
       <c r="C109" s="32"/>
@@ -29523,11 +28818,11 @@
       <c r="F109" s="33"/>
       <c r="G109" s="34"/>
       <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="37"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
@@ -29740,10 +29035,8 @@
       <c r="HO109" s="5"/>
       <c r="HP109" s="5"/>
       <c r="HQ109" s="5"/>
-      <c r="HR109" s="5"/>
-      <c r="HS109" s="5"/>
     </row>
-    <row r="110" spans="1:227" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" s="31"/>
       <c r="C110" s="32"/>
@@ -29752,11 +29045,11 @@
       <c r="F110" s="33"/>
       <c r="G110" s="34"/>
       <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="37"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
@@ -29969,525 +29262,282 @@
       <c r="HO110" s="5"/>
       <c r="HP110" s="5"/>
       <c r="HQ110" s="5"/>
-      <c r="HR110" s="5"/>
-      <c r="HS110" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="C45:E46"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="C27:E28"/>
+    <mergeCell ref="C29:E30"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
     <mergeCell ref="C37:E38"/>
     <mergeCell ref="C39:E40"/>
     <mergeCell ref="C41:E42"/>
     <mergeCell ref="C33:E34"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="C25:E26"/>
-    <mergeCell ref="C27:E28"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B3:F4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="N1:HS4">
-    <cfRule type="timePeriod" dxfId="116" priority="127" timePeriod="today">
-      <formula>FLOOR(N1,1)=TODAY()</formula>
+  <conditionalFormatting sqref="L1:HQ4">
+    <cfRule type="timePeriod" dxfId="50" priority="160" timePeriod="today">
+      <formula>FLOOR(L1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:XFD7 B24:XFD24 B8:C8 B43:XFD110 F8:XFD9 B9:B23 B25:B30 G10:XFD23 F25:XFD30 B35:B42 F35:XFD42">
-    <cfRule type="expression" dxfId="115" priority="120">
-      <formula>$B5&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="132">
-      <formula>$K5=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:HS30 N35:HS110">
-    <cfRule type="expression" dxfId="113" priority="121">
-      <formula>N$3=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="133">
-      <formula>AND($I5&lt;=N$3,$J5&gt;=N$3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="134">
-      <formula>AND($G5&lt;=N$3,$H5&gt;=N$3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:HS2">
-    <cfRule type="cellIs" dxfId="110" priority="131" operator="equal">
+  <conditionalFormatting sqref="L2:HQ2">
+    <cfRule type="cellIs" dxfId="49" priority="164" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:HS1">
-    <cfRule type="cellIs" dxfId="109" priority="129" operator="equal">
+  <conditionalFormatting sqref="L1:HQ1">
+    <cfRule type="cellIs" dxfId="48" priority="162" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:HS30 N35:HS110">
-    <cfRule type="expression" dxfId="108" priority="135">
-      <formula>WEEKDAY(N$3,1)=1</formula>
+  <conditionalFormatting sqref="L3:HQ30 L35:HQ110">
+    <cfRule type="expression" dxfId="47" priority="168">
+      <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:HS7 B24:HS24 B8:C8 B43:HS110 F8:HS9 B9:B23 B25:B30 G10:HS23 F25:HS30 B35:B42 F35:HS42">
-    <cfRule type="expression" dxfId="107" priority="137">
+  <conditionalFormatting sqref="B24:H24 B8:C8 B9:B23 B25:B30 F28:F30 B35:B48 F35:F48 I35:HQ48 F25:H27 G10:H13 G16:H23 B5:H7 B49:HQ110 F8:H9 I5:HQ30">
+    <cfRule type="expression" dxfId="46" priority="170">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="106" priority="117">
-      <formula>$B10&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="118">
-      <formula>$K10=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="104" priority="119">
+    <cfRule type="expression" dxfId="45" priority="152">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="103" priority="108">
-      <formula>$B12&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="109">
-      <formula>$K12=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="101" priority="110">
+    <cfRule type="expression" dxfId="44" priority="143">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="100" priority="105">
-      <formula>$B14&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="106">
-      <formula>$K14=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="98" priority="107">
+    <cfRule type="expression" dxfId="43" priority="140">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="97" priority="102">
-      <formula>$B16&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="103">
-      <formula>$K16=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="95" priority="104">
+    <cfRule type="expression" dxfId="42" priority="137">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="94" priority="99">
-      <formula>$B18&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="100">
-      <formula>$K18=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="92" priority="101">
+    <cfRule type="expression" dxfId="41" priority="134">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="91" priority="96">
-      <formula>$B20&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="97">
-      <formula>$K20=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="89" priority="98">
+    <cfRule type="expression" dxfId="40" priority="131">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="88" priority="93">
-      <formula>$B22&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="94">
-      <formula>$K22=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="86" priority="95">
+    <cfRule type="expression" dxfId="39" priority="128">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="85" priority="90">
-      <formula>$B25&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="91">
-      <formula>$K25=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="83" priority="92">
+    <cfRule type="expression" dxfId="38" priority="125">
       <formula>$A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="82" priority="78">
-      <formula>$B37&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="79">
-      <formula>$K37=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="80" priority="80">
+    <cfRule type="expression" dxfId="37" priority="113">
       <formula>$A37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="79" priority="84">
-      <formula>$B29&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="85">
-      <formula>$K29=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="77" priority="86">
+    <cfRule type="expression" dxfId="36" priority="119">
       <formula>$A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="76" priority="81">
-      <formula>$B35&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="82">
-      <formula>$K35=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="74" priority="83">
+    <cfRule type="expression" dxfId="35" priority="116">
       <formula>$A35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="70" priority="75">
-      <formula>$B10&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="76">
-      <formula>$K10=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="68" priority="77">
+    <cfRule type="expression" dxfId="34" priority="110">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="67" priority="69">
-      <formula>$B12&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
-      <formula>$K12=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="33" priority="104">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="64" priority="66">
-      <formula>$B14&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="67">
-      <formula>$K14=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="62" priority="68">
+    <cfRule type="expression" dxfId="32" priority="101">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="61" priority="63">
-      <formula>$B16&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$K16=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="59" priority="65">
+    <cfRule type="expression" dxfId="31" priority="98">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$B18&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$K18=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="56" priority="62">
+    <cfRule type="expression" dxfId="30" priority="95">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="55" priority="57">
-      <formula>$B20&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$K20=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="53" priority="59">
+    <cfRule type="expression" dxfId="29" priority="92">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>$B22&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$K22=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="28" priority="89">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$B11&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$K11=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="47" priority="53">
+    <cfRule type="expression" dxfId="27" priority="86">
       <formula>$A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="46" priority="45">
-      <formula>$B13&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>$K13=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="44" priority="47">
+    <cfRule type="expression" dxfId="26" priority="80">
       <formula>$A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="43" priority="42">
-      <formula>$B15&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>$K15=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="41" priority="44">
+    <cfRule type="expression" dxfId="25" priority="77">
       <formula>$A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="40" priority="39">
-      <formula>$B17&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$K17=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="38" priority="41">
+    <cfRule type="expression" dxfId="24" priority="74">
       <formula>$A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="37" priority="36">
-      <formula>$B19&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$K19=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="35" priority="38">
+    <cfRule type="expression" dxfId="23" priority="71">
       <formula>$A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>$B21&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$K21=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="32" priority="35">
+    <cfRule type="expression" dxfId="22" priority="68">
       <formula>$A21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="31" priority="30">
-      <formula>$B23&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$K23=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="21" priority="65">
       <formula>$A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>$B27&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$K27=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="20" priority="62">
       <formula>$A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="25" priority="24">
-      <formula>$B39&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$K39=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="19" priority="59">
       <formula>$A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>$B41&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$K41=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="18" priority="56">
       <formula>$A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B34 F33:XFD34">
-    <cfRule type="expression" dxfId="19" priority="14">
-      <formula>$B33&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
-      <formula>$K33=1</formula>
+  <conditionalFormatting sqref="L33:HQ34">
+    <cfRule type="expression" dxfId="17" priority="52">
+      <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33:HS34">
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>N$3=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>AND($I33&lt;=N$3,$J33&gt;=N$3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>AND($G33&lt;=N$3,$H33&gt;=N$3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33:HS34">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>WEEKDAY(N$3,1)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B34 F33:HS34">
-    <cfRule type="expression" dxfId="13" priority="20">
+  <conditionalFormatting sqref="B33:B34 F33:F34 I33:HQ34">
+    <cfRule type="expression" dxfId="16" priority="53">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>$B33&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$K33=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="15" priority="46">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B32 F31:XFD32">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>$B31&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>$K31=1</formula>
+  <conditionalFormatting sqref="L31:HQ32">
+    <cfRule type="expression" dxfId="14" priority="42">
+      <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31:HS32">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>N$3=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND($I31&lt;=N$3,$J31&gt;=N$3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>AND($G31&lt;=N$3,$H31&gt;=N$3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N31:HS32">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>WEEKDAY(N$3,1)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B32 F31:HS32">
-    <cfRule type="expression" dxfId="3" priority="10">
+  <conditionalFormatting sqref="B31:B32 F31:F32 I31:HQ32">
+    <cfRule type="expression" dxfId="13" priority="43">
       <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B31&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$K31=1</formula>
+    <cfRule type="expression" dxfId="12" priority="36">
+      <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$A31&lt;&gt;""</formula>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="11" priority="33">
+      <formula>$A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="10" priority="30">
+      <formula>$A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="9" priority="27">
+      <formula>$A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G48">
+    <cfRule type="expression" dxfId="8" priority="21">
+      <formula>$A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:H48">
+    <cfRule type="expression" dxfId="7" priority="18">
+      <formula>$A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$A15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$A14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:XFD7 B8:C8 B49:XFD110 F8:XFD23 B9:B23 F25:XFD48 B24:XFD24 C10 C12 C14 C16 C18 C20 C22 C25 C37 C29 C35 C27 C39 C41 C33 B25:B48 C31 C43 C45 C47">
+    <cfRule type="expression" dxfId="4" priority="171">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>$I5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:HQ110">
+    <cfRule type="expression" dxfId="2" priority="235">
+      <formula>L$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>AND(#REF!&lt;=L$3,#REF!&gt;=L$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="237">
+      <formula>AND($G5&lt;=L$3,$H5&gt;=L$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -10,7 +10,7 @@
     <sheet name="工程表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$FJ$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$HQ$110</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -378,10 +378,6 @@
   </si>
   <si>
     <t>2019/１０/</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2019/1０/</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -845,8 +841,8 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -869,10 +865,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,6 +873,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -903,7 +899,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -912,28 +908,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightDown">
-          <fgColor theme="0"/>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -959,6 +933,35 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1069,13 +1072,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1600,10 +1596,10 @@
   <dimension ref="A1:HQ110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="EQ14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I15:J16"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3355,21 +3351,21 @@
       </c>
     </row>
     <row r="3" spans="1:225" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="49" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -4022,19 +4018,19 @@
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="15" t="s">
         <v>8</v>
       </c>
@@ -5581,7 +5577,7 @@
     <row r="8" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="43"/>
@@ -5599,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="11"/>
@@ -5836,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="11"/>
@@ -6057,7 +6053,7 @@
     <row r="10" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="43"/>
@@ -6075,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="11"/>
@@ -6312,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="11"/>
@@ -6533,7 +6529,7 @@
     <row r="12" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="43"/>
@@ -6551,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="11"/>
@@ -6788,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="11"/>
@@ -7009,7 +7005,7 @@
     <row r="14" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="43"/>
@@ -7017,11 +7013,11 @@
       <c r="F14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>38</v>
+      <c r="G14" s="22">
+        <v>43755</v>
+      </c>
+      <c r="H14" s="22">
+        <v>43763</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="24"/>
@@ -7254,7 +7250,7 @@
         <v>39</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="24"/>
@@ -7477,7 +7473,7 @@
     <row r="16" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="43"/>
@@ -7485,11 +7481,11 @@
       <c r="F16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>38</v>
+      <c r="G16" s="22">
+        <v>43755</v>
+      </c>
+      <c r="H16" s="22">
+        <v>43763</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="24"/>
@@ -7945,7 +7941,7 @@
     <row r="18" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="43"/>
@@ -7953,11 +7949,11 @@
       <c r="F18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>39</v>
+      <c r="G18" s="22">
+        <v>43755</v>
+      </c>
+      <c r="H18" s="22">
+        <v>43763</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="24"/>
@@ -8413,7 +8409,7 @@
     <row r="20" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="43"/>
@@ -8881,7 +8877,7 @@
     <row r="22" spans="1:225" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="51" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="52"/>
@@ -8889,11 +8885,11 @@
       <c r="F22" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>38</v>
+      <c r="G22" s="22">
+        <v>43763</v>
+      </c>
+      <c r="H22" s="22">
+        <v>43770</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="24"/>
@@ -9576,7 +9572,7 @@
     <row r="25" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="43"/>
@@ -9584,11 +9580,11 @@
       <c r="F25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>41</v>
+      <c r="G25" s="22">
+        <v>43763</v>
+      </c>
+      <c r="H25" s="22">
+        <v>43770</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="24"/>
@@ -10044,7 +10040,7 @@
     <row r="27" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="43"/>
@@ -10052,11 +10048,11 @@
       <c r="F27" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>39</v>
+      <c r="G27" s="22">
+        <v>43763</v>
+      </c>
+      <c r="H27" s="22">
+        <v>43770</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="24"/>
@@ -10512,7 +10508,7 @@
     <row r="29" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="43"/>
@@ -10520,11 +10516,11 @@
       <c r="F29" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>39</v>
+      <c r="G29" s="22">
+        <v>43763</v>
+      </c>
+      <c r="H29" s="22">
+        <v>43770</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="24"/>
@@ -10980,7 +10976,7 @@
     <row r="31" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="57" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="43"/>
@@ -11448,7 +11444,7 @@
     <row r="33" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="43"/>
@@ -11456,11 +11452,11 @@
       <c r="F33" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>39</v>
+      <c r="G33" s="22">
+        <v>43770</v>
+      </c>
+      <c r="H33" s="22">
+        <v>43777</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="24"/>
@@ -11916,7 +11912,7 @@
     <row r="35" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="43"/>
@@ -11924,11 +11920,11 @@
       <c r="F35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>39</v>
+      <c r="G35" s="22">
+        <v>43770</v>
+      </c>
+      <c r="H35" s="22">
+        <v>43777</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="24"/>
@@ -12384,7 +12380,7 @@
     <row r="37" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="43"/>
@@ -12392,11 +12388,11 @@
       <c r="F37" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>39</v>
+      <c r="G37" s="22">
+        <v>43770</v>
+      </c>
+      <c r="H37" s="22">
+        <v>43777</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="24"/>
@@ -12852,7 +12848,7 @@
     <row r="39" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="43"/>
@@ -12860,11 +12856,11 @@
       <c r="F39" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>39</v>
+      <c r="G39" s="22">
+        <v>43770</v>
+      </c>
+      <c r="H39" s="22">
+        <v>43777</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="24"/>
@@ -13320,7 +13316,7 @@
     <row r="41" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="42" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="43"/>
@@ -13328,11 +13324,11 @@
       <c r="F41" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>39</v>
+      <c r="G41" s="22">
+        <v>43770</v>
+      </c>
+      <c r="H41" s="22">
+        <v>43777</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="24"/>
@@ -13788,7 +13784,7 @@
     <row r="43" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="43"/>
@@ -13802,7 +13798,9 @@
       <c r="H43" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="30">
+        <v>1</v>
+      </c>
       <c r="J43" s="24"/>
       <c r="K43" s="25"/>
       <c r="L43" s="11"/>
@@ -14035,7 +14033,9 @@
       <c r="H44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I44" s="30"/>
+      <c r="I44" s="30">
+        <v>1</v>
+      </c>
       <c r="J44" s="24"/>
       <c r="K44" s="25"/>
       <c r="L44" s="11"/>
@@ -14256,7 +14256,7 @@
     <row r="45" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="42" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="43"/>
@@ -14724,7 +14724,7 @@
     <row r="47" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="43"/>
@@ -29265,19 +29265,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
     <mergeCell ref="C43:E44"/>
     <mergeCell ref="C45:E46"/>
     <mergeCell ref="C47:E48"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
     <mergeCell ref="C18:E19"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C10:E11"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="C22:E23"/>
     <mergeCell ref="C25:E26"/>
@@ -29288,7 +29289,6 @@
     <mergeCell ref="C37:E38"/>
     <mergeCell ref="C39:E40"/>
     <mergeCell ref="C41:E42"/>
-    <mergeCell ref="C33:E34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="L1:HQ4">
@@ -29312,236 +29312,236 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:H24 B8:C8 B9:B23 B25:B30 F28:F30 B35:B48 F35:F48 I35:HQ48 F25:H27 G10:H13 G16:H23 B5:H7 B49:HQ110 F8:H9 I5:HQ30">
-    <cfRule type="expression" dxfId="46" priority="170">
+    <cfRule type="expression" dxfId="2" priority="170">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="45" priority="152">
+    <cfRule type="expression" dxfId="46" priority="152">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="44" priority="143">
+    <cfRule type="expression" dxfId="45" priority="143">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="43" priority="140">
+    <cfRule type="expression" dxfId="44" priority="140">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="42" priority="137">
+    <cfRule type="expression" dxfId="43" priority="137">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="41" priority="134">
+    <cfRule type="expression" dxfId="42" priority="134">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="40" priority="131">
+    <cfRule type="expression" dxfId="41" priority="131">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="39" priority="128">
+    <cfRule type="expression" dxfId="40" priority="128">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="38" priority="125">
+    <cfRule type="expression" dxfId="39" priority="125">
       <formula>$A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="37" priority="113">
+    <cfRule type="expression" dxfId="38" priority="113">
       <formula>$A37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="36" priority="119">
+    <cfRule type="expression" dxfId="37" priority="119">
       <formula>$A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="35" priority="116">
+    <cfRule type="expression" dxfId="36" priority="116">
       <formula>$A35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="34" priority="110">
+    <cfRule type="expression" dxfId="35" priority="110">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="33" priority="104">
+    <cfRule type="expression" dxfId="34" priority="104">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="32" priority="101">
+    <cfRule type="expression" dxfId="33" priority="101">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="31" priority="98">
+    <cfRule type="expression" dxfId="32" priority="98">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="30" priority="95">
+    <cfRule type="expression" dxfId="31" priority="95">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="29" priority="92">
+    <cfRule type="expression" dxfId="30" priority="92">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="28" priority="89">
+    <cfRule type="expression" dxfId="29" priority="89">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="27" priority="86">
+    <cfRule type="expression" dxfId="28" priority="86">
       <formula>$A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="26" priority="80">
+    <cfRule type="expression" dxfId="27" priority="80">
       <formula>$A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="25" priority="77">
+    <cfRule type="expression" dxfId="26" priority="77">
       <formula>$A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="24" priority="74">
+    <cfRule type="expression" dxfId="25" priority="74">
       <formula>$A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="23" priority="71">
+    <cfRule type="expression" dxfId="24" priority="71">
       <formula>$A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="22" priority="68">
+    <cfRule type="expression" dxfId="23" priority="68">
       <formula>$A21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="21" priority="65">
+    <cfRule type="expression" dxfId="22" priority="65">
       <formula>$A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="20" priority="62">
+    <cfRule type="expression" dxfId="21" priority="62">
       <formula>$A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="19" priority="59">
+    <cfRule type="expression" dxfId="20" priority="59">
       <formula>$A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="18" priority="56">
+    <cfRule type="expression" dxfId="19" priority="56">
       <formula>$A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:HQ34">
-    <cfRule type="expression" dxfId="17" priority="52">
+    <cfRule type="expression" dxfId="18" priority="52">
       <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B34 F33:F34 I33:HQ34">
-    <cfRule type="expression" dxfId="16" priority="53">
+    <cfRule type="expression" dxfId="17" priority="53">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="15" priority="46">
+    <cfRule type="expression" dxfId="16" priority="46">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:HQ32">
-    <cfRule type="expression" dxfId="14" priority="42">
+    <cfRule type="expression" dxfId="15" priority="42">
       <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32 F31:F32 I31:HQ32">
-    <cfRule type="expression" dxfId="13" priority="43">
+    <cfRule type="expression" dxfId="14" priority="43">
       <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="12" priority="36">
+    <cfRule type="expression" dxfId="13" priority="36">
       <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="11" priority="33">
+    <cfRule type="expression" dxfId="12" priority="33">
       <formula>$A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="10" priority="30">
+    <cfRule type="expression" dxfId="11" priority="30">
       <formula>$A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="9" priority="27">
+    <cfRule type="expression" dxfId="10" priority="27">
       <formula>$A47&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G48">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H48">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:XFD7 B8:C8 B49:XFD110 F8:XFD23 B9:B23 F25:XFD48 B24:XFD24 C10 C12 C14 C16 C18 C20 C22 C25 C37 C29 C35 C27 C39 C41 C33 B25:B48 C31 C43 C45 C47">
-    <cfRule type="expression" dxfId="4" priority="171">
+    <cfRule type="expression" dxfId="1" priority="171">
       <formula>$B5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
+    <cfRule type="expression" dxfId="0" priority="172">
       <formula>$I5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:HQ110">
-    <cfRule type="expression" dxfId="2" priority="235">
+    <cfRule type="expression" dxfId="6" priority="235">
       <formula>L$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="236">
+    <cfRule type="expression" dxfId="5" priority="236">
       <formula>AND(#REF!&lt;=L$3,#REF!&gt;=L$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="237">
+    <cfRule type="expression" dxfId="4" priority="237">
       <formula>AND($G5&lt;=L$3,$H5&gt;=L$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="41" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -412,6 +412,133 @@
   </si>
   <si>
     <t>2019/10/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>川戸・奥野</t>
+    <rPh sb="0" eb="2">
+      <t>カワト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オクノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中山・河田</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中尾・奥野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オクノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>川戸河田</t>
+    <rPh sb="0" eb="2">
+      <t>カワト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カワタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中山・中尾</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>川戸・中山</t>
+    <rPh sb="0" eb="2">
+      <t>カワト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奥野・河田</t>
+    <rPh sb="0" eb="2">
+      <t>オクノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中尾・中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奥野・中山</t>
+    <rPh sb="0" eb="2">
+      <t>オクノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>河田・川戸</t>
+    <rPh sb="0" eb="2">
+      <t>カワタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中山・奥野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オクノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奥野・川戸</t>
+    <rPh sb="0" eb="2">
+      <t>オクノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奥野</t>
+    <rPh sb="0" eb="2">
+      <t>オクノ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -841,8 +968,8 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -865,14 +992,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -898,16 +1029,34 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -933,35 +1082,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightDown">
-          <fgColor theme="0"/>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1072,6 +1192,13 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1596,10 +1723,10 @@
   <dimension ref="A1:HQ110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="EQ14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="EQ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3358,14 +3485,14 @@
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -4030,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="15" t="s">
         <v>8</v>
       </c>
@@ -5577,7 +5704,7 @@
     <row r="8" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="43"/>
@@ -6053,7 +6180,7 @@
     <row r="10" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="43"/>
@@ -6529,7 +6656,7 @@
     <row r="12" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="50" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="43"/>
@@ -7005,7 +7132,7 @@
     <row r="14" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="50" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="43"/>
@@ -7020,7 +7147,9 @@
         <v>43763</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="K14" s="25"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -7473,7 +7602,7 @@
     <row r="16" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="43"/>
@@ -7488,7 +7617,9 @@
         <v>43763</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="K16" s="25"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -7941,7 +8072,7 @@
     <row r="18" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="50" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="43"/>
@@ -7956,7 +8087,9 @@
         <v>43763</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="K18" s="25"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -8409,7 +8542,7 @@
     <row r="20" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="43"/>
@@ -8424,7 +8557,9 @@
         <v>38</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="K20" s="25"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -8877,11 +9012,11 @@
     <row r="22" spans="1:225" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="28" t="s">
         <v>13</v>
       </c>
@@ -8892,7 +9027,9 @@
         <v>43770</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="J22" s="24"/>
+      <c r="J22" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="K22" s="25"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -9112,9 +9249,9 @@
     <row r="23" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="28" t="s">
         <v>15</v>
       </c>
@@ -9572,7 +9709,7 @@
     <row r="25" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="43"/>
@@ -9587,7 +9724,9 @@
         <v>43770</v>
       </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="K25" s="25"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -10040,7 +10179,7 @@
     <row r="27" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="43"/>
@@ -10055,7 +10194,9 @@
         <v>43770</v>
       </c>
       <c r="I27" s="30"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="K27" s="25"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -10508,7 +10649,7 @@
     <row r="29" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="43"/>
@@ -10523,7 +10664,9 @@
         <v>43770</v>
       </c>
       <c r="I29" s="30"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="K29" s="25"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -10976,7 +11119,7 @@
     <row r="31" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="43"/>
@@ -11444,7 +11587,7 @@
     <row r="33" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="43"/>
@@ -11459,7 +11602,9 @@
         <v>43777</v>
       </c>
       <c r="I33" s="30"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="K33" s="25"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -11912,7 +12057,7 @@
     <row r="35" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="43"/>
@@ -11927,7 +12072,9 @@
         <v>43777</v>
       </c>
       <c r="I35" s="30"/>
-      <c r="J35" s="24"/>
+      <c r="J35" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="K35" s="25"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -12380,7 +12527,7 @@
     <row r="37" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="43"/>
@@ -12395,7 +12542,9 @@
         <v>43777</v>
       </c>
       <c r="I37" s="30"/>
-      <c r="J37" s="24"/>
+      <c r="J37" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="K37" s="25"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -12848,7 +12997,7 @@
     <row r="39" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="43"/>
@@ -12863,7 +13012,9 @@
         <v>43777</v>
       </c>
       <c r="I39" s="30"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="K39" s="25"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -13316,7 +13467,7 @@
     <row r="41" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="43"/>
@@ -13331,7 +13482,9 @@
         <v>43777</v>
       </c>
       <c r="I41" s="30"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="K41" s="25"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
@@ -13784,7 +13937,7 @@
     <row r="43" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="43"/>
@@ -14256,7 +14409,7 @@
     <row r="45" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="43"/>
@@ -14271,7 +14424,9 @@
         <v>39</v>
       </c>
       <c r="I45" s="30"/>
-      <c r="J45" s="24"/>
+      <c r="J45" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="K45" s="25"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -14724,7 +14879,7 @@
     <row r="47" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="43"/>
@@ -29265,14 +29420,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C10:E11"/>
     <mergeCell ref="C43:E44"/>
     <mergeCell ref="C45:E46"/>
     <mergeCell ref="C47:E48"/>
@@ -29289,6 +29436,14 @@
     <mergeCell ref="C37:E38"/>
     <mergeCell ref="C39:E40"/>
     <mergeCell ref="C41:E42"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="L1:HQ4">
@@ -29312,231 +29467,231 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:H24 B8:C8 B9:B23 B25:B30 F28:F30 B35:B48 F35:F48 I35:HQ48 F25:H27 G10:H13 G16:H23 B5:H7 B49:HQ110 F8:H9 I5:HQ30">
-    <cfRule type="expression" dxfId="2" priority="170">
+    <cfRule type="expression" dxfId="46" priority="170">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="46" priority="152">
+    <cfRule type="expression" dxfId="45" priority="152">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="45" priority="143">
+    <cfRule type="expression" dxfId="44" priority="143">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="44" priority="140">
+    <cfRule type="expression" dxfId="43" priority="140">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="43" priority="137">
+    <cfRule type="expression" dxfId="42" priority="137">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="42" priority="134">
+    <cfRule type="expression" dxfId="41" priority="134">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="41" priority="131">
+    <cfRule type="expression" dxfId="40" priority="131">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="40" priority="128">
+    <cfRule type="expression" dxfId="39" priority="128">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="39" priority="125">
+    <cfRule type="expression" dxfId="38" priority="125">
       <formula>$A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="38" priority="113">
+    <cfRule type="expression" dxfId="37" priority="113">
       <formula>$A37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="37" priority="119">
+    <cfRule type="expression" dxfId="36" priority="119">
       <formula>$A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="36" priority="116">
+    <cfRule type="expression" dxfId="35" priority="116">
       <formula>$A35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="35" priority="110">
+    <cfRule type="expression" dxfId="34" priority="110">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="34" priority="104">
+    <cfRule type="expression" dxfId="33" priority="104">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="33" priority="101">
+    <cfRule type="expression" dxfId="32" priority="101">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="32" priority="98">
+    <cfRule type="expression" dxfId="31" priority="98">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="31" priority="95">
+    <cfRule type="expression" dxfId="30" priority="95">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="30" priority="92">
+    <cfRule type="expression" dxfId="29" priority="92">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="29" priority="89">
+    <cfRule type="expression" dxfId="28" priority="89">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="28" priority="86">
+    <cfRule type="expression" dxfId="27" priority="86">
       <formula>$A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="27" priority="80">
+    <cfRule type="expression" dxfId="26" priority="80">
       <formula>$A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="26" priority="77">
+    <cfRule type="expression" dxfId="25" priority="77">
       <formula>$A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="25" priority="74">
+    <cfRule type="expression" dxfId="24" priority="74">
       <formula>$A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="24" priority="71">
+    <cfRule type="expression" dxfId="23" priority="71">
       <formula>$A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="23" priority="68">
+    <cfRule type="expression" dxfId="22" priority="68">
       <formula>$A21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="22" priority="65">
+    <cfRule type="expression" dxfId="21" priority="65">
       <formula>$A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="21" priority="62">
+    <cfRule type="expression" dxfId="20" priority="62">
       <formula>$A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="20" priority="59">
+    <cfRule type="expression" dxfId="19" priority="59">
       <formula>$A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="19" priority="56">
+    <cfRule type="expression" dxfId="18" priority="56">
       <formula>$A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:HQ34">
-    <cfRule type="expression" dxfId="18" priority="52">
+    <cfRule type="expression" dxfId="17" priority="52">
       <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B34 F33:F34 I33:HQ34">
-    <cfRule type="expression" dxfId="17" priority="53">
+    <cfRule type="expression" dxfId="16" priority="53">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="16" priority="46">
+    <cfRule type="expression" dxfId="15" priority="46">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:HQ32">
-    <cfRule type="expression" dxfId="15" priority="42">
+    <cfRule type="expression" dxfId="14" priority="42">
       <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32 F31:F32 I31:HQ32">
-    <cfRule type="expression" dxfId="14" priority="43">
+    <cfRule type="expression" dxfId="13" priority="43">
       <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="13" priority="36">
+    <cfRule type="expression" dxfId="12" priority="36">
       <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="12" priority="33">
+    <cfRule type="expression" dxfId="11" priority="33">
       <formula>$A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="11" priority="30">
+    <cfRule type="expression" dxfId="10" priority="30">
       <formula>$A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="10" priority="27">
+    <cfRule type="expression" dxfId="9" priority="27">
       <formula>$A47&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G48">
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>$A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H48">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>$A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:XFD7 B8:C8 B49:XFD110 F8:XFD23 B9:B23 F25:XFD48 B24:XFD24 C10 C12 C14 C16 C18 C20 C22 C25 C37 C29 C35 C27 C39 C41 C33 B25:B48 C31 C43 C45 C47">
-    <cfRule type="expression" dxfId="1" priority="171">
+    <cfRule type="expression" dxfId="4" priority="171">
       <formula>$B5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="172">
+    <cfRule type="expression" dxfId="3" priority="172">
       <formula>$I5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:HQ110">
-    <cfRule type="expression" dxfId="6" priority="235">
+    <cfRule type="expression" dxfId="2" priority="235">
       <formula>L$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="236">
+    <cfRule type="expression" dxfId="1" priority="236">
       <formula>AND(#REF!&lt;=L$3,#REF!&gt;=L$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="237">
+    <cfRule type="expression" dxfId="0" priority="237">
       <formula>AND($G5&lt;=L$3,$H5&gt;=L$3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -535,9 +535,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>奥野</t>
+    <t>中尾</t>
     <rPh sb="0" eb="2">
-      <t>オクノ</t>
+      <t>ナカオ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -617,7 +617,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,8 +974,8 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -992,17 +998,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1028,6 +1027,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,10 +1732,10 @@
   <dimension ref="A1:HQ110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="EQ5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="DW20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="CB64" sqref="CB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3485,14 +3494,14 @@
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="57" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -4157,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="49"/>
-      <c r="J4" s="48"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="15" t="s">
         <v>8</v>
       </c>
@@ -5704,7 +5713,7 @@
     <row r="8" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="43"/>
@@ -6180,7 +6189,7 @@
     <row r="10" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="43"/>
@@ -6656,7 +6665,7 @@
     <row r="12" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="43"/>
@@ -7132,7 +7141,7 @@
     <row r="14" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="43"/>
@@ -7602,7 +7611,7 @@
     <row r="16" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="43"/>
@@ -8072,7 +8081,7 @@
     <row r="18" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="43"/>
@@ -8542,7 +8551,7 @@
     <row r="20" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="43"/>
@@ -9012,11 +9021,11 @@
     <row r="22" spans="1:225" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="28" t="s">
         <v>13</v>
       </c>
@@ -9249,9 +9258,9 @@
     <row r="23" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="28" t="s">
         <v>15</v>
       </c>
@@ -9709,7 +9718,7 @@
     <row r="25" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="43"/>
@@ -10179,7 +10188,7 @@
     <row r="27" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="43"/>
@@ -10649,7 +10658,7 @@
     <row r="29" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="56" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="43"/>
@@ -11119,7 +11128,7 @@
     <row r="31" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="56" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="43"/>
@@ -11587,7 +11596,7 @@
     <row r="33" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="56" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="43"/>
@@ -12057,7 +12066,7 @@
     <row r="35" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="43"/>
@@ -12527,7 +12536,7 @@
     <row r="37" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="43"/>
@@ -12997,7 +13006,7 @@
     <row r="39" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="43"/>
@@ -13467,7 +13476,7 @@
     <row r="41" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="42" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="43"/>
@@ -13937,7 +13946,7 @@
     <row r="43" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="43"/>
@@ -13945,11 +13954,11 @@
       <c r="F43" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>39</v>
+      <c r="G43" s="22">
+        <v>43753</v>
+      </c>
+      <c r="H43" s="22">
+        <v>43755</v>
       </c>
       <c r="I43" s="30">
         <v>1</v>
@@ -14180,11 +14189,11 @@
       <c r="F44" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>39</v>
+      <c r="G44" s="22">
+        <v>43753</v>
+      </c>
+      <c r="H44" s="22">
+        <v>43755</v>
       </c>
       <c r="I44" s="30">
         <v>1</v>
@@ -14409,7 +14418,7 @@
     <row r="45" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="42" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="43"/>
@@ -14879,7 +14888,7 @@
     <row r="47" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="43"/>
@@ -15185,7 +15194,7 @@
       <c r="BM48" s="11"/>
       <c r="BN48" s="11"/>
       <c r="BO48" s="11"/>
-      <c r="BP48" s="11"/>
+      <c r="BP48" s="58"/>
       <c r="BQ48" s="11"/>
       <c r="BR48" s="11"/>
       <c r="BS48" s="11"/>
@@ -15412,7 +15421,7 @@
       <c r="BM49" s="11"/>
       <c r="BN49" s="11"/>
       <c r="BO49" s="11"/>
-      <c r="BP49" s="11"/>
+      <c r="BP49" s="58"/>
       <c r="BQ49" s="11"/>
       <c r="BR49" s="11"/>
       <c r="BS49" s="11"/>
@@ -15639,7 +15648,7 @@
       <c r="BM50" s="11"/>
       <c r="BN50" s="11"/>
       <c r="BO50" s="11"/>
-      <c r="BP50" s="11"/>
+      <c r="BP50" s="58"/>
       <c r="BQ50" s="11"/>
       <c r="BR50" s="11"/>
       <c r="BS50" s="11"/>
@@ -15866,7 +15875,7 @@
       <c r="BM51" s="11"/>
       <c r="BN51" s="11"/>
       <c r="BO51" s="11"/>
-      <c r="BP51" s="11"/>
+      <c r="BP51" s="58"/>
       <c r="BQ51" s="11"/>
       <c r="BR51" s="11"/>
       <c r="BS51" s="11"/>
@@ -16093,7 +16102,7 @@
       <c r="BM52" s="11"/>
       <c r="BN52" s="11"/>
       <c r="BO52" s="11"/>
-      <c r="BP52" s="11"/>
+      <c r="BP52" s="58"/>
       <c r="BQ52" s="11"/>
       <c r="BR52" s="11"/>
       <c r="BS52" s="11"/>
@@ -16320,7 +16329,7 @@
       <c r="BM53" s="11"/>
       <c r="BN53" s="11"/>
       <c r="BO53" s="11"/>
-      <c r="BP53" s="11"/>
+      <c r="BP53" s="58"/>
       <c r="BQ53" s="11"/>
       <c r="BR53" s="11"/>
       <c r="BS53" s="11"/>
@@ -16547,7 +16556,7 @@
       <c r="BM54" s="11"/>
       <c r="BN54" s="11"/>
       <c r="BO54" s="11"/>
-      <c r="BP54" s="11"/>
+      <c r="BP54" s="58"/>
       <c r="BQ54" s="11"/>
       <c r="BR54" s="11"/>
       <c r="BS54" s="11"/>
@@ -16774,7 +16783,7 @@
       <c r="BM55" s="5"/>
       <c r="BN55" s="5"/>
       <c r="BO55" s="5"/>
-      <c r="BP55" s="5"/>
+      <c r="BP55" s="58"/>
       <c r="BQ55" s="5"/>
       <c r="BR55" s="5"/>
       <c r="BS55" s="5"/>
@@ -17001,7 +17010,7 @@
       <c r="BM56" s="5"/>
       <c r="BN56" s="5"/>
       <c r="BO56" s="5"/>
-      <c r="BP56" s="5"/>
+      <c r="BP56" s="58"/>
       <c r="BQ56" s="5"/>
       <c r="BR56" s="5"/>
       <c r="BS56" s="5"/>
@@ -17228,7 +17237,7 @@
       <c r="BM57" s="5"/>
       <c r="BN57" s="5"/>
       <c r="BO57" s="5"/>
-      <c r="BP57" s="5"/>
+      <c r="BP57" s="58"/>
       <c r="BQ57" s="5"/>
       <c r="BR57" s="5"/>
       <c r="BS57" s="5"/>
@@ -17455,7 +17464,7 @@
       <c r="BM58" s="5"/>
       <c r="BN58" s="5"/>
       <c r="BO58" s="5"/>
-      <c r="BP58" s="5"/>
+      <c r="BP58" s="58"/>
       <c r="BQ58" s="5"/>
       <c r="BR58" s="5"/>
       <c r="BS58" s="5"/>
@@ -17682,7 +17691,7 @@
       <c r="BM59" s="5"/>
       <c r="BN59" s="5"/>
       <c r="BO59" s="5"/>
-      <c r="BP59" s="5"/>
+      <c r="BP59" s="58"/>
       <c r="BQ59" s="5"/>
       <c r="BR59" s="5"/>
       <c r="BS59" s="5"/>
@@ -17909,7 +17918,7 @@
       <c r="BM60" s="5"/>
       <c r="BN60" s="5"/>
       <c r="BO60" s="5"/>
-      <c r="BP60" s="5"/>
+      <c r="BP60" s="58"/>
       <c r="BQ60" s="5"/>
       <c r="BR60" s="5"/>
       <c r="BS60" s="5"/>
@@ -18136,7 +18145,7 @@
       <c r="BM61" s="5"/>
       <c r="BN61" s="5"/>
       <c r="BO61" s="5"/>
-      <c r="BP61" s="5"/>
+      <c r="BP61" s="58"/>
       <c r="BQ61" s="5"/>
       <c r="BR61" s="5"/>
       <c r="BS61" s="5"/>
@@ -29420,6 +29429,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
     <mergeCell ref="C43:E44"/>
     <mergeCell ref="C45:E46"/>
     <mergeCell ref="C47:E48"/>
@@ -29436,14 +29453,6 @@
     <mergeCell ref="C37:E38"/>
     <mergeCell ref="C39:E40"/>
     <mergeCell ref="C41:E42"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C10:E11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="L1:HQ4">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22776" windowHeight="14664"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="工程表" sheetId="1" r:id="rId1"/>
+    <sheet name="システム開発スケジュール" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$HQ$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">システム開発スケジュール!$B$1:$HQ$110</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -974,8 +974,11 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -998,10 +1001,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1027,16 +1037,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1718,7 +1718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1732,26 +1732,26 @@
   <dimension ref="A1:HQ110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="DW20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="EO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="CB64" sqref="CB64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="3.109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="38" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" style="39" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="41" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" style="40" customWidth="1"/>
-    <col min="12" max="225" width="2.44140625" style="6" customWidth="1"/>
-    <col min="226" max="16384" width="3.77734375" style="6"/>
+    <col min="2" max="4" width="3.125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="38" customWidth="1"/>
+    <col min="7" max="8" width="9.875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="40" customWidth="1"/>
+    <col min="12" max="225" width="2.5" style="6" customWidth="1"/>
+    <col min="226" max="16384" width="3.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:225" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:225" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:225" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:225" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="2"/>
@@ -3486,22 +3486,22 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:225" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:225" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="48" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="49" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -4150,23 +4150,23 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:225" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:225" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="57"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49"/>
       <c r="K4" s="15" t="s">
         <v>8</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5"/>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -5256,7 +5256,7 @@
       <c r="HP5" s="11"/>
       <c r="HQ5" s="11"/>
     </row>
-    <row r="6" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
@@ -5483,7 +5483,7 @@
       <c r="HP6" s="11"/>
       <c r="HQ6" s="11"/>
     </row>
-    <row r="7" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -5710,14 +5710,14 @@
       <c r="HP7" s="11"/>
       <c r="HQ7" s="11"/>
     </row>
-    <row r="8" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="28" t="s">
         <v>13</v>
       </c>
@@ -5949,12 +5949,12 @@
       <c r="HP8" s="11"/>
       <c r="HQ8" s="11"/>
     </row>
-    <row r="9" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="28" t="s">
         <v>15</v>
       </c>
@@ -6186,14 +6186,14 @@
       <c r="HP9" s="11"/>
       <c r="HQ9" s="11"/>
     </row>
-    <row r="10" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="28" t="s">
         <v>13</v>
       </c>
@@ -6425,12 +6425,12 @@
       <c r="HP10" s="11"/>
       <c r="HQ10" s="11"/>
     </row>
-    <row r="11" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="28" t="s">
         <v>15</v>
       </c>
@@ -6662,14 +6662,14 @@
       <c r="HP11" s="11"/>
       <c r="HQ11" s="11"/>
     </row>
-    <row r="12" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="28" t="s">
         <v>13</v>
       </c>
@@ -6901,12 +6901,12 @@
       <c r="HP12" s="11"/>
       <c r="HQ12" s="11"/>
     </row>
-    <row r="13" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="28" t="s">
         <v>15</v>
       </c>
@@ -7138,14 +7138,14 @@
       <c r="HP13" s="11"/>
       <c r="HQ13" s="11"/>
     </row>
-    <row r="14" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="28" t="s">
         <v>13</v>
       </c>
@@ -7375,12 +7375,12 @@
       <c r="HP14" s="11"/>
       <c r="HQ14" s="11"/>
     </row>
-    <row r="15" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="28" t="s">
         <v>15</v>
       </c>
@@ -7608,14 +7608,14 @@
       <c r="HP15" s="11"/>
       <c r="HQ15" s="11"/>
     </row>
-    <row r="16" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="28" t="s">
         <v>13</v>
       </c>
@@ -7845,12 +7845,12 @@
       <c r="HP16" s="11"/>
       <c r="HQ16" s="11"/>
     </row>
-    <row r="17" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="28" t="s">
         <v>15</v>
       </c>
@@ -8078,14 +8078,14 @@
       <c r="HP17" s="11"/>
       <c r="HQ17" s="11"/>
     </row>
-    <row r="18" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="28" t="s">
         <v>13</v>
       </c>
@@ -8315,12 +8315,12 @@
       <c r="HP18" s="11"/>
       <c r="HQ18" s="11"/>
     </row>
-    <row r="19" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="28" t="s">
         <v>15</v>
       </c>
@@ -8548,14 +8548,14 @@
       <c r="HP19" s="11"/>
       <c r="HQ19" s="11"/>
     </row>
-    <row r="20" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="28" t="s">
         <v>13</v>
       </c>
@@ -8785,12 +8785,12 @@
       <c r="HP20" s="11"/>
       <c r="HQ20" s="11"/>
     </row>
-    <row r="21" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="28" t="s">
         <v>15</v>
       </c>
@@ -9018,14 +9018,14 @@
       <c r="HP21" s="11"/>
       <c r="HQ21" s="11"/>
     </row>
-    <row r="22" spans="1:225" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="28" t="s">
         <v>13</v>
       </c>
@@ -9255,12 +9255,12 @@
       <c r="HP22" s="11"/>
       <c r="HQ22" s="11"/>
     </row>
-    <row r="23" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="28" t="s">
         <v>15</v>
       </c>
@@ -9488,7 +9488,7 @@
       <c r="HP23" s="11"/>
       <c r="HQ23" s="11"/>
     </row>
-    <row r="24" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
@@ -9715,14 +9715,14 @@
       <c r="HP24" s="11"/>
       <c r="HQ24" s="11"/>
     </row>
-    <row r="25" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="28" t="s">
         <v>13</v>
       </c>
@@ -9952,12 +9952,12 @@
       <c r="HP25" s="11"/>
       <c r="HQ25" s="11"/>
     </row>
-    <row r="26" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="28" t="s">
         <v>15</v>
       </c>
@@ -10185,14 +10185,14 @@
       <c r="HP26" s="11"/>
       <c r="HQ26" s="11"/>
     </row>
-    <row r="27" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="28" t="s">
         <v>13</v>
       </c>
@@ -10422,12 +10422,12 @@
       <c r="HP27" s="11"/>
       <c r="HQ27" s="11"/>
     </row>
-    <row r="28" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="28" t="s">
         <v>15</v>
       </c>
@@ -10655,14 +10655,14 @@
       <c r="HP28" s="11"/>
       <c r="HQ28" s="11"/>
     </row>
-    <row r="29" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="28" t="s">
         <v>13</v>
       </c>
@@ -10892,12 +10892,12 @@
       <c r="HP29" s="11"/>
       <c r="HQ29" s="11"/>
     </row>
-    <row r="30" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="28" t="s">
         <v>15</v>
       </c>
@@ -11125,14 +11125,14 @@
       <c r="HP30" s="11"/>
       <c r="HQ30" s="11"/>
     </row>
-    <row r="31" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="28" t="s">
         <v>13</v>
       </c>
@@ -11360,12 +11360,12 @@
       <c r="HP31" s="11"/>
       <c r="HQ31" s="11"/>
     </row>
-    <row r="32" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="28" t="s">
         <v>15</v>
       </c>
@@ -11593,14 +11593,14 @@
       <c r="HP32" s="11"/>
       <c r="HQ32" s="11"/>
     </row>
-    <row r="33" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="28" t="s">
         <v>13</v>
       </c>
@@ -11830,12 +11830,12 @@
       <c r="HP33" s="11"/>
       <c r="HQ33" s="11"/>
     </row>
-    <row r="34" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="28" t="s">
         <v>15</v>
       </c>
@@ -12063,14 +12063,14 @@
       <c r="HP34" s="11"/>
       <c r="HQ34" s="11"/>
     </row>
-    <row r="35" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="28" t="s">
         <v>14</v>
       </c>
@@ -12300,12 +12300,12 @@
       <c r="HP35" s="11"/>
       <c r="HQ35" s="11"/>
     </row>
-    <row r="36" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="28" t="s">
         <v>15</v>
       </c>
@@ -12533,14 +12533,14 @@
       <c r="HP36" s="11"/>
       <c r="HQ36" s="11"/>
     </row>
-    <row r="37" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="28" t="s">
         <v>14</v>
       </c>
@@ -12770,12 +12770,12 @@
       <c r="HP37" s="11"/>
       <c r="HQ37" s="11"/>
     </row>
-    <row r="38" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="28" t="s">
         <v>15</v>
       </c>
@@ -13003,14 +13003,14 @@
       <c r="HP38" s="11"/>
       <c r="HQ38" s="11"/>
     </row>
-    <row r="39" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="28" t="s">
         <v>14</v>
       </c>
@@ -13240,12 +13240,12 @@
       <c r="HP39" s="11"/>
       <c r="HQ39" s="11"/>
     </row>
-    <row r="40" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="28" t="s">
         <v>15</v>
       </c>
@@ -13473,14 +13473,14 @@
       <c r="HP40" s="11"/>
       <c r="HQ40" s="11"/>
     </row>
-    <row r="41" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="28" t="s">
         <v>36</v>
       </c>
@@ -13710,12 +13710,12 @@
       <c r="HP41" s="11"/>
       <c r="HQ41" s="11"/>
     </row>
-    <row r="42" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="28" t="s">
         <v>37</v>
       </c>
@@ -13943,14 +13943,14 @@
       <c r="HP42" s="11"/>
       <c r="HQ42" s="11"/>
     </row>
-    <row r="43" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="28" t="s">
         <v>36</v>
       </c>
@@ -14180,12 +14180,12 @@
       <c r="HP43" s="11"/>
       <c r="HQ43" s="11"/>
     </row>
-    <row r="44" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="28" t="s">
         <v>37</v>
       </c>
@@ -14415,14 +14415,14 @@
       <c r="HP44" s="11"/>
       <c r="HQ44" s="11"/>
     </row>
-    <row r="45" spans="1:225" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="28" t="s">
         <v>36</v>
       </c>
@@ -14652,12 +14652,12 @@
       <c r="HP45" s="11"/>
       <c r="HQ45" s="11"/>
     </row>
-    <row r="46" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="28" t="s">
         <v>37</v>
       </c>
@@ -14885,14 +14885,14 @@
       <c r="HP46" s="11"/>
       <c r="HQ46" s="11"/>
     </row>
-    <row r="47" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="28" t="s">
         <v>36</v>
       </c>
@@ -15120,12 +15120,12 @@
       <c r="HP47" s="11"/>
       <c r="HQ47" s="11"/>
     </row>
-    <row r="48" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="28" t="s">
         <v>37</v>
       </c>
@@ -15194,7 +15194,7 @@
       <c r="BM48" s="11"/>
       <c r="BN48" s="11"/>
       <c r="BO48" s="11"/>
-      <c r="BP48" s="58"/>
+      <c r="BP48" s="42"/>
       <c r="BQ48" s="11"/>
       <c r="BR48" s="11"/>
       <c r="BS48" s="11"/>
@@ -15353,7 +15353,7 @@
       <c r="HP48" s="11"/>
       <c r="HQ48" s="11"/>
     </row>
-    <row r="49" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" s="26"/>
       <c r="C49" s="20"/>
@@ -15421,7 +15421,7 @@
       <c r="BM49" s="11"/>
       <c r="BN49" s="11"/>
       <c r="BO49" s="11"/>
-      <c r="BP49" s="58"/>
+      <c r="BP49" s="42"/>
       <c r="BQ49" s="11"/>
       <c r="BR49" s="11"/>
       <c r="BS49" s="11"/>
@@ -15580,7 +15580,7 @@
       <c r="HP49" s="11"/>
       <c r="HQ49" s="11"/>
     </row>
-    <row r="50" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="26"/>
       <c r="C50" s="20"/>
@@ -15648,7 +15648,7 @@
       <c r="BM50" s="11"/>
       <c r="BN50" s="11"/>
       <c r="BO50" s="11"/>
-      <c r="BP50" s="58"/>
+      <c r="BP50" s="42"/>
       <c r="BQ50" s="11"/>
       <c r="BR50" s="11"/>
       <c r="BS50" s="11"/>
@@ -15807,7 +15807,7 @@
       <c r="HP50" s="11"/>
       <c r="HQ50" s="11"/>
     </row>
-    <row r="51" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
@@ -15875,7 +15875,7 @@
       <c r="BM51" s="11"/>
       <c r="BN51" s="11"/>
       <c r="BO51" s="11"/>
-      <c r="BP51" s="58"/>
+      <c r="BP51" s="42"/>
       <c r="BQ51" s="11"/>
       <c r="BR51" s="11"/>
       <c r="BS51" s="11"/>
@@ -16034,7 +16034,7 @@
       <c r="HP51" s="11"/>
       <c r="HQ51" s="11"/>
     </row>
-    <row r="52" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
@@ -16102,7 +16102,7 @@
       <c r="BM52" s="11"/>
       <c r="BN52" s="11"/>
       <c r="BO52" s="11"/>
-      <c r="BP52" s="58"/>
+      <c r="BP52" s="42"/>
       <c r="BQ52" s="11"/>
       <c r="BR52" s="11"/>
       <c r="BS52" s="11"/>
@@ -16261,7 +16261,7 @@
       <c r="HP52" s="11"/>
       <c r="HQ52" s="11"/>
     </row>
-    <row r="53" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
@@ -16329,7 +16329,7 @@
       <c r="BM53" s="11"/>
       <c r="BN53" s="11"/>
       <c r="BO53" s="11"/>
-      <c r="BP53" s="58"/>
+      <c r="BP53" s="42"/>
       <c r="BQ53" s="11"/>
       <c r="BR53" s="11"/>
       <c r="BS53" s="11"/>
@@ -16488,7 +16488,7 @@
       <c r="HP53" s="11"/>
       <c r="HQ53" s="11"/>
     </row>
-    <row r="54" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:225" s="8" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
@@ -16556,7 +16556,7 @@
       <c r="BM54" s="11"/>
       <c r="BN54" s="11"/>
       <c r="BO54" s="11"/>
-      <c r="BP54" s="58"/>
+      <c r="BP54" s="42"/>
       <c r="BQ54" s="11"/>
       <c r="BR54" s="11"/>
       <c r="BS54" s="11"/>
@@ -16715,7 +16715,7 @@
       <c r="HP54" s="11"/>
       <c r="HQ54" s="11"/>
     </row>
-    <row r="55" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:225" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" s="31"/>
       <c r="C55" s="32"/>
@@ -16783,7 +16783,7 @@
       <c r="BM55" s="5"/>
       <c r="BN55" s="5"/>
       <c r="BO55" s="5"/>
-      <c r="BP55" s="58"/>
+      <c r="BP55" s="42"/>
       <c r="BQ55" s="5"/>
       <c r="BR55" s="5"/>
       <c r="BS55" s="5"/>
@@ -16942,7 +16942,7 @@
       <c r="HP55" s="5"/>
       <c r="HQ55" s="5"/>
     </row>
-    <row r="56" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:225" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="31"/>
       <c r="C56" s="32"/>
@@ -17010,7 +17010,7 @@
       <c r="BM56" s="5"/>
       <c r="BN56" s="5"/>
       <c r="BO56" s="5"/>
-      <c r="BP56" s="58"/>
+      <c r="BP56" s="42"/>
       <c r="BQ56" s="5"/>
       <c r="BR56" s="5"/>
       <c r="BS56" s="5"/>
@@ -17169,7 +17169,7 @@
       <c r="HP56" s="5"/>
       <c r="HQ56" s="5"/>
     </row>
-    <row r="57" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57"/>
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
@@ -17237,7 +17237,7 @@
       <c r="BM57" s="5"/>
       <c r="BN57" s="5"/>
       <c r="BO57" s="5"/>
-      <c r="BP57" s="58"/>
+      <c r="BP57" s="42"/>
       <c r="BQ57" s="5"/>
       <c r="BR57" s="5"/>
       <c r="BS57" s="5"/>
@@ -17396,7 +17396,7 @@
       <c r="HP57" s="5"/>
       <c r="HQ57" s="5"/>
     </row>
-    <row r="58" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58"/>
       <c r="B58" s="31"/>
       <c r="C58" s="32"/>
@@ -17464,7 +17464,7 @@
       <c r="BM58" s="5"/>
       <c r="BN58" s="5"/>
       <c r="BO58" s="5"/>
-      <c r="BP58" s="58"/>
+      <c r="BP58" s="42"/>
       <c r="BQ58" s="5"/>
       <c r="BR58" s="5"/>
       <c r="BS58" s="5"/>
@@ -17623,7 +17623,7 @@
       <c r="HP58" s="5"/>
       <c r="HQ58" s="5"/>
     </row>
-    <row r="59" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59"/>
       <c r="B59" s="31"/>
       <c r="C59" s="32"/>
@@ -17691,7 +17691,7 @@
       <c r="BM59" s="5"/>
       <c r="BN59" s="5"/>
       <c r="BO59" s="5"/>
-      <c r="BP59" s="58"/>
+      <c r="BP59" s="42"/>
       <c r="BQ59" s="5"/>
       <c r="BR59" s="5"/>
       <c r="BS59" s="5"/>
@@ -17850,7 +17850,7 @@
       <c r="HP59" s="5"/>
       <c r="HQ59" s="5"/>
     </row>
-    <row r="60" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60"/>
       <c r="B60" s="31"/>
       <c r="C60" s="32"/>
@@ -17918,7 +17918,7 @@
       <c r="BM60" s="5"/>
       <c r="BN60" s="5"/>
       <c r="BO60" s="5"/>
-      <c r="BP60" s="58"/>
+      <c r="BP60" s="42"/>
       <c r="BQ60" s="5"/>
       <c r="BR60" s="5"/>
       <c r="BS60" s="5"/>
@@ -18077,7 +18077,7 @@
       <c r="HP60" s="5"/>
       <c r="HQ60" s="5"/>
     </row>
-    <row r="61" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61"/>
       <c r="B61" s="31"/>
       <c r="C61" s="32"/>
@@ -18145,7 +18145,7 @@
       <c r="BM61" s="5"/>
       <c r="BN61" s="5"/>
       <c r="BO61" s="5"/>
-      <c r="BP61" s="58"/>
+      <c r="BP61" s="42"/>
       <c r="BQ61" s="5"/>
       <c r="BR61" s="5"/>
       <c r="BS61" s="5"/>
@@ -18304,7 +18304,7 @@
       <c r="HP61" s="5"/>
       <c r="HQ61" s="5"/>
     </row>
-    <row r="62" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62"/>
       <c r="B62" s="31"/>
       <c r="C62" s="32"/>
@@ -18531,7 +18531,7 @@
       <c r="HP62" s="5"/>
       <c r="HQ62" s="5"/>
     </row>
-    <row r="63" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63"/>
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
@@ -18758,7 +18758,7 @@
       <c r="HP63" s="5"/>
       <c r="HQ63" s="5"/>
     </row>
-    <row r="64" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64"/>
       <c r="B64" s="31"/>
       <c r="C64" s="32"/>
@@ -18985,7 +18985,7 @@
       <c r="HP64" s="5"/>
       <c r="HQ64" s="5"/>
     </row>
-    <row r="65" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="31"/>
       <c r="C65" s="32"/>
@@ -19212,7 +19212,7 @@
       <c r="HP65" s="5"/>
       <c r="HQ65" s="5"/>
     </row>
-    <row r="66" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="31"/>
       <c r="C66" s="32"/>
@@ -19439,7 +19439,7 @@
       <c r="HP66" s="5"/>
       <c r="HQ66" s="5"/>
     </row>
-    <row r="67" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67"/>
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
@@ -19666,7 +19666,7 @@
       <c r="HP67" s="5"/>
       <c r="HQ67" s="5"/>
     </row>
-    <row r="68" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68"/>
       <c r="B68" s="31"/>
       <c r="C68" s="32"/>
@@ -19893,7 +19893,7 @@
       <c r="HP68" s="5"/>
       <c r="HQ68" s="5"/>
     </row>
-    <row r="69" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69"/>
       <c r="B69" s="31"/>
       <c r="C69" s="32"/>
@@ -20120,7 +20120,7 @@
       <c r="HP69" s="5"/>
       <c r="HQ69" s="5"/>
     </row>
-    <row r="70" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="31"/>
       <c r="C70" s="32"/>
@@ -20347,7 +20347,7 @@
       <c r="HP70" s="5"/>
       <c r="HQ70" s="5"/>
     </row>
-    <row r="71" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="31"/>
       <c r="C71" s="32"/>
@@ -20574,7 +20574,7 @@
       <c r="HP71" s="5"/>
       <c r="HQ71" s="5"/>
     </row>
-    <row r="72" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72"/>
       <c r="B72" s="31"/>
       <c r="C72" s="32"/>
@@ -20801,7 +20801,7 @@
       <c r="HP72" s="5"/>
       <c r="HQ72" s="5"/>
     </row>
-    <row r="73" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73"/>
       <c r="B73" s="31"/>
       <c r="C73" s="32"/>
@@ -21028,7 +21028,7 @@
       <c r="HP73" s="5"/>
       <c r="HQ73" s="5"/>
     </row>
-    <row r="74" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74"/>
       <c r="B74" s="31"/>
       <c r="C74" s="32"/>
@@ -21255,7 +21255,7 @@
       <c r="HP74" s="5"/>
       <c r="HQ74" s="5"/>
     </row>
-    <row r="75" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="31"/>
       <c r="C75" s="32"/>
@@ -21482,7 +21482,7 @@
       <c r="HP75" s="5"/>
       <c r="HQ75" s="5"/>
     </row>
-    <row r="76" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="31"/>
       <c r="C76" s="32"/>
@@ -21709,7 +21709,7 @@
       <c r="HP76" s="5"/>
       <c r="HQ76" s="5"/>
     </row>
-    <row r="77" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77"/>
       <c r="B77" s="31"/>
       <c r="C77" s="32"/>
@@ -21936,7 +21936,7 @@
       <c r="HP77" s="5"/>
       <c r="HQ77" s="5"/>
     </row>
-    <row r="78" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78"/>
       <c r="B78" s="31"/>
       <c r="C78" s="32"/>
@@ -22163,7 +22163,7 @@
       <c r="HP78" s="5"/>
       <c r="HQ78" s="5"/>
     </row>
-    <row r="79" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79"/>
       <c r="B79" s="31"/>
       <c r="C79" s="32"/>
@@ -22390,7 +22390,7 @@
       <c r="HP79" s="5"/>
       <c r="HQ79" s="5"/>
     </row>
-    <row r="80" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80"/>
       <c r="B80" s="31"/>
       <c r="C80" s="32"/>
@@ -22617,7 +22617,7 @@
       <c r="HP80" s="5"/>
       <c r="HQ80" s="5"/>
     </row>
-    <row r="81" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81"/>
       <c r="B81" s="31"/>
       <c r="C81" s="32"/>
@@ -22844,7 +22844,7 @@
       <c r="HP81" s="5"/>
       <c r="HQ81" s="5"/>
     </row>
-    <row r="82" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82"/>
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
@@ -23071,7 +23071,7 @@
       <c r="HP82" s="5"/>
       <c r="HQ82" s="5"/>
     </row>
-    <row r="83" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83"/>
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
@@ -23298,7 +23298,7 @@
       <c r="HP83" s="5"/>
       <c r="HQ83" s="5"/>
     </row>
-    <row r="84" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84"/>
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
@@ -23525,7 +23525,7 @@
       <c r="HP84" s="5"/>
       <c r="HQ84" s="5"/>
     </row>
-    <row r="85" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
@@ -23752,7 +23752,7 @@
       <c r="HP85" s="5"/>
       <c r="HQ85" s="5"/>
     </row>
-    <row r="86" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
@@ -23979,7 +23979,7 @@
       <c r="HP86" s="5"/>
       <c r="HQ86" s="5"/>
     </row>
-    <row r="87" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87"/>
       <c r="B87" s="31"/>
       <c r="C87" s="32"/>
@@ -24206,7 +24206,7 @@
       <c r="HP87" s="5"/>
       <c r="HQ87" s="5"/>
     </row>
-    <row r="88" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88"/>
       <c r="B88" s="31"/>
       <c r="C88" s="32"/>
@@ -24433,7 +24433,7 @@
       <c r="HP88" s="5"/>
       <c r="HQ88" s="5"/>
     </row>
-    <row r="89" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89"/>
       <c r="B89" s="31"/>
       <c r="C89" s="32"/>
@@ -24660,7 +24660,7 @@
       <c r="HP89" s="5"/>
       <c r="HQ89" s="5"/>
     </row>
-    <row r="90" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90"/>
       <c r="B90" s="31"/>
       <c r="C90" s="32"/>
@@ -24887,7 +24887,7 @@
       <c r="HP90" s="5"/>
       <c r="HQ90" s="5"/>
     </row>
-    <row r="91" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91"/>
       <c r="B91" s="31"/>
       <c r="C91" s="32"/>
@@ -25114,7 +25114,7 @@
       <c r="HP91" s="5"/>
       <c r="HQ91" s="5"/>
     </row>
-    <row r="92" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92"/>
       <c r="B92" s="31"/>
       <c r="C92" s="32"/>
@@ -25341,7 +25341,7 @@
       <c r="HP92" s="5"/>
       <c r="HQ92" s="5"/>
     </row>
-    <row r="93" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93"/>
       <c r="B93" s="31"/>
       <c r="C93" s="32"/>
@@ -25568,7 +25568,7 @@
       <c r="HP93" s="5"/>
       <c r="HQ93" s="5"/>
     </row>
-    <row r="94" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="31"/>
       <c r="C94" s="32"/>
@@ -25795,7 +25795,7 @@
       <c r="HP94" s="5"/>
       <c r="HQ94" s="5"/>
     </row>
-    <row r="95" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="31"/>
       <c r="C95" s="32"/>
@@ -26022,7 +26022,7 @@
       <c r="HP95" s="5"/>
       <c r="HQ95" s="5"/>
     </row>
-    <row r="96" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96"/>
       <c r="B96" s="31"/>
       <c r="C96" s="32"/>
@@ -26249,7 +26249,7 @@
       <c r="HP96" s="5"/>
       <c r="HQ96" s="5"/>
     </row>
-    <row r="97" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97"/>
       <c r="B97" s="31"/>
       <c r="C97" s="32"/>
@@ -26476,7 +26476,7 @@
       <c r="HP97" s="5"/>
       <c r="HQ97" s="5"/>
     </row>
-    <row r="98" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98"/>
       <c r="B98" s="31"/>
       <c r="C98" s="32"/>
@@ -26703,7 +26703,7 @@
       <c r="HP98" s="5"/>
       <c r="HQ98" s="5"/>
     </row>
-    <row r="99" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99"/>
       <c r="B99" s="31"/>
       <c r="C99" s="32"/>
@@ -26930,7 +26930,7 @@
       <c r="HP99" s="5"/>
       <c r="HQ99" s="5"/>
     </row>
-    <row r="100" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100"/>
       <c r="B100" s="31"/>
       <c r="C100" s="32"/>
@@ -27157,7 +27157,7 @@
       <c r="HP100" s="5"/>
       <c r="HQ100" s="5"/>
     </row>
-    <row r="101" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="31"/>
       <c r="C101" s="32"/>
@@ -27384,7 +27384,7 @@
       <c r="HP101" s="5"/>
       <c r="HQ101" s="5"/>
     </row>
-    <row r="102" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="31"/>
       <c r="C102" s="32"/>
@@ -27611,7 +27611,7 @@
       <c r="HP102" s="5"/>
       <c r="HQ102" s="5"/>
     </row>
-    <row r="103" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="31"/>
       <c r="C103" s="32"/>
@@ -27838,7 +27838,7 @@
       <c r="HP103" s="5"/>
       <c r="HQ103" s="5"/>
     </row>
-    <row r="104" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="31"/>
       <c r="C104" s="32"/>
@@ -28065,7 +28065,7 @@
       <c r="HP104" s="5"/>
       <c r="HQ104" s="5"/>
     </row>
-    <row r="105" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="31"/>
       <c r="C105" s="32"/>
@@ -28292,7 +28292,7 @@
       <c r="HP105" s="5"/>
       <c r="HQ105" s="5"/>
     </row>
-    <row r="106" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106"/>
       <c r="B106" s="31"/>
       <c r="C106" s="32"/>
@@ -28519,7 +28519,7 @@
       <c r="HP106" s="5"/>
       <c r="HQ106" s="5"/>
     </row>
-    <row r="107" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107"/>
       <c r="B107" s="31"/>
       <c r="C107" s="32"/>
@@ -28746,7 +28746,7 @@
       <c r="HP107" s="5"/>
       <c r="HQ107" s="5"/>
     </row>
-    <row r="108" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108"/>
       <c r="B108" s="31"/>
       <c r="C108" s="32"/>
@@ -28973,7 +28973,7 @@
       <c r="HP108" s="5"/>
       <c r="HQ108" s="5"/>
     </row>
-    <row r="109" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109" s="31"/>
       <c r="C109" s="32"/>
@@ -29200,7 +29200,7 @@
       <c r="HP109" s="5"/>
       <c r="HQ109" s="5"/>
     </row>
-    <row r="110" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:225" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110" s="31"/>
       <c r="C110" s="32"/>
@@ -29429,14 +29429,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C10:E11"/>
     <mergeCell ref="C43:E44"/>
     <mergeCell ref="C45:E46"/>
     <mergeCell ref="C47:E48"/>
@@ -29453,6 +29445,14 @@
     <mergeCell ref="C37:E38"/>
     <mergeCell ref="C39:E40"/>
     <mergeCell ref="C41:E42"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="L1:HQ4">
@@ -29705,7 +29705,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="31" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D82DA-E3F7-422E-9DAA-22E96520AF79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム開発スケジュール" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">システム開発スケジュール!$B$1:$HQ$110</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -335,26 +337,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>作業日報</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニッポウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最終感想文</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>カンソウブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>計画</t>
     <rPh sb="0" eb="2">
       <t>ケイカク</t>
@@ -369,31 +351,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2019/10/</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2019/10/</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2019/１０/</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>中山</t>
     <rPh sb="0" eb="2">
       <t>ナカヤマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中尾・河田</t>
-    <rPh sb="0" eb="2">
-      <t>ナカオ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カワタ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -411,86 +371,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2019/10/</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>川戸・奥野</t>
-    <rPh sb="0" eb="2">
-      <t>カワト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オクノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中山・河田</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カワタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>中尾・奥野</t>
     <rPh sb="0" eb="2">
       <t>ナカオ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>オクノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>川戸河田</t>
-    <rPh sb="0" eb="2">
-      <t>カワト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カワタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中山・中尾</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナカオ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>川戸・中山</t>
-    <rPh sb="0" eb="2">
-      <t>カワト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナカヤマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>奥野・河田</t>
-    <rPh sb="0" eb="2">
-      <t>オクノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カワタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中尾・中山</t>
-    <rPh sb="0" eb="2">
-      <t>ナカオ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナカヤマ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -505,16 +391,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>河田・川戸</t>
-    <rPh sb="0" eb="2">
-      <t>カワタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カワト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>中山・奥野</t>
     <rPh sb="0" eb="2">
       <t>ナカヤマ</t>
@@ -525,19 +401,61 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>奥野・川戸</t>
+    <t>河田</t>
     <rPh sb="0" eb="2">
-      <t>オクノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カワト</t>
+      <t>カワタ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>中尾</t>
+    <t>河田・奥野</t>
+    <rPh sb="0" eb="2">
+      <t>カワタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オクノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>川戸・中尾・河田・中山</t>
+    <rPh sb="0" eb="2">
+      <t>カワト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カワタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中尾・河田・奥野</t>
     <rPh sb="0" eb="2">
       <t>ナカオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オクノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中山・河田・奥野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オクノ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -545,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -977,8 +895,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1001,17 +919,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1038,31 +949,44 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill patternType="lightDown">
-          <fgColor theme="0"/>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1086,6 +1010,35 @@
         <left/>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1201,13 +1154,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1718,24 +1664,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:HQ110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="EO5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="EQ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CB64" sqref="CB64"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3494,14 +3440,14 @@
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="58" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -4166,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="50"/>
-      <c r="J4" s="49"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="15" t="s">
         <v>8</v>
       </c>
@@ -5713,7 +5659,7 @@
     <row r="8" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="43" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="44"/>
@@ -5727,11 +5673,9 @@
       <c r="H8" s="22">
         <v>43746</v>
       </c>
-      <c r="I8" s="30">
-        <v>1</v>
-      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="11"/>
@@ -5964,12 +5908,8 @@
       <c r="H9" s="22">
         <v>43749</v>
       </c>
-      <c r="I9" s="30">
-        <v>1</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="25"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -6189,7 +6129,7 @@
     <row r="10" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="44"/>
@@ -6201,13 +6141,11 @@
         <v>43736</v>
       </c>
       <c r="H10" s="22">
-        <v>43746</v>
-      </c>
-      <c r="I10" s="30">
-        <v>1</v>
-      </c>
+        <v>43748</v>
+      </c>
+      <c r="I10" s="30"/>
       <c r="J10" s="24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="11"/>
@@ -6435,17 +6373,13 @@
         <v>15</v>
       </c>
       <c r="G11" s="22">
-        <v>43739</v>
+        <v>43736</v>
       </c>
       <c r="H11" s="22">
-        <v>43749</v>
-      </c>
-      <c r="I11" s="30">
-        <v>1</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
+        <v>43800</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="25"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -6665,7 +6599,7 @@
     <row r="12" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="43" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="44"/>
@@ -6677,13 +6611,11 @@
         <v>43742</v>
       </c>
       <c r="H12" s="22">
-        <v>43749</v>
-      </c>
-      <c r="I12" s="30">
-        <v>1</v>
-      </c>
+        <v>43789</v>
+      </c>
+      <c r="I12" s="30"/>
       <c r="J12" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="11"/>
@@ -6914,14 +6846,10 @@
         <v>43742</v>
       </c>
       <c r="H13" s="22">
-        <v>43749</v>
-      </c>
-      <c r="I13" s="30">
-        <v>1</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>42</v>
-      </c>
+        <v>43789</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="25"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -7141,7 +7069,7 @@
     <row r="14" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="44"/>
@@ -7149,16 +7077,10 @@
       <c r="F14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="22">
-        <v>43755</v>
-      </c>
-      <c r="H14" s="22">
-        <v>43763</v>
-      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="J14" s="24"/>
       <c r="K14" s="25"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -7384,12 +7306,8 @@
       <c r="F15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>44</v>
-      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="30"/>
       <c r="J15" s="24"/>
       <c r="K15" s="25"/>
@@ -7611,7 +7529,7 @@
     <row r="16" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="44"/>
@@ -7620,14 +7538,14 @@
         <v>13</v>
       </c>
       <c r="G16" s="22">
-        <v>43755</v>
+        <v>43763</v>
       </c>
       <c r="H16" s="22">
-        <v>43763</v>
+        <v>43774</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="11"/>
@@ -7854,11 +7772,11 @@
       <c r="F17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>39</v>
+      <c r="G17" s="22">
+        <v>43763</v>
+      </c>
+      <c r="H17" s="22">
+        <v>43774</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="24"/>
@@ -8081,7 +7999,7 @@
     <row r="18" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="44"/>
@@ -8097,7 +8015,7 @@
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="11"/>
@@ -8324,11 +8242,11 @@
       <c r="F19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>39</v>
+      <c r="G19" s="22">
+        <v>43755</v>
+      </c>
+      <c r="H19" s="22">
+        <v>43787</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="24"/>
@@ -8551,7 +8469,7 @@
     <row r="20" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="44"/>
@@ -8559,15 +8477,15 @@
       <c r="F20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>38</v>
+      <c r="G20" s="22">
+        <v>43779</v>
+      </c>
+      <c r="H20" s="22">
+        <v>43806</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="11"/>
@@ -8794,11 +8712,11 @@
       <c r="F21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>39</v>
+      <c r="G21" s="22">
+        <v>43779</v>
+      </c>
+      <c r="H21" s="22">
+        <v>43806</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="24"/>
@@ -9021,23 +8939,23 @@
     <row r="22" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="22">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="H22" s="22">
-        <v>43770</v>
+        <v>43809</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="24" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="11"/>
@@ -9258,17 +9176,17 @@
     <row r="23" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>38</v>
+      <c r="G23" s="22">
+        <v>43794</v>
+      </c>
+      <c r="H23" s="22">
+        <v>43809</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="24"/>
@@ -9718,7 +9636,7 @@
     <row r="25" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="44"/>
@@ -9730,11 +9648,11 @@
         <v>43763</v>
       </c>
       <c r="H25" s="22">
-        <v>43770</v>
+        <v>43809</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="11"/>
@@ -9961,11 +9879,11 @@
       <c r="F26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>39</v>
+      <c r="G26" s="22">
+        <v>43763</v>
+      </c>
+      <c r="H26" s="22">
+        <v>43800</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="24"/>
@@ -10188,7 +10106,7 @@
     <row r="27" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="44"/>
@@ -10197,14 +10115,14 @@
         <v>13</v>
       </c>
       <c r="G27" s="22">
-        <v>43763</v>
+        <v>43800</v>
       </c>
       <c r="H27" s="22">
-        <v>43770</v>
+        <v>43809</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="11"/>
@@ -10431,11 +10349,11 @@
       <c r="F28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>39</v>
+      <c r="G28" s="22">
+        <v>43800</v>
+      </c>
+      <c r="H28" s="22">
+        <v>43809</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="24"/>
@@ -10658,7 +10576,7 @@
     <row r="29" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="44"/>
@@ -10667,14 +10585,14 @@
         <v>13</v>
       </c>
       <c r="G29" s="22">
-        <v>43763</v>
+        <v>43799</v>
       </c>
       <c r="H29" s="22">
-        <v>43770</v>
+        <v>43813</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K29" s="25"/>
       <c r="L29" s="11"/>
@@ -10901,11 +10819,11 @@
       <c r="F30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>39</v>
+      <c r="G30" s="22">
+        <v>43799</v>
+      </c>
+      <c r="H30" s="22">
+        <v>43814</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="24"/>
@@ -11128,7 +11046,7 @@
     <row r="31" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="57" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="44"/>
@@ -11136,12 +11054,8 @@
       <c r="F31" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="30"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
@@ -11369,12 +11283,8 @@
       <c r="F32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="30"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
@@ -11596,7 +11506,7 @@
     <row r="33" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="44"/>
@@ -11604,16 +11514,10 @@
       <c r="F33" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="22">
-        <v>43770</v>
-      </c>
-      <c r="H33" s="22">
-        <v>43777</v>
-      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="30"/>
-      <c r="J33" s="24" t="s">
-        <v>53</v>
-      </c>
+      <c r="J33" s="24"/>
       <c r="K33" s="25"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -11839,12 +11743,8 @@
       <c r="F34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="30"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
@@ -12066,7 +11966,7 @@
     <row r="35" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="44"/>
@@ -12074,16 +11974,10 @@
       <c r="F35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="22">
-        <v>43770</v>
-      </c>
-      <c r="H35" s="22">
-        <v>43777</v>
-      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="30"/>
-      <c r="J35" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="J35" s="24"/>
       <c r="K35" s="25"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -12309,12 +12203,8 @@
       <c r="F36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="30"/>
       <c r="J36" s="24"/>
       <c r="K36" s="25"/>
@@ -12536,7 +12426,7 @@
     <row r="37" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="44"/>
@@ -12544,16 +12434,10 @@
       <c r="F37" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="22">
-        <v>43770</v>
-      </c>
-      <c r="H37" s="22">
-        <v>43777</v>
-      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="J37" s="24"/>
       <c r="K37" s="25"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -12779,12 +12663,8 @@
       <c r="F38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="30"/>
       <c r="J38" s="24"/>
       <c r="K38" s="25"/>
@@ -13006,7 +12886,7 @@
     <row r="39" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="44"/>
@@ -13015,14 +12895,14 @@
         <v>14</v>
       </c>
       <c r="G39" s="22">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="H39" s="22">
-        <v>43777</v>
+        <v>43814</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="11"/>
@@ -13249,11 +13129,11 @@
       <c r="F40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>39</v>
+      <c r="G40" s="22">
+        <v>43800</v>
+      </c>
+      <c r="H40" s="22">
+        <v>43814</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="24"/>
@@ -13476,23 +13356,23 @@
     <row r="41" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="43" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="45"/>
       <c r="F41" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" s="22">
-        <v>43770</v>
+        <v>43824</v>
       </c>
       <c r="H41" s="22">
-        <v>43777</v>
+        <v>43828</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="24" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K41" s="25"/>
       <c r="L41" s="11"/>
@@ -13717,13 +13597,13 @@
       <c r="D42" s="47"/>
       <c r="E42" s="48"/>
       <c r="F42" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="G42" s="22">
+        <v>43824</v>
+      </c>
+      <c r="H42" s="22">
+        <v>43828</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="24"/>
@@ -13946,24 +13826,24 @@
     <row r="43" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
       <c r="F43" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G43" s="22">
         <v>43753</v>
       </c>
       <c r="H43" s="22">
-        <v>43755</v>
-      </c>
-      <c r="I43" s="30">
-        <v>1</v>
-      </c>
-      <c r="J43" s="24"/>
+        <v>43768</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="K43" s="25"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
@@ -14187,17 +14067,15 @@
       <c r="D44" s="47"/>
       <c r="E44" s="48"/>
       <c r="F44" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G44" s="22">
         <v>43753</v>
       </c>
       <c r="H44" s="22">
-        <v>43755</v>
-      </c>
-      <c r="I44" s="30">
-        <v>1</v>
-      </c>
+        <v>43829</v>
+      </c>
+      <c r="I44" s="30"/>
       <c r="J44" s="24"/>
       <c r="K44" s="25"/>
       <c r="L44" s="11"/>
@@ -14418,24 +14296,14 @@
     <row r="45" spans="1:225" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="51" t="s">
-        <v>34</v>
-      </c>
+      <c r="C45" s="43"/>
       <c r="D45" s="44"/>
       <c r="E45" s="45"/>
-      <c r="F45" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="24" t="s">
-        <v>57</v>
-      </c>
+      <c r="J45" s="24"/>
       <c r="K45" s="25"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -14658,15 +14526,9 @@
       <c r="C46" s="46"/>
       <c r="D46" s="47"/>
       <c r="E46" s="48"/>
-      <c r="F46" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="30"/>
       <c r="J46" s="24"/>
       <c r="K46" s="25"/>
@@ -14888,20 +14750,12 @@
     <row r="47" spans="1:225" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="51" t="s">
-        <v>35</v>
-      </c>
+      <c r="C47" s="43"/>
       <c r="D47" s="44"/>
       <c r="E47" s="45"/>
-      <c r="F47" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="30"/>
       <c r="J47" s="24"/>
       <c r="K47" s="25"/>
@@ -15126,15 +14980,9 @@
       <c r="C48" s="46"/>
       <c r="D48" s="47"/>
       <c r="E48" s="48"/>
-      <c r="F48" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="30"/>
       <c r="J48" s="24"/>
       <c r="K48" s="25"/>
@@ -29429,6 +29277,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
     <mergeCell ref="C43:E44"/>
     <mergeCell ref="C45:E46"/>
     <mergeCell ref="C47:E48"/>
@@ -29445,262 +29301,254 @@
     <mergeCell ref="C37:E38"/>
     <mergeCell ref="C39:E40"/>
     <mergeCell ref="C41:E42"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C10:E11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="L1:HQ4">
-    <cfRule type="timePeriod" dxfId="50" priority="160" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="53" priority="160" timePeriod="today">
       <formula>FLOOR(L1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:HQ2">
-    <cfRule type="cellIs" dxfId="49" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="164" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:HQ1">
-    <cfRule type="cellIs" dxfId="48" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="162" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:HQ30 L35:HQ110">
-    <cfRule type="expression" dxfId="47" priority="168">
+    <cfRule type="expression" dxfId="50" priority="168">
       <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:H24 B8:C8 B9:B23 B25:B30 F28:F30 B35:B48 F35:F48 I35:HQ48 F25:H27 G10:H13 G16:H23 B5:H7 B49:HQ110 F8:H9 I5:HQ30">
-    <cfRule type="expression" dxfId="46" priority="170">
+  <conditionalFormatting sqref="B24:H24 B8:C8 B9:B23 B25:B30 F28:F30 B35:B48 F35:F48 I35:HQ48 F25:H27 B5:H7 B49:HQ110 F8:H9 I5:HQ30 G16:H23 G10:H13">
+    <cfRule type="expression" dxfId="2" priority="170">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="45" priority="152">
+    <cfRule type="expression" dxfId="49" priority="152">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="44" priority="143">
+    <cfRule type="expression" dxfId="48" priority="143">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="43" priority="140">
+    <cfRule type="expression" dxfId="47" priority="140">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="42" priority="137">
+    <cfRule type="expression" dxfId="46" priority="137">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="41" priority="134">
+    <cfRule type="expression" dxfId="45" priority="134">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="40" priority="131">
+    <cfRule type="expression" dxfId="44" priority="131">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="39" priority="128">
+    <cfRule type="expression" dxfId="43" priority="128">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="38" priority="125">
+    <cfRule type="expression" dxfId="42" priority="125">
       <formula>$A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="37" priority="113">
+    <cfRule type="expression" dxfId="41" priority="113">
       <formula>$A37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="36" priority="119">
+    <cfRule type="expression" dxfId="40" priority="119">
       <formula>$A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="35" priority="116">
+    <cfRule type="expression" dxfId="39" priority="116">
       <formula>$A35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="34" priority="110">
+    <cfRule type="expression" dxfId="38" priority="110">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="33" priority="104">
+    <cfRule type="expression" dxfId="37" priority="104">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="32" priority="101">
+    <cfRule type="expression" dxfId="36" priority="101">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="31" priority="98">
+    <cfRule type="expression" dxfId="35" priority="98">
       <formula>$A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="30" priority="95">
+    <cfRule type="expression" dxfId="34" priority="95">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="29" priority="92">
+    <cfRule type="expression" dxfId="33" priority="92">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="28" priority="89">
+    <cfRule type="expression" dxfId="32" priority="89">
       <formula>$A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="27" priority="86">
+    <cfRule type="expression" dxfId="31" priority="86">
       <formula>$A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="26" priority="80">
+    <cfRule type="expression" dxfId="30" priority="80">
       <formula>$A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="25" priority="77">
+    <cfRule type="expression" dxfId="29" priority="77">
       <formula>$A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="24" priority="74">
+    <cfRule type="expression" dxfId="28" priority="74">
       <formula>$A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="23" priority="71">
+    <cfRule type="expression" dxfId="27" priority="71">
       <formula>$A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="22" priority="68">
+    <cfRule type="expression" dxfId="26" priority="68">
       <formula>$A21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="21" priority="65">
+    <cfRule type="expression" dxfId="25" priority="65">
       <formula>$A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="20" priority="62">
+    <cfRule type="expression" dxfId="24" priority="62">
       <formula>$A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="19" priority="59">
+    <cfRule type="expression" dxfId="23" priority="59">
       <formula>$A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="18" priority="56">
+    <cfRule type="expression" dxfId="22" priority="56">
       <formula>$A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:HQ34">
-    <cfRule type="expression" dxfId="17" priority="52">
+    <cfRule type="expression" dxfId="21" priority="52">
       <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B34 F33:F34 I33:HQ34">
-    <cfRule type="expression" dxfId="16" priority="53">
+    <cfRule type="expression" dxfId="20" priority="53">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="15" priority="46">
+    <cfRule type="expression" dxfId="19" priority="46">
       <formula>$A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:HQ32">
-    <cfRule type="expression" dxfId="14" priority="42">
+    <cfRule type="expression" dxfId="18" priority="42">
       <formula>WEEKDAY(L$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32 F31:F32 I31:HQ32">
-    <cfRule type="expression" dxfId="13" priority="43">
+    <cfRule type="expression" dxfId="17" priority="43">
       <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="12" priority="36">
+    <cfRule type="expression" dxfId="16" priority="36">
       <formula>$A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="11" priority="33">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>$A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="10" priority="30">
+    <cfRule type="expression" dxfId="14" priority="30">
       <formula>$A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="9" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>$A47&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G48">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>$A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H48">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:XFD7 B8:C8 B49:XFD110 F8:XFD23 B9:B23 F25:XFD48 B24:XFD24 C10 C12 C14 C16 C18 C20 C22 C25 C37 C29 C35 C27 C39 C41 C33 B25:B48 C31 C43 C45 C47">
-    <cfRule type="expression" dxfId="4" priority="171">
+  <conditionalFormatting sqref="B5:XFD7 B8:C8 B49:XFD110 B9:B23 B24:XFD24 C10 C12 C14 C16 C18 C20 C22 C25 C37 C29 C35 C27 C39 C41 C33 B25:B48 C31 C43 C45 C47 F25:XFD48 F8:XFD23">
+    <cfRule type="expression" dxfId="1" priority="171">
       <formula>$B5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
+    <cfRule type="expression" dxfId="0" priority="172">
       <formula>$I5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:HQ110">
-    <cfRule type="expression" dxfId="2" priority="235">
+    <cfRule type="expression" dxfId="8" priority="235">
       <formula>L$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="236">
+    <cfRule type="expression" dxfId="7" priority="236">
       <formula>AND(#REF!&lt;=L$3,#REF!&gt;=L$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="237">
+    <cfRule type="expression" dxfId="6" priority="237">
       <formula>AND($G5&lt;=L$3,$H5&gt;=L$3)</formula>
     </cfRule>
   </conditionalFormatting>
